--- a/database/industries/siman/sekhash/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208F7C9-06F6-4BF2-80EE-F5C12913B2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA0EAF-D6D9-43EE-BA2C-16E501E5AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="106">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخاش-سیمان‌خاش‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -820,12 +820,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -880,7 +880,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1049,7 +1049,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1218,7 +1218,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1430,7 +1430,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1549,75 +1549,75 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>19535</v>
+      </c>
+      <c r="X11" s="11">
+        <v>18979</v>
       </c>
       <c r="Y11" s="11">
-        <v>19535</v>
+        <v>17145</v>
       </c>
       <c r="Z11" s="11">
-        <v>18979</v>
+        <v>13691</v>
       </c>
       <c r="AA11" s="11">
-        <v>17145</v>
+        <v>16231</v>
       </c>
       <c r="AB11" s="11">
-        <v>13691</v>
+        <v>24105</v>
       </c>
       <c r="AC11" s="11">
-        <v>16231</v>
+        <v>26218</v>
       </c>
       <c r="AD11" s="11">
-        <v>24105</v>
+        <v>11478</v>
       </c>
       <c r="AE11" s="11">
-        <v>26218</v>
+        <v>9140</v>
       </c>
       <c r="AF11" s="11">
-        <v>11478</v>
+        <v>9039</v>
       </c>
       <c r="AG11" s="11">
-        <v>9140</v>
+        <v>23707</v>
       </c>
       <c r="AH11" s="11">
-        <v>9039</v>
+        <v>24395</v>
       </c>
       <c r="AI11" s="11">
-        <v>23707</v>
+        <v>15816</v>
       </c>
       <c r="AJ11" s="11">
-        <v>24395</v>
+        <v>12129</v>
       </c>
       <c r="AK11" s="11">
-        <v>15816</v>
+        <v>38521</v>
       </c>
       <c r="AL11" s="11">
-        <v>12129</v>
+        <v>38498</v>
       </c>
       <c r="AM11" s="11">
-        <v>38521</v>
+        <v>15806</v>
       </c>
       <c r="AN11" s="11">
-        <v>38498</v>
+        <v>14499</v>
       </c>
       <c r="AO11" s="11">
-        <v>15806</v>
+        <v>16353</v>
       </c>
       <c r="AP11" s="11">
-        <v>14499</v>
+        <v>24464</v>
       </c>
       <c r="AQ11" s="11">
-        <v>16353</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>24464</v>
-      </c>
-      <c r="AS11" s="11">
         <v>28957</v>
       </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1771,41 +1771,41 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>11847</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>20700</v>
       </c>
       <c r="AT12" s="13">
-        <v>11847</v>
+        <v>6451</v>
       </c>
       <c r="AU12" s="13">
-        <v>20700</v>
+        <v>31884</v>
       </c>
       <c r="AV12" s="13">
-        <v>6451</v>
+        <v>16923</v>
       </c>
       <c r="AW12" s="13">
-        <v>31884</v>
+        <v>20611</v>
       </c>
       <c r="AX12" s="13">
-        <v>16923</v>
+        <v>24488</v>
       </c>
       <c r="AY12" s="13">
-        <v>20611</v>
+        <v>26781</v>
       </c>
       <c r="AZ12" s="13">
-        <v>24488</v>
+        <v>22282</v>
       </c>
       <c r="BA12" s="13">
-        <v>26781</v>
+        <v>18966</v>
       </c>
       <c r="BB12" s="13">
-        <v>22282</v>
+        <v>28279</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1867,75 +1867,75 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>17923</v>
+      </c>
+      <c r="X13" s="11">
+        <v>17539</v>
       </c>
       <c r="Y13" s="11">
-        <v>17923</v>
+        <v>28386</v>
       </c>
       <c r="Z13" s="11">
-        <v>17539</v>
+        <v>1399</v>
       </c>
       <c r="AA13" s="11">
-        <v>28386</v>
+        <v>24737</v>
       </c>
       <c r="AB13" s="11">
-        <v>1399</v>
+        <v>27378</v>
       </c>
       <c r="AC13" s="11">
-        <v>24737</v>
+        <v>16964</v>
       </c>
       <c r="AD13" s="11">
-        <v>27378</v>
+        <v>19955</v>
       </c>
       <c r="AE13" s="11">
-        <v>16964</v>
+        <v>12037</v>
       </c>
       <c r="AF13" s="11">
-        <v>19955</v>
+        <v>8313</v>
       </c>
       <c r="AG13" s="11">
-        <v>12037</v>
+        <v>27188</v>
       </c>
       <c r="AH13" s="11">
-        <v>8313</v>
+        <v>29023</v>
       </c>
       <c r="AI13" s="11">
-        <v>27188</v>
+        <v>10458</v>
       </c>
       <c r="AJ13" s="11">
-        <v>29023</v>
+        <v>10772</v>
       </c>
       <c r="AK13" s="11">
-        <v>10458</v>
+        <v>24955</v>
       </c>
       <c r="AL13" s="11">
-        <v>10772</v>
+        <v>21194</v>
       </c>
       <c r="AM13" s="11">
-        <v>24955</v>
+        <v>19465</v>
       </c>
       <c r="AN13" s="11">
-        <v>21194</v>
+        <v>17088</v>
       </c>
       <c r="AO13" s="11">
-        <v>19465</v>
+        <v>17407</v>
       </c>
       <c r="AP13" s="11">
-        <v>17088</v>
+        <v>25648</v>
       </c>
       <c r="AQ13" s="11">
-        <v>17407</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>25648</v>
-      </c>
-      <c r="AS13" s="11">
         <v>30631</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2089,41 +2089,41 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>9332</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>9497</v>
       </c>
       <c r="AT14" s="13">
-        <v>9332</v>
+        <v>18598</v>
       </c>
       <c r="AU14" s="13">
-        <v>9497</v>
+        <v>10396</v>
       </c>
       <c r="AV14" s="13">
-        <v>18598</v>
+        <v>12694</v>
       </c>
       <c r="AW14" s="13">
-        <v>10396</v>
+        <v>19651</v>
       </c>
       <c r="AX14" s="13">
-        <v>12694</v>
+        <v>21578</v>
       </c>
       <c r="AY14" s="13">
-        <v>19651</v>
+        <v>23382</v>
       </c>
       <c r="AZ14" s="13">
-        <v>21578</v>
+        <v>23945</v>
       </c>
       <c r="BA14" s="13">
-        <v>23382</v>
+        <v>19573</v>
       </c>
       <c r="BB14" s="13">
-        <v>23945</v>
+        <v>20484</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2248,41 +2248,41 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>1498</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>3329</v>
       </c>
       <c r="AT15" s="11">
-        <v>1498</v>
+        <v>3319</v>
       </c>
       <c r="AU15" s="11">
-        <v>3329</v>
+        <v>4222</v>
       </c>
       <c r="AV15" s="11">
-        <v>3319</v>
+        <v>5323</v>
       </c>
       <c r="AW15" s="11">
-        <v>4222</v>
+        <v>6950</v>
       </c>
       <c r="AX15" s="11">
-        <v>5323</v>
+        <v>6183</v>
       </c>
       <c r="AY15" s="11">
-        <v>6950</v>
+        <v>6838</v>
       </c>
       <c r="AZ15" s="11">
-        <v>6183</v>
+        <v>8041</v>
       </c>
       <c r="BA15" s="11">
-        <v>6838</v>
+        <v>6752</v>
       </c>
       <c r="BB15" s="11">
-        <v>8041</v>
+        <v>10658</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2407,41 +2407,41 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>24520</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>24162</v>
       </c>
       <c r="AT16" s="13">
-        <v>24520</v>
+        <v>18481</v>
       </c>
       <c r="AU16" s="13">
-        <v>24162</v>
+        <v>14799</v>
       </c>
       <c r="AV16" s="13">
-        <v>18481</v>
+        <v>16849</v>
       </c>
       <c r="AW16" s="13">
-        <v>14799</v>
+        <v>22215</v>
       </c>
       <c r="AX16" s="13">
-        <v>16849</v>
+        <v>21730</v>
       </c>
       <c r="AY16" s="13">
-        <v>22215</v>
+        <v>23740</v>
       </c>
       <c r="AZ16" s="13">
-        <v>21730</v>
+        <v>28089</v>
       </c>
       <c r="BA16" s="13">
-        <v>23740</v>
+        <v>25288</v>
       </c>
       <c r="BB16" s="13">
-        <v>28089</v>
+        <v>23075</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2566,41 +2566,41 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>50</v>
       </c>
       <c r="AT17" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU17" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AX17" s="11">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY17" s="11">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="BA17" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB17" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2662,75 +2662,75 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>123</v>
+      </c>
+      <c r="X18" s="13">
+        <v>149</v>
       </c>
       <c r="Y18" s="13">
         <v>123</v>
       </c>
       <c r="Z18" s="13">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="AA18" s="13">
+        <v>72</v>
+      </c>
+      <c r="AB18" s="13">
         <v>123</v>
       </c>
-      <c r="AB18" s="13">
-        <v>201</v>
-      </c>
       <c r="AC18" s="13">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="13">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="AE18" s="13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG18" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH18" s="13">
+        <v>97</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="13">
         <v>26</v>
       </c>
-      <c r="AI18" s="13">
-        <v>26</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>26</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>99</v>
       </c>
       <c r="AP18" s="13">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AQ18" s="13">
-        <v>99</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>49</v>
-      </c>
-      <c r="AS18" s="13">
         <v>15</v>
       </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2821,11 +2821,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2848,11 +2848,11 @@
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2918,7 +2918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2980,75 +2980,75 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>7543</v>
+      </c>
+      <c r="X20" s="13">
+        <v>4269</v>
       </c>
       <c r="Y20" s="13">
-        <v>7543</v>
+        <v>5990</v>
       </c>
       <c r="Z20" s="13">
-        <v>4269</v>
+        <v>6724</v>
       </c>
       <c r="AA20" s="13">
-        <v>5990</v>
+        <v>8213</v>
       </c>
       <c r="AB20" s="13">
-        <v>6724</v>
+        <v>8370</v>
       </c>
       <c r="AC20" s="13">
-        <v>8213</v>
+        <v>6817</v>
       </c>
       <c r="AD20" s="13">
-        <v>8370</v>
+        <v>8584</v>
       </c>
       <c r="AE20" s="13">
-        <v>6817</v>
+        <v>9415</v>
       </c>
       <c r="AF20" s="13">
-        <v>8584</v>
+        <v>6261</v>
       </c>
       <c r="AG20" s="13">
-        <v>9415</v>
+        <v>7077</v>
       </c>
       <c r="AH20" s="13">
-        <v>6261</v>
+        <v>8483</v>
       </c>
       <c r="AI20" s="13">
-        <v>7077</v>
+        <v>5481</v>
       </c>
       <c r="AJ20" s="13">
-        <v>8483</v>
+        <v>3523</v>
       </c>
       <c r="AK20" s="13">
-        <v>5481</v>
+        <v>1518</v>
       </c>
       <c r="AL20" s="13">
-        <v>3523</v>
+        <v>3580</v>
       </c>
       <c r="AM20" s="13">
-        <v>1518</v>
+        <v>9750</v>
       </c>
       <c r="AN20" s="13">
-        <v>3580</v>
+        <v>7779</v>
       </c>
       <c r="AO20" s="13">
-        <v>9750</v>
+        <v>7653</v>
       </c>
       <c r="AP20" s="13">
-        <v>7779</v>
+        <v>6443</v>
       </c>
       <c r="AQ20" s="13">
-        <v>7653</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>6443</v>
-      </c>
-      <c r="AS20" s="13">
         <v>8403</v>
       </c>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT20" s="13" t="s">
         <v>58</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3139,75 +3139,75 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>53753</v>
+      </c>
+      <c r="X21" s="11">
+        <v>37771</v>
       </c>
       <c r="Y21" s="11">
-        <v>53753</v>
+        <v>35177</v>
       </c>
       <c r="Z21" s="11">
-        <v>37771</v>
+        <v>28467</v>
       </c>
       <c r="AA21" s="11">
-        <v>35177</v>
+        <v>34535</v>
       </c>
       <c r="AB21" s="11">
-        <v>28467</v>
+        <v>39016</v>
       </c>
       <c r="AC21" s="11">
-        <v>34535</v>
+        <v>21668</v>
       </c>
       <c r="AD21" s="11">
-        <v>39016</v>
+        <v>37310</v>
       </c>
       <c r="AE21" s="11">
-        <v>21668</v>
+        <v>44600</v>
       </c>
       <c r="AF21" s="11">
-        <v>37310</v>
+        <v>29585</v>
       </c>
       <c r="AG21" s="11">
-        <v>44600</v>
+        <v>26848</v>
       </c>
       <c r="AH21" s="11">
-        <v>29585</v>
+        <v>21528</v>
       </c>
       <c r="AI21" s="11">
-        <v>26848</v>
+        <v>14890</v>
       </c>
       <c r="AJ21" s="11">
-        <v>21528</v>
+        <v>7978</v>
       </c>
       <c r="AK21" s="11">
-        <v>14890</v>
+        <v>2499</v>
       </c>
       <c r="AL21" s="11">
-        <v>7978</v>
+        <v>7025</v>
       </c>
       <c r="AM21" s="11">
-        <v>2499</v>
+        <v>23996</v>
       </c>
       <c r="AN21" s="11">
-        <v>7025</v>
+        <v>25875</v>
       </c>
       <c r="AO21" s="11">
-        <v>23996</v>
+        <v>21044</v>
       </c>
       <c r="AP21" s="11">
-        <v>25875</v>
+        <v>19207</v>
       </c>
       <c r="AQ21" s="11">
-        <v>21044</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>19207</v>
-      </c>
-      <c r="AS21" s="11">
         <v>22237</v>
       </c>
+      <c r="AR21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT21" s="11" t="s">
         <v>58</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3307,29 +3307,29 @@
       <c r="Y22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>58</v>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>20</v>
       </c>
       <c r="AB22" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC22" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="13">
         <v>0</v>
       </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH22" s="13" t="s">
         <v>58</v>
@@ -3337,56 +3337,56 @@
       <c r="AI22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK22" s="13" t="s">
-        <v>58</v>
+      <c r="AJ22" s="13">
+        <v>49</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>53</v>
       </c>
       <c r="AL22" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM22" s="13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AN22" s="13">
         <v>50</v>
       </c>
       <c r="AO22" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AP22" s="13">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AQ22" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>47</v>
       </c>
       <c r="AU22" s="13">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="AV22" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" s="13">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY22" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="13">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3469,11 +3469,11 @@
       <c r="Z23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>58</v>
+      <c r="AA23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>0</v>
       </c>
       <c r="AC23" s="11">
         <v>0</v>
@@ -3484,11 +3484,11 @@
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
@@ -3554,7 +3554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3616,23 +3616,23 @@
       <c r="V24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>58</v>
+      <c r="W24" s="13">
+        <v>15</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
       </c>
       <c r="Y24" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="13">
         <v>0</v>
       </c>
-      <c r="AA24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="13">
-        <v>0</v>
+      <c r="AA24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC24" s="13" t="s">
         <v>58</v>
@@ -3713,7 +3713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3784,11 +3784,11 @@
       <c r="Y25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>58</v>
+      <c r="Z25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>0</v>
       </c>
       <c r="AB25" s="11">
         <v>0</v>
@@ -3802,11 +3802,11 @@
       <c r="AE25" s="11">
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>58</v>
@@ -3829,20 +3829,20 @@
       <c r="AN25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>58</v>
+      <c r="AO25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>0</v>
       </c>
       <c r="AQ25" s="11">
         <v>0</v>
       </c>
-      <c r="AR25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="11">
-        <v>0</v>
+      <c r="AR25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>58</v>
@@ -3872,7 +3872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>73</v>
       </c>
@@ -3933,103 +3933,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="15">
-        <v>0</v>
+        <v>98892</v>
       </c>
       <c r="X26" s="15">
-        <v>0</v>
+        <v>78707</v>
       </c>
       <c r="Y26" s="15">
-        <v>98892</v>
+        <v>86821</v>
       </c>
       <c r="Z26" s="15">
-        <v>78707</v>
+        <v>50482</v>
       </c>
       <c r="AA26" s="15">
-        <v>86821</v>
+        <v>83808</v>
       </c>
       <c r="AB26" s="15">
-        <v>50482</v>
+        <v>99015</v>
       </c>
       <c r="AC26" s="15">
-        <v>83808</v>
+        <v>71765</v>
       </c>
       <c r="AD26" s="15">
-        <v>99015</v>
+        <v>77354</v>
       </c>
       <c r="AE26" s="15">
-        <v>71765</v>
+        <v>75192</v>
       </c>
       <c r="AF26" s="15">
-        <v>77354</v>
+        <v>53224</v>
       </c>
       <c r="AG26" s="15">
-        <v>75192</v>
+        <v>84846</v>
       </c>
       <c r="AH26" s="15">
-        <v>53224</v>
+        <v>83526</v>
       </c>
       <c r="AI26" s="15">
-        <v>84846</v>
+        <v>46645</v>
       </c>
       <c r="AJ26" s="15">
-        <v>83526</v>
+        <v>34477</v>
       </c>
       <c r="AK26" s="15">
-        <v>46645</v>
+        <v>67546</v>
       </c>
       <c r="AL26" s="15">
-        <v>34477</v>
+        <v>70347</v>
       </c>
       <c r="AM26" s="15">
-        <v>67546</v>
+        <v>69063</v>
       </c>
       <c r="AN26" s="15">
-        <v>70347</v>
+        <v>65315</v>
       </c>
       <c r="AO26" s="15">
-        <v>69063</v>
+        <v>62581</v>
       </c>
       <c r="AP26" s="15">
-        <v>65315</v>
+        <v>75835</v>
       </c>
       <c r="AQ26" s="15">
-        <v>62581</v>
+        <v>90243</v>
       </c>
       <c r="AR26" s="15">
-        <v>75835</v>
+        <v>47197</v>
       </c>
       <c r="AS26" s="15">
-        <v>90243</v>
+        <v>57800</v>
       </c>
       <c r="AT26" s="15">
-        <v>47197</v>
+        <v>46914</v>
       </c>
       <c r="AU26" s="15">
-        <v>57800</v>
+        <v>61327</v>
       </c>
       <c r="AV26" s="15">
-        <v>46914</v>
+        <v>51789</v>
       </c>
       <c r="AW26" s="15">
-        <v>61327</v>
+        <v>69501</v>
       </c>
       <c r="AX26" s="15">
-        <v>51789</v>
+        <v>74123</v>
       </c>
       <c r="AY26" s="15">
-        <v>69501</v>
+        <v>80741</v>
       </c>
       <c r="AZ26" s="15">
-        <v>74123</v>
+        <v>82381</v>
       </c>
       <c r="BA26" s="15">
-        <v>80741</v>
+        <v>70604</v>
       </c>
       <c r="BB26" s="15">
-        <v>82381</v>
+        <v>82496</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>75</v>
       </c>
@@ -4148,11 +4148,11 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>0</v>
+      </c>
+      <c r="X28" s="11">
+        <v>0</v>
       </c>
       <c r="Y28" s="11">
         <v>0</v>
@@ -4175,11 +4175,11 @@
       <c r="AE28" s="11">
         <v>0</v>
       </c>
-      <c r="AF28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="11">
-        <v>0</v>
+      <c r="AF28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH28" s="11" t="s">
         <v>58</v>
@@ -4245,7 +4245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -4370,11 +4370,11 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>0</v>
       </c>
       <c r="AT29" s="13">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>76</v>
       </c>
@@ -4466,11 +4466,11 @@
       <c r="V30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>58</v>
+      <c r="W30" s="11">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>0</v>
       </c>
       <c r="Y30" s="11">
         <v>0</v>
@@ -4478,11 +4478,11 @@
       <c r="Z30" s="11">
         <v>0</v>
       </c>
-      <c r="AA30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>0</v>
+      <c r="AA30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB30" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC30" s="11" t="s">
         <v>58</v>
@@ -4563,7 +4563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>77</v>
       </c>
@@ -4625,56 +4625,56 @@
       <c r="V31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>58</v>
+      <c r="W31" s="13">
+        <v>3893</v>
+      </c>
+      <c r="X31" s="13">
+        <v>5758</v>
       </c>
       <c r="Y31" s="13">
-        <v>3893</v>
+        <v>3461</v>
       </c>
       <c r="Z31" s="13">
-        <v>5758</v>
+        <v>4543</v>
       </c>
       <c r="AA31" s="13">
-        <v>3461</v>
+        <v>1071</v>
       </c>
       <c r="AB31" s="13">
-        <v>4543</v>
+        <v>119</v>
       </c>
       <c r="AC31" s="13">
-        <v>1071</v>
+        <v>215</v>
       </c>
       <c r="AD31" s="13">
-        <v>119</v>
+        <v>979</v>
       </c>
       <c r="AE31" s="13">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="AF31" s="13">
-        <v>979</v>
+        <v>455</v>
       </c>
       <c r="AG31" s="13">
-        <v>492</v>
-      </c>
-      <c r="AH31" s="13">
-        <v>455</v>
-      </c>
-      <c r="AI31" s="13">
         <v>203</v>
       </c>
+      <c r="AH31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI31" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK31" s="13" t="s">
-        <v>58</v>
+      <c r="AK31" s="13">
+        <v>0</v>
       </c>
       <c r="AL31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM31" s="13">
-        <v>0</v>
+      <c r="AM31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN31" s="13" t="s">
         <v>58</v>
@@ -4722,7 +4722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
@@ -4847,11 +4847,11 @@
       <c r="AQ32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>58</v>
+      <c r="AR32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4863,25 +4863,25 @@
         <v>0</v>
       </c>
       <c r="AW32" s="11">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX32" s="11">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="AY32" s="11">
-        <v>99</v>
+        <v>1192</v>
       </c>
       <c r="AZ32" s="11">
-        <v>766</v>
+        <v>2151</v>
       </c>
       <c r="BA32" s="11">
-        <v>1192</v>
+        <v>2089</v>
       </c>
       <c r="BB32" s="11">
-        <v>2151</v>
+        <v>2321</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>78</v>
       </c>
@@ -4943,56 +4943,56 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>77</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0</v>
       </c>
       <c r="Y33" s="13">
-        <v>77</v>
+        <v>580</v>
       </c>
       <c r="Z33" s="13">
-        <v>0</v>
+        <v>1709</v>
       </c>
       <c r="AA33" s="13">
-        <v>580</v>
+        <v>193</v>
       </c>
       <c r="AB33" s="13">
-        <v>1709</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="13">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="AD33" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AE33" s="13">
-        <v>26</v>
+        <v>1231</v>
       </c>
       <c r="AF33" s="13">
-        <v>162</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>1231</v>
-      </c>
-      <c r="AH33" s="13">
         <v>22</v>
       </c>
+      <c r="AG33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI33" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AJ33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK33" s="13" t="s">
-        <v>58</v>
+      <c r="AK33" s="13">
+        <v>0</v>
       </c>
       <c r="AL33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="13">
-        <v>0</v>
+      <c r="AM33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN33" s="13" t="s">
         <v>58</v>
@@ -5040,7 +5040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>69</v>
       </c>
@@ -5105,17 +5105,17 @@
       <c r="W34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="11">
-        <v>0</v>
+      <c r="X34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB34" s="11" t="s">
         <v>58</v>
@@ -5199,7 +5199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>72</v>
       </c>
@@ -5267,14 +5267,14 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>3</v>
       </c>
       <c r="Z35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA35" s="13">
-        <v>3</v>
+      <c r="AA35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB35" s="13" t="s">
         <v>58</v>
@@ -5358,7 +5358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>79</v>
       </c>
@@ -5420,17 +5420,17 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>8991</v>
+      </c>
+      <c r="X36" s="11">
+        <v>2461</v>
       </c>
       <c r="Y36" s="11">
-        <v>8991</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="11">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="11">
         <v>0</v>
@@ -5445,31 +5445,31 @@
         <v>0</v>
       </c>
       <c r="AE36" s="11">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AF36" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="11">
-        <v>235</v>
-      </c>
-      <c r="AH36" s="11">
         <v>1744</v>
       </c>
+      <c r="AG36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI36" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK36" s="11" t="s">
-        <v>58</v>
+      <c r="AK36" s="11">
+        <v>0</v>
       </c>
       <c r="AL36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM36" s="11">
-        <v>0</v>
+      <c r="AM36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN36" s="11" t="s">
         <v>58</v>
@@ -5517,7 +5517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>80</v>
       </c>
@@ -5579,38 +5579,38 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <v>43250</v>
       </c>
       <c r="Y37" s="13">
         <v>0</v>
       </c>
       <c r="Z37" s="13">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="13">
         <v>0</v>
       </c>
       <c r="AB37" s="13">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AC37" s="13">
         <v>0</v>
       </c>
       <c r="AD37" s="13">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="13">
         <v>0</v>
       </c>
-      <c r="AF37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="13">
-        <v>0</v>
+      <c r="AF37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH37" s="13" t="s">
         <v>58</v>
@@ -5621,14 +5621,14 @@
       <c r="AJ37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK37" s="13" t="s">
-        <v>58</v>
+      <c r="AK37" s="13">
+        <v>0</v>
       </c>
       <c r="AL37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="13">
-        <v>0</v>
+      <c r="AM37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN37" s="13" t="s">
         <v>58</v>
@@ -5676,7 +5676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>81</v>
       </c>
@@ -5744,11 +5744,11 @@
       <c r="X38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38" s="11" t="s">
-        <v>58</v>
+      <c r="Y38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>0</v>
       </c>
       <c r="AA38" s="11">
         <v>0</v>
@@ -5765,11 +5765,11 @@
       <c r="AE38" s="11">
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>58</v>
@@ -5835,7 +5835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>82</v>
       </c>
@@ -5960,11 +5960,11 @@
       <c r="AQ39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="13" t="s">
-        <v>58</v>
+      <c r="AR39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>0</v>
       </c>
       <c r="AT39" s="13">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>83</v>
       </c>
@@ -6055,43 +6055,43 @@
         <v>0</v>
       </c>
       <c r="W40" s="17">
-        <v>0</v>
+        <v>12961</v>
       </c>
       <c r="X40" s="17">
-        <v>0</v>
+        <v>51469</v>
       </c>
       <c r="Y40" s="17">
-        <v>12961</v>
+        <v>4044</v>
       </c>
       <c r="Z40" s="17">
-        <v>51469</v>
+        <v>6252</v>
       </c>
       <c r="AA40" s="17">
-        <v>4044</v>
+        <v>1264</v>
       </c>
       <c r="AB40" s="17">
-        <v>6252</v>
+        <v>53580</v>
       </c>
       <c r="AC40" s="17">
-        <v>1264</v>
+        <v>241</v>
       </c>
       <c r="AD40" s="17">
-        <v>53580</v>
+        <v>1141</v>
       </c>
       <c r="AE40" s="17">
-        <v>241</v>
+        <v>1958</v>
       </c>
       <c r="AF40" s="17">
-        <v>1141</v>
+        <v>2221</v>
       </c>
       <c r="AG40" s="17">
-        <v>1958</v>
+        <v>203</v>
       </c>
       <c r="AH40" s="17">
-        <v>2221</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="17">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="17">
         <v>0</v>
@@ -6133,25 +6133,25 @@
         <v>0</v>
       </c>
       <c r="AW40" s="17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX40" s="17">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="AY40" s="17">
-        <v>99</v>
+        <v>1192</v>
       </c>
       <c r="AZ40" s="17">
-        <v>766</v>
+        <v>2151</v>
       </c>
       <c r="BA40" s="17">
-        <v>1192</v>
+        <v>2089</v>
       </c>
       <c r="BB40" s="17">
-        <v>2151</v>
+        <v>2321</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>84</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="BA41" s="19"/>
       <c r="BB41" s="19"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>85</v>
       </c>
@@ -6268,11 +6268,11 @@
       <c r="V42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>58</v>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
       </c>
       <c r="Y42" s="17">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>86</v>
       </c>
@@ -6426,103 +6426,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <v>0</v>
+        <v>111853</v>
       </c>
       <c r="X43" s="15">
-        <v>0</v>
+        <v>130176</v>
       </c>
       <c r="Y43" s="15">
-        <v>111853</v>
+        <v>90865</v>
       </c>
       <c r="Z43" s="15">
-        <v>130176</v>
+        <v>56734</v>
       </c>
       <c r="AA43" s="15">
-        <v>90865</v>
+        <v>85072</v>
       </c>
       <c r="AB43" s="15">
-        <v>56734</v>
+        <v>152595</v>
       </c>
       <c r="AC43" s="15">
-        <v>85072</v>
+        <v>72006</v>
       </c>
       <c r="AD43" s="15">
-        <v>152595</v>
+        <v>78495</v>
       </c>
       <c r="AE43" s="15">
-        <v>72006</v>
+        <v>77150</v>
       </c>
       <c r="AF43" s="15">
-        <v>78495</v>
+        <v>55445</v>
       </c>
       <c r="AG43" s="15">
-        <v>77150</v>
+        <v>85049</v>
       </c>
       <c r="AH43" s="15">
-        <v>55445</v>
+        <v>83526</v>
       </c>
       <c r="AI43" s="15">
-        <v>85049</v>
+        <v>46645</v>
       </c>
       <c r="AJ43" s="15">
-        <v>83526</v>
+        <v>34477</v>
       </c>
       <c r="AK43" s="15">
-        <v>46645</v>
+        <v>67546</v>
       </c>
       <c r="AL43" s="15">
-        <v>34477</v>
+        <v>70347</v>
       </c>
       <c r="AM43" s="15">
-        <v>67546</v>
+        <v>69063</v>
       </c>
       <c r="AN43" s="15">
-        <v>70347</v>
+        <v>65315</v>
       </c>
       <c r="AO43" s="15">
-        <v>69063</v>
+        <v>62581</v>
       </c>
       <c r="AP43" s="15">
-        <v>65315</v>
+        <v>75835</v>
       </c>
       <c r="AQ43" s="15">
-        <v>62581</v>
+        <v>90243</v>
       </c>
       <c r="AR43" s="15">
-        <v>75835</v>
+        <v>47197</v>
       </c>
       <c r="AS43" s="15">
-        <v>90243</v>
+        <v>57800</v>
       </c>
       <c r="AT43" s="15">
-        <v>47197</v>
+        <v>46914</v>
       </c>
       <c r="AU43" s="15">
-        <v>57800</v>
+        <v>61327</v>
       </c>
       <c r="AV43" s="15">
-        <v>46914</v>
+        <v>51789</v>
       </c>
       <c r="AW43" s="15">
-        <v>61327</v>
+        <v>69600</v>
       </c>
       <c r="AX43" s="15">
-        <v>51789</v>
+        <v>74889</v>
       </c>
       <c r="AY43" s="15">
-        <v>69600</v>
+        <v>81933</v>
       </c>
       <c r="AZ43" s="15">
-        <v>74889</v>
+        <v>84532</v>
       </c>
       <c r="BA43" s="15">
-        <v>81933</v>
+        <v>72693</v>
       </c>
       <c r="BB43" s="15">
-        <v>84532</v>
+        <v>84817</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6577,7 +6577,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6632,7 +6632,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6687,7 +6687,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>87</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6899,7 +6899,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>88</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -7018,75 +7018,75 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>19535</v>
+      </c>
+      <c r="X50" s="11">
+        <v>18979</v>
       </c>
       <c r="Y50" s="11">
-        <v>19535</v>
+        <v>17145</v>
       </c>
       <c r="Z50" s="11">
-        <v>18979</v>
+        <v>13691</v>
       </c>
       <c r="AA50" s="11">
-        <v>17145</v>
+        <v>16231</v>
       </c>
       <c r="AB50" s="11">
-        <v>13691</v>
+        <v>24105</v>
       </c>
       <c r="AC50" s="11">
-        <v>16231</v>
+        <v>26218</v>
       </c>
       <c r="AD50" s="11">
-        <v>24105</v>
+        <v>11478</v>
       </c>
       <c r="AE50" s="11">
-        <v>26218</v>
+        <v>8780</v>
       </c>
       <c r="AF50" s="11">
-        <v>11478</v>
+        <v>9039</v>
       </c>
       <c r="AG50" s="11">
-        <v>8780</v>
+        <v>23707</v>
       </c>
       <c r="AH50" s="11">
-        <v>9039</v>
+        <v>24395</v>
       </c>
       <c r="AI50" s="11">
-        <v>23707</v>
+        <v>15815</v>
       </c>
       <c r="AJ50" s="11">
-        <v>24395</v>
+        <v>12129</v>
       </c>
       <c r="AK50" s="11">
-        <v>15815</v>
+        <v>38521</v>
       </c>
       <c r="AL50" s="11">
-        <v>12129</v>
+        <v>38498</v>
       </c>
       <c r="AM50" s="11">
-        <v>38521</v>
+        <v>15806</v>
       </c>
       <c r="AN50" s="11">
-        <v>38498</v>
+        <v>14499</v>
       </c>
       <c r="AO50" s="11">
-        <v>15806</v>
+        <v>16353</v>
       </c>
       <c r="AP50" s="11">
-        <v>14499</v>
+        <v>24464</v>
       </c>
       <c r="AQ50" s="11">
-        <v>16353</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>24464</v>
-      </c>
-      <c r="AS50" s="11">
         <v>28957</v>
       </c>
+      <c r="AR50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS50" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT50" s="11" t="s">
         <v>58</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>59</v>
       </c>
@@ -7240,41 +7240,41 @@
       <c r="AQ51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="13" t="s">
-        <v>58</v>
+      <c r="AR51" s="13">
+        <v>15758</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>23164</v>
       </c>
       <c r="AT51" s="13">
-        <v>15758</v>
+        <v>24707</v>
       </c>
       <c r="AU51" s="13">
-        <v>23164</v>
+        <v>16672</v>
       </c>
       <c r="AV51" s="13">
-        <v>24707</v>
+        <v>16817</v>
       </c>
       <c r="AW51" s="13">
-        <v>16672</v>
+        <v>19763</v>
       </c>
       <c r="AX51" s="13">
-        <v>16817</v>
+        <v>21653</v>
       </c>
       <c r="AY51" s="13">
-        <v>19763</v>
+        <v>23087</v>
       </c>
       <c r="AZ51" s="13">
-        <v>21653</v>
+        <v>24548</v>
       </c>
       <c r="BA51" s="13">
-        <v>23087</v>
+        <v>25525</v>
       </c>
       <c r="BB51" s="13">
-        <v>24548</v>
+        <v>23855</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>60</v>
       </c>
@@ -7336,75 +7336,75 @@
       <c r="V52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>58</v>
+      <c r="W52" s="11">
+        <v>17923</v>
+      </c>
+      <c r="X52" s="11">
+        <v>18133</v>
       </c>
       <c r="Y52" s="11">
-        <v>17923</v>
+        <v>18070</v>
       </c>
       <c r="Z52" s="11">
-        <v>18133</v>
+        <v>18479</v>
       </c>
       <c r="AA52" s="11">
-        <v>18070</v>
+        <v>19530</v>
       </c>
       <c r="AB52" s="11">
-        <v>18479</v>
+        <v>22184</v>
       </c>
       <c r="AC52" s="11">
-        <v>19530</v>
+        <v>21233</v>
       </c>
       <c r="AD52" s="11">
-        <v>22184</v>
+        <v>21551</v>
       </c>
       <c r="AE52" s="11">
-        <v>21233</v>
+        <v>19497</v>
       </c>
       <c r="AF52" s="11">
-        <v>21551</v>
+        <v>10531</v>
       </c>
       <c r="AG52" s="11">
-        <v>19497</v>
+        <v>22103</v>
       </c>
       <c r="AH52" s="11">
-        <v>10531</v>
+        <v>20339</v>
       </c>
       <c r="AI52" s="11">
-        <v>22103</v>
+        <v>16570</v>
       </c>
       <c r="AJ52" s="11">
-        <v>20339</v>
+        <v>9717</v>
       </c>
       <c r="AK52" s="11">
-        <v>16570</v>
+        <v>24461</v>
       </c>
       <c r="AL52" s="11">
-        <v>9717</v>
+        <v>22357</v>
       </c>
       <c r="AM52" s="11">
-        <v>24461</v>
+        <v>19272</v>
       </c>
       <c r="AN52" s="11">
-        <v>22357</v>
+        <v>17672</v>
       </c>
       <c r="AO52" s="11">
-        <v>19272</v>
+        <v>20400</v>
       </c>
       <c r="AP52" s="11">
-        <v>17672</v>
+        <v>24352</v>
       </c>
       <c r="AQ52" s="11">
-        <v>20400</v>
-      </c>
-      <c r="AR52" s="11">
-        <v>24352</v>
-      </c>
-      <c r="AS52" s="11">
         <v>25683</v>
       </c>
+      <c r="AR52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="11" t="s">
         <v>58</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>61</v>
       </c>
@@ -7558,41 +7558,41 @@
       <c r="AQ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="13" t="s">
-        <v>58</v>
+      <c r="AR53" s="13">
+        <v>9332</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>9497</v>
       </c>
       <c r="AT53" s="13">
-        <v>9332</v>
+        <v>18598</v>
       </c>
       <c r="AU53" s="13">
-        <v>9497</v>
+        <v>10396</v>
       </c>
       <c r="AV53" s="13">
-        <v>18598</v>
+        <v>12694</v>
       </c>
       <c r="AW53" s="13">
-        <v>10396</v>
+        <v>19651</v>
       </c>
       <c r="AX53" s="13">
-        <v>12694</v>
+        <v>21578</v>
       </c>
       <c r="AY53" s="13">
-        <v>19651</v>
+        <v>23382</v>
       </c>
       <c r="AZ53" s="13">
-        <v>21578</v>
+        <v>23945</v>
       </c>
       <c r="BA53" s="13">
-        <v>23382</v>
+        <v>19573</v>
       </c>
       <c r="BB53" s="13">
-        <v>23945</v>
+        <v>20484</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
@@ -7717,41 +7717,41 @@
       <c r="AQ54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="11" t="s">
-        <v>58</v>
+      <c r="AR54" s="11">
+        <v>1498</v>
+      </c>
+      <c r="AS54" s="11">
+        <v>3329</v>
       </c>
       <c r="AT54" s="11">
-        <v>1498</v>
+        <v>3319</v>
       </c>
       <c r="AU54" s="11">
-        <v>3329</v>
+        <v>4222</v>
       </c>
       <c r="AV54" s="11">
-        <v>3319</v>
+        <v>5323</v>
       </c>
       <c r="AW54" s="11">
-        <v>4222</v>
+        <v>6950</v>
       </c>
       <c r="AX54" s="11">
-        <v>5323</v>
+        <v>6183</v>
       </c>
       <c r="AY54" s="11">
-        <v>6950</v>
+        <v>6838</v>
       </c>
       <c r="AZ54" s="11">
-        <v>6183</v>
+        <v>8041</v>
       </c>
       <c r="BA54" s="11">
-        <v>6838</v>
+        <v>6752</v>
       </c>
       <c r="BB54" s="11">
-        <v>8041</v>
+        <v>10658</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>63</v>
       </c>
@@ -7876,41 +7876,41 @@
       <c r="AQ55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="13" t="s">
-        <v>58</v>
+      <c r="AR55" s="13">
+        <v>24520</v>
+      </c>
+      <c r="AS55" s="13">
+        <v>24162</v>
       </c>
       <c r="AT55" s="13">
-        <v>24520</v>
+        <v>18481</v>
       </c>
       <c r="AU55" s="13">
-        <v>24162</v>
+        <v>14799</v>
       </c>
       <c r="AV55" s="13">
-        <v>18481</v>
+        <v>16849</v>
       </c>
       <c r="AW55" s="13">
-        <v>14799</v>
+        <v>22215</v>
       </c>
       <c r="AX55" s="13">
-        <v>16849</v>
+        <v>21730</v>
       </c>
       <c r="AY55" s="13">
-        <v>22215</v>
+        <v>23740</v>
       </c>
       <c r="AZ55" s="13">
-        <v>21730</v>
+        <v>28089</v>
       </c>
       <c r="BA55" s="13">
-        <v>23740</v>
+        <v>25288</v>
       </c>
       <c r="BB55" s="13">
-        <v>28089</v>
+        <v>23075</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>64</v>
       </c>
@@ -8035,41 +8035,41 @@
       <c r="AQ56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS56" s="11" t="s">
-        <v>58</v>
+      <c r="AR56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>50</v>
       </c>
       <c r="AT56" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AU56" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="11">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AX56" s="11">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY56" s="11">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="BA56" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BB56" s="11">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>65</v>
       </c>
@@ -8131,75 +8131,75 @@
       <c r="V57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>58</v>
+      <c r="W57" s="13">
+        <v>123</v>
+      </c>
+      <c r="X57" s="13">
+        <v>149</v>
       </c>
       <c r="Y57" s="13">
         <v>123</v>
       </c>
       <c r="Z57" s="13">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="AA57" s="13">
+        <v>72</v>
+      </c>
+      <c r="AB57" s="13">
         <v>123</v>
       </c>
-      <c r="AB57" s="13">
-        <v>201</v>
-      </c>
       <c r="AC57" s="13">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="AD57" s="13">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="AE57" s="13">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG57" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH57" s="13">
+        <v>97</v>
+      </c>
+      <c r="AI57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ57" s="13">
         <v>26</v>
       </c>
-      <c r="AI57" s="13">
-        <v>26</v>
-      </c>
-      <c r="AJ57" s="13">
-        <v>97</v>
-      </c>
-      <c r="AK57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL57" s="13">
-        <v>26</v>
-      </c>
-      <c r="AM57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO57" s="13" t="s">
-        <v>58</v>
+      <c r="AK57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN57" s="13">
+        <v>24</v>
+      </c>
+      <c r="AO57" s="13">
+        <v>99</v>
       </c>
       <c r="AP57" s="13">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="AQ57" s="13">
-        <v>99</v>
-      </c>
-      <c r="AR57" s="13">
-        <v>49</v>
-      </c>
-      <c r="AS57" s="13">
         <v>15</v>
       </c>
+      <c r="AR57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS57" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT57" s="13" t="s">
         <v>58</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>66</v>
       </c>
@@ -8290,11 +8290,11 @@
       <c r="V58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>58</v>
+      <c r="W58" s="11">
+        <v>0</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0</v>
       </c>
       <c r="Y58" s="11">
         <v>0</v>
@@ -8317,11 +8317,11 @@
       <c r="AE58" s="11">
         <v>0</v>
       </c>
-      <c r="AF58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="11">
-        <v>0</v>
+      <c r="AF58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH58" s="11" t="s">
         <v>58</v>
@@ -8387,7 +8387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>67</v>
       </c>
@@ -8449,75 +8449,75 @@
       <c r="V59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="13" t="s">
-        <v>58</v>
+      <c r="W59" s="13">
+        <v>7543</v>
+      </c>
+      <c r="X59" s="13">
+        <v>4269</v>
       </c>
       <c r="Y59" s="13">
-        <v>7543</v>
+        <v>5990</v>
       </c>
       <c r="Z59" s="13">
-        <v>4269</v>
+        <v>6724</v>
       </c>
       <c r="AA59" s="13">
-        <v>5990</v>
+        <v>8213</v>
       </c>
       <c r="AB59" s="13">
-        <v>6724</v>
+        <v>8370</v>
       </c>
       <c r="AC59" s="13">
-        <v>8213</v>
+        <v>6817</v>
       </c>
       <c r="AD59" s="13">
-        <v>8370</v>
+        <v>8584</v>
       </c>
       <c r="AE59" s="13">
-        <v>6817</v>
+        <v>9415</v>
       </c>
       <c r="AF59" s="13">
-        <v>8584</v>
+        <v>6261</v>
       </c>
       <c r="AG59" s="13">
-        <v>9415</v>
+        <v>7077</v>
       </c>
       <c r="AH59" s="13">
-        <v>6261</v>
+        <v>8483</v>
       </c>
       <c r="AI59" s="13">
-        <v>7077</v>
+        <v>5481</v>
       </c>
       <c r="AJ59" s="13">
-        <v>8483</v>
+        <v>3523</v>
       </c>
       <c r="AK59" s="13">
-        <v>5481</v>
+        <v>1518</v>
       </c>
       <c r="AL59" s="13">
-        <v>3523</v>
+        <v>3580</v>
       </c>
       <c r="AM59" s="13">
-        <v>1518</v>
+        <v>9750</v>
       </c>
       <c r="AN59" s="13">
-        <v>3580</v>
+        <v>7779</v>
       </c>
       <c r="AO59" s="13">
-        <v>9750</v>
+        <v>7653</v>
       </c>
       <c r="AP59" s="13">
-        <v>7779</v>
+        <v>6443</v>
       </c>
       <c r="AQ59" s="13">
-        <v>7653</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>6443</v>
-      </c>
-      <c r="AS59" s="13">
         <v>8403</v>
       </c>
+      <c r="AR59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS59" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT59" s="13" t="s">
         <v>58</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>68</v>
       </c>
@@ -8608,75 +8608,75 @@
       <c r="V60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>58</v>
+      <c r="W60" s="11">
+        <v>53753</v>
+      </c>
+      <c r="X60" s="11">
+        <v>37771</v>
       </c>
       <c r="Y60" s="11">
-        <v>53753</v>
+        <v>35177</v>
       </c>
       <c r="Z60" s="11">
-        <v>37771</v>
+        <v>28467</v>
       </c>
       <c r="AA60" s="11">
-        <v>35177</v>
+        <v>34535</v>
       </c>
       <c r="AB60" s="11">
-        <v>28467</v>
+        <v>39016</v>
       </c>
       <c r="AC60" s="11">
-        <v>34535</v>
+        <v>21668</v>
       </c>
       <c r="AD60" s="11">
-        <v>39016</v>
+        <v>37310</v>
       </c>
       <c r="AE60" s="11">
-        <v>21668</v>
+        <v>44600</v>
       </c>
       <c r="AF60" s="11">
-        <v>37310</v>
+        <v>29585</v>
       </c>
       <c r="AG60" s="11">
-        <v>44600</v>
+        <v>26848</v>
       </c>
       <c r="AH60" s="11">
-        <v>29585</v>
+        <v>21528</v>
       </c>
       <c r="AI60" s="11">
-        <v>26848</v>
+        <v>14890</v>
       </c>
       <c r="AJ60" s="11">
-        <v>21528</v>
+        <v>7978</v>
       </c>
       <c r="AK60" s="11">
-        <v>14890</v>
+        <v>2499</v>
       </c>
       <c r="AL60" s="11">
-        <v>7978</v>
+        <v>7025</v>
       </c>
       <c r="AM60" s="11">
-        <v>2499</v>
+        <v>23996</v>
       </c>
       <c r="AN60" s="11">
-        <v>7025</v>
+        <v>25875</v>
       </c>
       <c r="AO60" s="11">
-        <v>23996</v>
+        <v>21044</v>
       </c>
       <c r="AP60" s="11">
-        <v>25875</v>
+        <v>19207</v>
       </c>
       <c r="AQ60" s="11">
-        <v>21044</v>
-      </c>
-      <c r="AR60" s="11">
-        <v>19207</v>
-      </c>
-      <c r="AS60" s="11">
         <v>22237</v>
       </c>
+      <c r="AR60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS60" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT60" s="11" t="s">
         <v>58</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>69</v>
       </c>
@@ -8776,29 +8776,29 @@
       <c r="Y61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA61" s="13" t="s">
-        <v>58</v>
+      <c r="Z61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="13">
+        <v>20</v>
       </c>
       <c r="AB61" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC61" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="13">
         <v>0</v>
       </c>
-      <c r="AF61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="13">
-        <v>0</v>
+      <c r="AF61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH61" s="13" t="s">
         <v>58</v>
@@ -8806,56 +8806,56 @@
       <c r="AI61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK61" s="13" t="s">
-        <v>58</v>
+      <c r="AJ61" s="13">
+        <v>49</v>
+      </c>
+      <c r="AK61" s="13">
+        <v>53</v>
       </c>
       <c r="AL61" s="13">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AM61" s="13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AN61" s="13">
         <v>50</v>
       </c>
       <c r="AO61" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AP61" s="13">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AQ61" s="13">
-        <v>25</v>
-      </c>
-      <c r="AR61" s="13">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="AR61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT61" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="AT61" s="13">
+        <v>47</v>
       </c>
       <c r="AU61" s="13">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="AV61" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX61" s="13">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY61" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="13">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="13">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>70</v>
       </c>
@@ -8938,11 +8938,11 @@
       <c r="Z62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB62" s="11" t="s">
-        <v>58</v>
+      <c r="AA62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>0</v>
       </c>
       <c r="AC62" s="11">
         <v>0</v>
@@ -8953,11 +8953,11 @@
       <c r="AE62" s="11">
         <v>0</v>
       </c>
-      <c r="AF62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="11">
-        <v>0</v>
+      <c r="AF62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH62" s="11" t="s">
         <v>58</v>
@@ -9023,7 +9023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>71</v>
       </c>
@@ -9085,23 +9085,23 @@
       <c r="V63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>58</v>
+      <c r="W63" s="13">
+        <v>15</v>
+      </c>
+      <c r="X63" s="13">
+        <v>0</v>
       </c>
       <c r="Y63" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="13">
         <v>0</v>
       </c>
-      <c r="AA63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="13">
-        <v>0</v>
+      <c r="AA63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC63" s="13" t="s">
         <v>58</v>
@@ -9182,7 +9182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>72</v>
       </c>
@@ -9253,11 +9253,11 @@
       <c r="Y64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA64" s="11" t="s">
-        <v>58</v>
+      <c r="Z64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="11">
+        <v>0</v>
       </c>
       <c r="AB64" s="11">
         <v>0</v>
@@ -9271,11 +9271,11 @@
       <c r="AE64" s="11">
         <v>0</v>
       </c>
-      <c r="AF64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="11">
-        <v>0</v>
+      <c r="AF64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH64" s="11" t="s">
         <v>58</v>
@@ -9298,20 +9298,20 @@
       <c r="AN64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP64" s="11" t="s">
-        <v>58</v>
+      <c r="AO64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="11">
+        <v>0</v>
       </c>
       <c r="AQ64" s="11">
         <v>0</v>
       </c>
-      <c r="AR64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="11">
-        <v>0</v>
+      <c r="AR64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT64" s="11" t="s">
         <v>58</v>
@@ -9341,7 +9341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>89</v>
       </c>
@@ -9402,103 +9402,103 @@
         <v>0</v>
       </c>
       <c r="W65" s="15">
-        <v>0</v>
+        <v>98892</v>
       </c>
       <c r="X65" s="15">
-        <v>0</v>
+        <v>79301</v>
       </c>
       <c r="Y65" s="15">
-        <v>98892</v>
+        <v>76505</v>
       </c>
       <c r="Z65" s="15">
-        <v>79301</v>
+        <v>67562</v>
       </c>
       <c r="AA65" s="15">
-        <v>76505</v>
+        <v>78601</v>
       </c>
       <c r="AB65" s="15">
-        <v>67562</v>
+        <v>93821</v>
       </c>
       <c r="AC65" s="15">
-        <v>78601</v>
+        <v>76034</v>
       </c>
       <c r="AD65" s="15">
-        <v>93821</v>
+        <v>78950</v>
       </c>
       <c r="AE65" s="15">
-        <v>76034</v>
+        <v>82292</v>
       </c>
       <c r="AF65" s="15">
-        <v>78950</v>
+        <v>55442</v>
       </c>
       <c r="AG65" s="15">
-        <v>82292</v>
+        <v>79761</v>
       </c>
       <c r="AH65" s="15">
-        <v>55442</v>
+        <v>74842</v>
       </c>
       <c r="AI65" s="15">
-        <v>79761</v>
+        <v>52756</v>
       </c>
       <c r="AJ65" s="15">
-        <v>74842</v>
+        <v>33422</v>
       </c>
       <c r="AK65" s="15">
-        <v>52756</v>
+        <v>67052</v>
       </c>
       <c r="AL65" s="15">
-        <v>33422</v>
+        <v>71510</v>
       </c>
       <c r="AM65" s="15">
-        <v>67052</v>
+        <v>68870</v>
       </c>
       <c r="AN65" s="15">
-        <v>71510</v>
+        <v>65899</v>
       </c>
       <c r="AO65" s="15">
-        <v>68870</v>
+        <v>65574</v>
       </c>
       <c r="AP65" s="15">
-        <v>65899</v>
+        <v>74539</v>
       </c>
       <c r="AQ65" s="15">
-        <v>65574</v>
+        <v>85295</v>
       </c>
       <c r="AR65" s="15">
-        <v>74539</v>
+        <v>51108</v>
       </c>
       <c r="AS65" s="15">
-        <v>85295</v>
+        <v>60264</v>
       </c>
       <c r="AT65" s="15">
-        <v>51108</v>
+        <v>65170</v>
       </c>
       <c r="AU65" s="15">
-        <v>60264</v>
+        <v>46115</v>
       </c>
       <c r="AV65" s="15">
-        <v>65170</v>
+        <v>51683</v>
       </c>
       <c r="AW65" s="15">
-        <v>46115</v>
+        <v>68653</v>
       </c>
       <c r="AX65" s="15">
-        <v>51683</v>
+        <v>71288</v>
       </c>
       <c r="AY65" s="15">
-        <v>68653</v>
+        <v>77047</v>
       </c>
       <c r="AZ65" s="15">
-        <v>71288</v>
+        <v>84647</v>
       </c>
       <c r="BA65" s="15">
-        <v>77047</v>
+        <v>77163</v>
       </c>
       <c r="BB65" s="15">
-        <v>84647</v>
+        <v>78072</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>90</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>75</v>
       </c>
@@ -9617,11 +9617,11 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>0</v>
+      </c>
+      <c r="X67" s="11">
+        <v>0</v>
       </c>
       <c r="Y67" s="11">
         <v>0</v>
@@ -9644,11 +9644,11 @@
       <c r="AE67" s="11">
         <v>0</v>
       </c>
-      <c r="AF67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="11">
-        <v>0</v>
+      <c r="AF67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH67" s="11" t="s">
         <v>58</v>
@@ -9714,7 +9714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>61</v>
       </c>
@@ -9839,11 +9839,11 @@
       <c r="AQ68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS68" s="13" t="s">
-        <v>58</v>
+      <c r="AR68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="13">
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>76</v>
       </c>
@@ -9935,11 +9935,11 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9947,11 +9947,11 @@
       <c r="Z69" s="11">
         <v>0</v>
       </c>
-      <c r="AA69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="11">
-        <v>0</v>
+      <c r="AA69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC69" s="11" t="s">
         <v>58</v>
@@ -10032,7 +10032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>77</v>
       </c>
@@ -10094,56 +10094,56 @@
       <c r="V70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="13" t="s">
-        <v>58</v>
+      <c r="W70" s="13">
+        <v>3893</v>
+      </c>
+      <c r="X70" s="13">
+        <v>5758</v>
       </c>
       <c r="Y70" s="13">
-        <v>3893</v>
+        <v>3461</v>
       </c>
       <c r="Z70" s="13">
-        <v>5758</v>
+        <v>4543</v>
       </c>
       <c r="AA70" s="13">
-        <v>3461</v>
+        <v>1071</v>
       </c>
       <c r="AB70" s="13">
-        <v>4543</v>
+        <v>119</v>
       </c>
       <c r="AC70" s="13">
-        <v>1071</v>
+        <v>215</v>
       </c>
       <c r="AD70" s="13">
-        <v>119</v>
+        <v>979</v>
       </c>
       <c r="AE70" s="13">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="AF70" s="13">
-        <v>979</v>
+        <v>455</v>
       </c>
       <c r="AG70" s="13">
-        <v>492</v>
-      </c>
-      <c r="AH70" s="13">
-        <v>455</v>
-      </c>
-      <c r="AI70" s="13">
         <v>203</v>
       </c>
+      <c r="AH70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI70" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK70" s="13" t="s">
-        <v>58</v>
+      <c r="AK70" s="13">
+        <v>0</v>
       </c>
       <c r="AL70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM70" s="13">
-        <v>0</v>
+      <c r="AM70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN70" s="13" t="s">
         <v>58</v>
@@ -10191,7 +10191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>63</v>
       </c>
@@ -10316,11 +10316,11 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="11">
+        <v>0</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
@@ -10332,25 +10332,25 @@
         <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX71" s="11">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="AY71" s="11">
-        <v>99</v>
+        <v>1192</v>
       </c>
       <c r="AZ71" s="11">
-        <v>766</v>
+        <v>2151</v>
       </c>
       <c r="BA71" s="11">
-        <v>1192</v>
+        <v>2089</v>
       </c>
       <c r="BB71" s="11">
-        <v>2151</v>
+        <v>2321</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>78</v>
       </c>
@@ -10412,56 +10412,56 @@
       <c r="V72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="13" t="s">
-        <v>58</v>
+      <c r="W72" s="13">
+        <v>77</v>
+      </c>
+      <c r="X72" s="13">
+        <v>0</v>
       </c>
       <c r="Y72" s="13">
-        <v>77</v>
+        <v>580</v>
       </c>
       <c r="Z72" s="13">
-        <v>0</v>
+        <v>1709</v>
       </c>
       <c r="AA72" s="13">
-        <v>580</v>
+        <v>193</v>
       </c>
       <c r="AB72" s="13">
-        <v>1709</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="13">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="AD72" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AE72" s="13">
-        <v>26</v>
+        <v>1231</v>
       </c>
       <c r="AF72" s="13">
-        <v>162</v>
-      </c>
-      <c r="AG72" s="13">
-        <v>1231</v>
-      </c>
-      <c r="AH72" s="13">
         <v>22</v>
       </c>
+      <c r="AG72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH72" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI72" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AJ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK72" s="13" t="s">
-        <v>58</v>
+      <c r="AK72" s="13">
+        <v>0</v>
       </c>
       <c r="AL72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM72" s="13">
-        <v>0</v>
+      <c r="AM72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN72" s="13" t="s">
         <v>58</v>
@@ -10509,7 +10509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -10574,17 +10574,17 @@
       <c r="W73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="11">
-        <v>0</v>
+      <c r="X73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB73" s="11" t="s">
         <v>58</v>
@@ -10668,7 +10668,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>72</v>
       </c>
@@ -10736,14 +10736,14 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>3</v>
       </c>
       <c r="Z74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA74" s="13">
-        <v>3</v>
+      <c r="AA74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB74" s="13" t="s">
         <v>58</v>
@@ -10827,7 +10827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>79</v>
       </c>
@@ -10889,17 +10889,17 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>8992</v>
+      </c>
+      <c r="X75" s="11">
+        <v>2461</v>
       </c>
       <c r="Y75" s="11">
-        <v>8992</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="11">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
         <v>0</v>
@@ -10914,31 +10914,31 @@
         <v>0</v>
       </c>
       <c r="AE75" s="11">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AF75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="11">
-        <v>235</v>
-      </c>
-      <c r="AH75" s="11">
         <v>1744</v>
       </c>
+      <c r="AG75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI75" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AJ75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK75" s="11" t="s">
-        <v>58</v>
+      <c r="AK75" s="11">
+        <v>0</v>
       </c>
       <c r="AL75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM75" s="11">
-        <v>0</v>
+      <c r="AM75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN75" s="11" t="s">
         <v>58</v>
@@ -10986,7 +10986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>80</v>
       </c>
@@ -11048,38 +11048,38 @@
       <c r="V76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>58</v>
+      <c r="W76" s="13">
+        <v>0</v>
+      </c>
+      <c r="X76" s="13">
+        <v>43250</v>
       </c>
       <c r="Y76" s="13">
         <v>0</v>
       </c>
       <c r="Z76" s="13">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="13">
         <v>0</v>
       </c>
       <c r="AB76" s="13">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AC76" s="13">
         <v>0</v>
       </c>
       <c r="AD76" s="13">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="13">
         <v>0</v>
       </c>
-      <c r="AF76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="13">
-        <v>0</v>
+      <c r="AF76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH76" s="13" t="s">
         <v>58</v>
@@ -11090,14 +11090,14 @@
       <c r="AJ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK76" s="13" t="s">
-        <v>58</v>
+      <c r="AK76" s="13">
+        <v>0</v>
       </c>
       <c r="AL76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM76" s="13">
-        <v>0</v>
+      <c r="AM76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN76" s="13" t="s">
         <v>58</v>
@@ -11145,7 +11145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>81</v>
       </c>
@@ -11213,11 +11213,11 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>0</v>
       </c>
       <c r="AA77" s="11">
         <v>0</v>
@@ -11234,11 +11234,11 @@
       <c r="AE77" s="11">
         <v>0</v>
       </c>
-      <c r="AF77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="11">
-        <v>0</v>
+      <c r="AF77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH77" s="11" t="s">
         <v>58</v>
@@ -11304,7 +11304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>82</v>
       </c>
@@ -11429,11 +11429,11 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>0</v>
       </c>
       <c r="AT78" s="13">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>91</v>
       </c>
@@ -11524,43 +11524,43 @@
         <v>0</v>
       </c>
       <c r="W79" s="17">
-        <v>0</v>
+        <v>12962</v>
       </c>
       <c r="X79" s="17">
-        <v>0</v>
+        <v>51469</v>
       </c>
       <c r="Y79" s="17">
-        <v>12962</v>
+        <v>4044</v>
       </c>
       <c r="Z79" s="17">
-        <v>51469</v>
+        <v>6252</v>
       </c>
       <c r="AA79" s="17">
-        <v>4044</v>
+        <v>1264</v>
       </c>
       <c r="AB79" s="17">
-        <v>6252</v>
+        <v>53580</v>
       </c>
       <c r="AC79" s="17">
-        <v>1264</v>
+        <v>241</v>
       </c>
       <c r="AD79" s="17">
-        <v>53580</v>
+        <v>1141</v>
       </c>
       <c r="AE79" s="17">
-        <v>241</v>
+        <v>1958</v>
       </c>
       <c r="AF79" s="17">
-        <v>1141</v>
+        <v>2221</v>
       </c>
       <c r="AG79" s="17">
-        <v>1958</v>
+        <v>203</v>
       </c>
       <c r="AH79" s="17">
-        <v>2221</v>
+        <v>0</v>
       </c>
       <c r="AI79" s="17">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AJ79" s="17">
         <v>0</v>
@@ -11602,25 +11602,25 @@
         <v>0</v>
       </c>
       <c r="AW79" s="17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX79" s="17">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="AY79" s="17">
-        <v>99</v>
+        <v>1192</v>
       </c>
       <c r="AZ79" s="17">
-        <v>766</v>
+        <v>2151</v>
       </c>
       <c r="BA79" s="17">
-        <v>1192</v>
+        <v>2089</v>
       </c>
       <c r="BB79" s="17">
-        <v>2151</v>
+        <v>2321</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>84</v>
       </c>
@@ -11677,7 +11677,7 @@
       <c r="BA80" s="19"/>
       <c r="BB80" s="19"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
         <v>85</v>
       </c>
@@ -11737,11 +11737,11 @@
       <c r="V81" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="17" t="s">
-        <v>58</v>
+      <c r="W81" s="17">
+        <v>0</v>
+      </c>
+      <c r="X81" s="17">
+        <v>0</v>
       </c>
       <c r="Y81" s="17">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>92</v>
       </c>
@@ -11891,7 +11891,7 @@
       <c r="BA82" s="19"/>
       <c r="BB82" s="19"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>93</v>
       </c>
@@ -11951,11 +11951,11 @@
       <c r="V83" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="17" t="s">
-        <v>58</v>
+      <c r="W83" s="17">
+        <v>0</v>
+      </c>
+      <c r="X83" s="17">
+        <v>0</v>
       </c>
       <c r="Y83" s="17">
         <v>0</v>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
         <v>86</v>
       </c>
@@ -12109,103 +12109,103 @@
         <v>0</v>
       </c>
       <c r="W84" s="15">
-        <v>0</v>
+        <v>111854</v>
       </c>
       <c r="X84" s="15">
-        <v>0</v>
+        <v>130770</v>
       </c>
       <c r="Y84" s="15">
-        <v>111854</v>
+        <v>80549</v>
       </c>
       <c r="Z84" s="15">
-        <v>130770</v>
+        <v>73814</v>
       </c>
       <c r="AA84" s="15">
-        <v>80549</v>
+        <v>79865</v>
       </c>
       <c r="AB84" s="15">
-        <v>73814</v>
+        <v>147401</v>
       </c>
       <c r="AC84" s="15">
-        <v>79865</v>
+        <v>76275</v>
       </c>
       <c r="AD84" s="15">
-        <v>147401</v>
+        <v>80091</v>
       </c>
       <c r="AE84" s="15">
-        <v>76275</v>
+        <v>84250</v>
       </c>
       <c r="AF84" s="15">
-        <v>80091</v>
+        <v>57663</v>
       </c>
       <c r="AG84" s="15">
-        <v>84250</v>
+        <v>79964</v>
       </c>
       <c r="AH84" s="15">
-        <v>57663</v>
+        <v>74842</v>
       </c>
       <c r="AI84" s="15">
-        <v>79964</v>
+        <v>52756</v>
       </c>
       <c r="AJ84" s="15">
-        <v>74842</v>
+        <v>33422</v>
       </c>
       <c r="AK84" s="15">
-        <v>52756</v>
+        <v>67052</v>
       </c>
       <c r="AL84" s="15">
-        <v>33422</v>
+        <v>71510</v>
       </c>
       <c r="AM84" s="15">
-        <v>67052</v>
+        <v>68870</v>
       </c>
       <c r="AN84" s="15">
-        <v>71510</v>
+        <v>65899</v>
       </c>
       <c r="AO84" s="15">
-        <v>68870</v>
+        <v>65574</v>
       </c>
       <c r="AP84" s="15">
-        <v>65899</v>
+        <v>74539</v>
       </c>
       <c r="AQ84" s="15">
-        <v>65574</v>
+        <v>85295</v>
       </c>
       <c r="AR84" s="15">
-        <v>74539</v>
+        <v>51108</v>
       </c>
       <c r="AS84" s="15">
-        <v>85295</v>
+        <v>60264</v>
       </c>
       <c r="AT84" s="15">
-        <v>51108</v>
+        <v>65170</v>
       </c>
       <c r="AU84" s="15">
-        <v>60264</v>
+        <v>46115</v>
       </c>
       <c r="AV84" s="15">
-        <v>65170</v>
+        <v>51683</v>
       </c>
       <c r="AW84" s="15">
-        <v>46115</v>
+        <v>68752</v>
       </c>
       <c r="AX84" s="15">
-        <v>51683</v>
+        <v>72054</v>
       </c>
       <c r="AY84" s="15">
-        <v>68752</v>
+        <v>78239</v>
       </c>
       <c r="AZ84" s="15">
-        <v>72054</v>
+        <v>86798</v>
       </c>
       <c r="BA84" s="15">
-        <v>78239</v>
+        <v>79252</v>
       </c>
       <c r="BB84" s="15">
-        <v>86798</v>
+        <v>80393</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -12260,7 +12260,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -12315,7 +12315,7 @@
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -12370,7 +12370,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>94</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -12582,7 +12582,7 @@
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>95</v>
       </c>
@@ -12639,7 +12639,7 @@
       <c r="BA90" s="9"/>
       <c r="BB90" s="9"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>56</v>
       </c>
@@ -12701,75 +12701,75 @@
       <c r="V91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="11" t="s">
-        <v>58</v>
+      <c r="W91" s="11">
+        <v>44262</v>
+      </c>
+      <c r="X91" s="11">
+        <v>48303</v>
       </c>
       <c r="Y91" s="11">
-        <v>44262</v>
+        <v>46208</v>
       </c>
       <c r="Z91" s="11">
-        <v>48303</v>
+        <v>37502</v>
       </c>
       <c r="AA91" s="11">
-        <v>46208</v>
+        <v>47802</v>
       </c>
       <c r="AB91" s="11">
-        <v>37502</v>
+        <v>73043</v>
       </c>
       <c r="AC91" s="11">
-        <v>47802</v>
+        <v>80037</v>
       </c>
       <c r="AD91" s="11">
-        <v>73043</v>
+        <v>35347</v>
       </c>
       <c r="AE91" s="11">
-        <v>80037</v>
+        <v>27115</v>
       </c>
       <c r="AF91" s="11">
-        <v>35347</v>
+        <v>30393</v>
       </c>
       <c r="AG91" s="11">
-        <v>27115</v>
+        <v>101025</v>
       </c>
       <c r="AH91" s="11">
-        <v>30393</v>
+        <v>113145</v>
       </c>
       <c r="AI91" s="11">
-        <v>101025</v>
+        <v>80017</v>
       </c>
       <c r="AJ91" s="11">
-        <v>113145</v>
+        <v>73706</v>
       </c>
       <c r="AK91" s="11">
-        <v>80017</v>
+        <v>275671</v>
       </c>
       <c r="AL91" s="11">
-        <v>73706</v>
+        <v>212098</v>
       </c>
       <c r="AM91" s="11">
-        <v>275671</v>
+        <v>97158</v>
       </c>
       <c r="AN91" s="11">
-        <v>212098</v>
+        <v>86221</v>
       </c>
       <c r="AO91" s="11">
-        <v>97158</v>
+        <v>95182</v>
       </c>
       <c r="AP91" s="11">
-        <v>86221</v>
+        <v>148899</v>
       </c>
       <c r="AQ91" s="11">
-        <v>95182</v>
-      </c>
-      <c r="AR91" s="11">
-        <v>148899</v>
-      </c>
-      <c r="AS91" s="11">
         <v>198727</v>
       </c>
+      <c r="AR91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS91" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT91" s="11" t="s">
         <v>58</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>59</v>
       </c>
@@ -12923,41 +12923,41 @@
       <c r="AQ92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS92" s="13" t="s">
-        <v>58</v>
+      <c r="AR92" s="13">
+        <v>90764</v>
+      </c>
+      <c r="AS92" s="13">
+        <v>122904</v>
       </c>
       <c r="AT92" s="13">
-        <v>90764</v>
+        <v>153748</v>
       </c>
       <c r="AU92" s="13">
-        <v>122904</v>
+        <v>131657</v>
       </c>
       <c r="AV92" s="13">
-        <v>153748</v>
+        <v>156209</v>
       </c>
       <c r="AW92" s="13">
-        <v>131657</v>
+        <v>169504</v>
       </c>
       <c r="AX92" s="13">
-        <v>156209</v>
+        <v>161088</v>
       </c>
       <c r="AY92" s="13">
-        <v>169504</v>
+        <v>163879</v>
       </c>
       <c r="AZ92" s="13">
-        <v>161088</v>
+        <v>184494</v>
       </c>
       <c r="BA92" s="13">
-        <v>163879</v>
+        <v>182126</v>
       </c>
       <c r="BB92" s="13">
-        <v>184494</v>
+        <v>193579</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>60</v>
       </c>
@@ -13019,75 +13019,75 @@
       <c r="V93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>58</v>
+      <c r="W93" s="11">
+        <v>32797</v>
+      </c>
+      <c r="X93" s="11">
+        <v>38815</v>
       </c>
       <c r="Y93" s="11">
-        <v>32797</v>
+        <v>38830</v>
       </c>
       <c r="Z93" s="11">
-        <v>38815</v>
+        <v>40124</v>
       </c>
       <c r="AA93" s="11">
-        <v>38830</v>
+        <v>42418</v>
       </c>
       <c r="AB93" s="11">
-        <v>40124</v>
+        <v>48233</v>
       </c>
       <c r="AC93" s="11">
-        <v>42418</v>
+        <v>46155</v>
       </c>
       <c r="AD93" s="11">
-        <v>48233</v>
+        <v>46930</v>
       </c>
       <c r="AE93" s="11">
-        <v>46155</v>
+        <v>42688</v>
       </c>
       <c r="AF93" s="11">
-        <v>46930</v>
+        <v>25600</v>
       </c>
       <c r="AG93" s="11">
-        <v>42688</v>
+        <v>67943</v>
       </c>
       <c r="AH93" s="11">
-        <v>25600</v>
+        <v>64474</v>
       </c>
       <c r="AI93" s="11">
-        <v>67943</v>
+        <v>59625</v>
       </c>
       <c r="AJ93" s="11">
-        <v>64474</v>
+        <v>41601</v>
       </c>
       <c r="AK93" s="11">
-        <v>59625</v>
+        <v>152963</v>
       </c>
       <c r="AL93" s="11">
-        <v>41601</v>
+        <v>95400</v>
       </c>
       <c r="AM93" s="11">
-        <v>152963</v>
+        <v>88759</v>
       </c>
       <c r="AN93" s="11">
-        <v>95400</v>
+        <v>106136</v>
       </c>
       <c r="AO93" s="11">
-        <v>88759</v>
+        <v>113337</v>
       </c>
       <c r="AP93" s="11">
-        <v>106136</v>
+        <v>144360</v>
       </c>
       <c r="AQ93" s="11">
-        <v>113337</v>
-      </c>
-      <c r="AR93" s="11">
-        <v>144360</v>
-      </c>
-      <c r="AS93" s="11">
         <v>169020</v>
       </c>
+      <c r="AR93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS93" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT93" s="11" t="s">
         <v>58</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>61</v>
       </c>
@@ -13241,41 +13241,41 @@
       <c r="AQ94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS94" s="13" t="s">
-        <v>58</v>
+      <c r="AR94" s="13">
+        <v>61503</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>60884</v>
       </c>
       <c r="AT94" s="13">
-        <v>61503</v>
+        <v>131910</v>
       </c>
       <c r="AU94" s="13">
-        <v>60884</v>
+        <v>79182</v>
       </c>
       <c r="AV94" s="13">
-        <v>131910</v>
+        <v>91308</v>
       </c>
       <c r="AW94" s="13">
-        <v>79182</v>
+        <v>134103</v>
       </c>
       <c r="AX94" s="13">
-        <v>91308</v>
+        <v>146916</v>
       </c>
       <c r="AY94" s="13">
-        <v>134103</v>
+        <v>157234</v>
       </c>
       <c r="AZ94" s="13">
-        <v>146916</v>
+        <v>161940</v>
       </c>
       <c r="BA94" s="13">
-        <v>157234</v>
+        <v>130588</v>
       </c>
       <c r="BB94" s="13">
-        <v>161940</v>
+        <v>140854</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>62</v>
       </c>
@@ -13400,41 +13400,41 @@
       <c r="AQ95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
+      <c r="AR95" s="11">
+        <v>8690</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>18790</v>
       </c>
       <c r="AT95" s="11">
-        <v>8690</v>
+        <v>21008</v>
       </c>
       <c r="AU95" s="11">
-        <v>18790</v>
+        <v>29533</v>
       </c>
       <c r="AV95" s="11">
-        <v>21008</v>
+        <v>36806</v>
       </c>
       <c r="AW95" s="11">
-        <v>29533</v>
+        <v>41214</v>
       </c>
       <c r="AX95" s="11">
-        <v>36806</v>
+        <v>35383</v>
       </c>
       <c r="AY95" s="11">
-        <v>41214</v>
+        <v>37217</v>
       </c>
       <c r="AZ95" s="11">
-        <v>35383</v>
+        <v>43148</v>
       </c>
       <c r="BA95" s="11">
-        <v>37217</v>
+        <v>35954</v>
       </c>
       <c r="BB95" s="11">
-        <v>43148</v>
+        <v>55748</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>63</v>
       </c>
@@ -13559,41 +13559,41 @@
       <c r="AQ96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS96" s="13" t="s">
-        <v>58</v>
+      <c r="AR96" s="13">
+        <v>155470</v>
+      </c>
+      <c r="AS96" s="13">
+        <v>151423</v>
       </c>
       <c r="AT96" s="13">
-        <v>155470</v>
+        <v>140265</v>
       </c>
       <c r="AU96" s="13">
-        <v>151423</v>
+        <v>118631</v>
       </c>
       <c r="AV96" s="13">
-        <v>140265</v>
+        <v>129991</v>
       </c>
       <c r="AW96" s="13">
-        <v>118631</v>
+        <v>165232</v>
       </c>
       <c r="AX96" s="13">
-        <v>129991</v>
+        <v>162228</v>
       </c>
       <c r="AY96" s="13">
-        <v>165232</v>
+        <v>175865</v>
       </c>
       <c r="AZ96" s="13">
-        <v>162228</v>
+        <v>202192</v>
       </c>
       <c r="BA96" s="13">
-        <v>175865</v>
+        <v>183506</v>
       </c>
       <c r="BB96" s="13">
-        <v>202192</v>
+        <v>174384</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>64</v>
       </c>
@@ -13718,41 +13718,41 @@
       <c r="AQ97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS97" s="11" t="s">
-        <v>58</v>
+      <c r="AR97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="11">
+        <v>195</v>
       </c>
       <c r="AT97" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AU97" s="11">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AV97" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AW97" s="11">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AX97" s="11">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="AY97" s="11">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="11">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="BA97" s="11">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="BB97" s="11">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>65</v>
       </c>
@@ -13814,75 +13814,75 @@
       <c r="V98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="13" t="s">
-        <v>58</v>
+      <c r="W98" s="13">
+        <v>135</v>
+      </c>
+      <c r="X98" s="13">
+        <v>164</v>
       </c>
       <c r="Y98" s="13">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Z98" s="13">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="AA98" s="13">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="AB98" s="13">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AC98" s="13">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="AD98" s="13">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="AE98" s="13">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AF98" s="13">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG98" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH98" s="13">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="AI98" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AJ98" s="13">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="AK98" s="13">
         <v>0</v>
       </c>
       <c r="AL98" s="13">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM98" s="13">
         <v>0</v>
       </c>
       <c r="AN98" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AO98" s="13">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="AP98" s="13">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="AQ98" s="13">
-        <v>386</v>
-      </c>
-      <c r="AR98" s="13">
-        <v>189</v>
-      </c>
-      <c r="AS98" s="13">
         <v>56</v>
       </c>
+      <c r="AR98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS98" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT98" s="13" t="s">
         <v>58</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>66</v>
       </c>
@@ -13973,11 +13973,11 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>0</v>
+      </c>
+      <c r="X99" s="11">
+        <v>0</v>
       </c>
       <c r="Y99" s="11">
         <v>0</v>
@@ -14000,11 +14000,11 @@
       <c r="AE99" s="11">
         <v>0</v>
       </c>
-      <c r="AF99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="11">
-        <v>0</v>
+      <c r="AF99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH99" s="11" t="s">
         <v>58</v>
@@ -14070,7 +14070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>67</v>
       </c>
@@ -14132,75 +14132,75 @@
       <c r="V100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X100" s="13" t="s">
-        <v>58</v>
+      <c r="W100" s="13">
+        <v>14111</v>
+      </c>
+      <c r="X100" s="13">
+        <v>9065</v>
       </c>
       <c r="Y100" s="13">
-        <v>14111</v>
+        <v>12995</v>
       </c>
       <c r="Z100" s="13">
-        <v>9065</v>
+        <v>14590</v>
       </c>
       <c r="AA100" s="13">
-        <v>12995</v>
+        <v>17822</v>
       </c>
       <c r="AB100" s="13">
-        <v>14590</v>
+        <v>18166</v>
       </c>
       <c r="AC100" s="13">
-        <v>17822</v>
+        <v>14816</v>
       </c>
       <c r="AD100" s="13">
-        <v>18166</v>
+        <v>18647</v>
       </c>
       <c r="AE100" s="13">
-        <v>14816</v>
+        <v>20769</v>
       </c>
       <c r="AF100" s="13">
-        <v>18647</v>
+        <v>14564</v>
       </c>
       <c r="AG100" s="13">
-        <v>20769</v>
+        <v>21671</v>
       </c>
       <c r="AH100" s="13">
-        <v>14564</v>
+        <v>26563</v>
       </c>
       <c r="AI100" s="13">
-        <v>21671</v>
+        <v>20608</v>
       </c>
       <c r="AJ100" s="13">
-        <v>26563</v>
+        <v>13705</v>
       </c>
       <c r="AK100" s="13">
-        <v>20608</v>
+        <v>7662</v>
       </c>
       <c r="AL100" s="13">
-        <v>13705</v>
+        <v>13435</v>
       </c>
       <c r="AM100" s="13">
-        <v>7662</v>
+        <v>35800</v>
       </c>
       <c r="AN100" s="13">
-        <v>13435</v>
+        <v>36760</v>
       </c>
       <c r="AO100" s="13">
-        <v>35800</v>
+        <v>31283</v>
       </c>
       <c r="AP100" s="13">
-        <v>36760</v>
+        <v>30434</v>
       </c>
       <c r="AQ100" s="13">
-        <v>31283</v>
-      </c>
-      <c r="AR100" s="13">
-        <v>30434</v>
-      </c>
-      <c r="AS100" s="13">
         <v>50125</v>
       </c>
+      <c r="AR100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT100" s="13" t="s">
         <v>58</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>68</v>
       </c>
@@ -14291,75 +14291,75 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>115109</v>
+      </c>
+      <c r="X101" s="11">
+        <v>93812</v>
       </c>
       <c r="Y101" s="11">
-        <v>115109</v>
+        <v>93600</v>
       </c>
       <c r="Z101" s="11">
-        <v>93812</v>
+        <v>77094</v>
       </c>
       <c r="AA101" s="11">
-        <v>93600</v>
+        <v>101363</v>
       </c>
       <c r="AB101" s="11">
-        <v>77094</v>
+        <v>117482</v>
       </c>
       <c r="AC101" s="11">
-        <v>101363</v>
+        <v>65463</v>
       </c>
       <c r="AD101" s="11">
-        <v>117482</v>
+        <v>113703</v>
       </c>
       <c r="AE101" s="11">
-        <v>65463</v>
+        <v>137615</v>
       </c>
       <c r="AF101" s="11">
-        <v>113703</v>
+        <v>95447</v>
       </c>
       <c r="AG101" s="11">
-        <v>137615</v>
+        <v>114232</v>
       </c>
       <c r="AH101" s="11">
-        <v>95447</v>
+        <v>96917</v>
       </c>
       <c r="AI101" s="11">
-        <v>114232</v>
+        <v>78090</v>
       </c>
       <c r="AJ101" s="11">
-        <v>96917</v>
+        <v>47008</v>
       </c>
       <c r="AK101" s="11">
-        <v>78090</v>
+        <v>21687</v>
       </c>
       <c r="AL101" s="11">
-        <v>47008</v>
+        <v>40440</v>
       </c>
       <c r="AM101" s="11">
-        <v>21687</v>
+        <v>135286</v>
       </c>
       <c r="AN101" s="11">
-        <v>40440</v>
+        <v>146009</v>
       </c>
       <c r="AO101" s="11">
-        <v>135286</v>
+        <v>112144</v>
       </c>
       <c r="AP101" s="11">
-        <v>146009</v>
+        <v>110990</v>
       </c>
       <c r="AQ101" s="11">
-        <v>112144</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>110990</v>
-      </c>
-      <c r="AS101" s="11">
         <v>147220</v>
       </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS101" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT101" s="11" t="s">
         <v>58</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>69</v>
       </c>
@@ -14459,86 +14459,86 @@
       <c r="Y102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA102" s="13" t="s">
-        <v>58</v>
+      <c r="Z102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="13">
+        <v>218</v>
       </c>
       <c r="AB102" s="13">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="AC102" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="13">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AE102" s="13">
         <v>0</v>
       </c>
-      <c r="AF102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI102" s="13" t="s">
-        <v>58</v>
+      <c r="AF102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="13">
+        <v>0</v>
       </c>
       <c r="AJ102" s="13">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="AK102" s="13">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="AL102" s="13">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="AM102" s="13">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="AN102" s="13">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="AO102" s="13">
-        <v>719</v>
+        <v>460</v>
       </c>
       <c r="AP102" s="13">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="AQ102" s="13">
-        <v>460</v>
-      </c>
-      <c r="AR102" s="13">
-        <v>451</v>
+        <v>0</v>
+      </c>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS102" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT102" s="13" t="s">
-        <v>58</v>
+        <v>1379</v>
+      </c>
+      <c r="AT102" s="13">
+        <v>1031</v>
       </c>
       <c r="AU102" s="13">
-        <v>1379</v>
+        <v>569</v>
       </c>
       <c r="AV102" s="13">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="AW102" s="13">
-        <v>569</v>
+        <v>1215</v>
       </c>
       <c r="AX102" s="13">
-        <v>0</v>
+        <v>3235</v>
       </c>
       <c r="AY102" s="13">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="AZ102" s="13">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="BA102" s="13">
         <v>0</v>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>70</v>
       </c>
@@ -14621,11 +14621,11 @@
       <c r="Z103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB103" s="11" t="s">
-        <v>58</v>
+      <c r="AA103" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="11">
+        <v>0</v>
       </c>
       <c r="AC103" s="11">
         <v>0</v>
@@ -14636,11 +14636,11 @@
       <c r="AE103" s="11">
         <v>0</v>
       </c>
-      <c r="AF103" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="11">
-        <v>0</v>
+      <c r="AF103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH103" s="11" t="s">
         <v>58</v>
@@ -14706,7 +14706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>71</v>
       </c>
@@ -14768,23 +14768,23 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>144</v>
+      </c>
+      <c r="X104" s="13">
+        <v>0</v>
       </c>
       <c r="Y104" s="13">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Z104" s="13">
         <v>0</v>
       </c>
-      <c r="AA104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="13">
-        <v>0</v>
+      <c r="AA104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC104" s="13" t="s">
         <v>58</v>
@@ -14865,7 +14865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>72</v>
       </c>
@@ -14936,11 +14936,11 @@
       <c r="Y105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA105" s="11" t="s">
-        <v>58</v>
+      <c r="Z105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="11">
+        <v>0</v>
       </c>
       <c r="AB105" s="11">
         <v>0</v>
@@ -14954,11 +14954,11 @@
       <c r="AE105" s="11">
         <v>0</v>
       </c>
-      <c r="AF105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="11">
-        <v>0</v>
+      <c r="AF105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH105" s="11" t="s">
         <v>58</v>
@@ -14972,11 +14972,11 @@
       <c r="AK105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM105" s="11" t="s">
-        <v>58</v>
+      <c r="AL105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="11">
+        <v>0</v>
       </c>
       <c r="AN105" s="11">
         <v>0</v>
@@ -14990,11 +14990,11 @@
       <c r="AQ105" s="11">
         <v>0</v>
       </c>
-      <c r="AR105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS105" s="11">
-        <v>0</v>
+      <c r="AR105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT105" s="11" t="s">
         <v>58</v>
@@ -15024,7 +15024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
         <v>89</v>
       </c>
@@ -15085,103 +15085,103 @@
         <v>0</v>
       </c>
       <c r="W106" s="15">
-        <v>0</v>
+        <v>206558</v>
       </c>
       <c r="X106" s="15">
-        <v>0</v>
+        <v>190159</v>
       </c>
       <c r="Y106" s="15">
-        <v>206558</v>
+        <v>191773</v>
       </c>
       <c r="Z106" s="15">
-        <v>190159</v>
+        <v>169540</v>
       </c>
       <c r="AA106" s="15">
-        <v>191773</v>
+        <v>209706</v>
       </c>
       <c r="AB106" s="15">
-        <v>169540</v>
+        <v>257324</v>
       </c>
       <c r="AC106" s="15">
-        <v>209706</v>
+        <v>206592</v>
       </c>
       <c r="AD106" s="15">
-        <v>257324</v>
+        <v>214661</v>
       </c>
       <c r="AE106" s="15">
-        <v>206592</v>
+        <v>228187</v>
       </c>
       <c r="AF106" s="15">
-        <v>214661</v>
+        <v>166033</v>
       </c>
       <c r="AG106" s="15">
-        <v>228187</v>
+        <v>304900</v>
       </c>
       <c r="AH106" s="15">
-        <v>166033</v>
+        <v>301237</v>
       </c>
       <c r="AI106" s="15">
-        <v>304900</v>
+        <v>238340</v>
       </c>
       <c r="AJ106" s="15">
-        <v>301237</v>
+        <v>176835</v>
       </c>
       <c r="AK106" s="15">
-        <v>238340</v>
+        <v>458798</v>
       </c>
       <c r="AL106" s="15">
-        <v>176835</v>
+        <v>362149</v>
       </c>
       <c r="AM106" s="15">
-        <v>458798</v>
+        <v>357722</v>
       </c>
       <c r="AN106" s="15">
-        <v>362149</v>
+        <v>375985</v>
       </c>
       <c r="AO106" s="15">
-        <v>357722</v>
+        <v>352792</v>
       </c>
       <c r="AP106" s="15">
-        <v>375985</v>
+        <v>435323</v>
       </c>
       <c r="AQ106" s="15">
-        <v>352792</v>
+        <v>565148</v>
       </c>
       <c r="AR106" s="15">
-        <v>435323</v>
+        <v>316427</v>
       </c>
       <c r="AS106" s="15">
-        <v>565148</v>
+        <v>355575</v>
       </c>
       <c r="AT106" s="15">
-        <v>316427</v>
+        <v>448032</v>
       </c>
       <c r="AU106" s="15">
-        <v>355575</v>
+        <v>359572</v>
       </c>
       <c r="AV106" s="15">
-        <v>448032</v>
+        <v>414314</v>
       </c>
       <c r="AW106" s="15">
-        <v>359572</v>
+        <v>511452</v>
       </c>
       <c r="AX106" s="15">
-        <v>414314</v>
+        <v>509129</v>
       </c>
       <c r="AY106" s="15">
-        <v>511452</v>
+        <v>534195</v>
       </c>
       <c r="AZ106" s="15">
-        <v>509129</v>
+        <v>591868</v>
       </c>
       <c r="BA106" s="15">
-        <v>534195</v>
+        <v>532269</v>
       </c>
       <c r="BB106" s="15">
-        <v>591868</v>
+        <v>564565</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>97</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="BA107" s="9"/>
       <c r="BB107" s="9"/>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>75</v>
       </c>
@@ -15300,11 +15300,11 @@
       <c r="V108" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W108" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X108" s="11" t="s">
-        <v>58</v>
+      <c r="W108" s="11">
+        <v>0</v>
+      </c>
+      <c r="X108" s="11">
+        <v>0</v>
       </c>
       <c r="Y108" s="11">
         <v>0</v>
@@ -15327,11 +15327,11 @@
       <c r="AE108" s="11">
         <v>0</v>
       </c>
-      <c r="AF108" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG108" s="11">
-        <v>0</v>
+      <c r="AF108" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG108" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH108" s="11" t="s">
         <v>58</v>
@@ -15397,7 +15397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
         <v>61</v>
       </c>
@@ -15522,11 +15522,11 @@
       <c r="AQ109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR109" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS109" s="13" t="s">
-        <v>58</v>
+      <c r="AR109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS109" s="13">
+        <v>0</v>
       </c>
       <c r="AT109" s="13">
         <v>0</v>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>76</v>
       </c>
@@ -15618,11 +15618,11 @@
       <c r="V110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="11" t="s">
-        <v>58</v>
+      <c r="W110" s="11">
+        <v>0</v>
+      </c>
+      <c r="X110" s="11">
+        <v>0</v>
       </c>
       <c r="Y110" s="11">
         <v>0</v>
@@ -15630,11 +15630,11 @@
       <c r="Z110" s="11">
         <v>0</v>
       </c>
-      <c r="AA110" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="11">
-        <v>0</v>
+      <c r="AA110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB110" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC110" s="11" t="s">
         <v>58</v>
@@ -15715,7 +15715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>77</v>
       </c>
@@ -15777,44 +15777,44 @@
       <c r="V111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X111" s="13" t="s">
-        <v>58</v>
+      <c r="W111" s="13">
+        <v>8764</v>
+      </c>
+      <c r="X111" s="13">
+        <v>13450</v>
       </c>
       <c r="Y111" s="13">
-        <v>8764</v>
+        <v>8955</v>
       </c>
       <c r="Z111" s="13">
-        <v>13450</v>
+        <v>18828</v>
       </c>
       <c r="AA111" s="13">
-        <v>8955</v>
+        <v>4067</v>
       </c>
       <c r="AB111" s="13">
-        <v>18828</v>
+        <v>461</v>
       </c>
       <c r="AC111" s="13">
-        <v>4067</v>
+        <v>699</v>
       </c>
       <c r="AD111" s="13">
-        <v>461</v>
+        <v>3521</v>
       </c>
       <c r="AE111" s="13">
-        <v>699</v>
+        <v>1604</v>
       </c>
       <c r="AF111" s="13">
-        <v>3521</v>
+        <v>1743</v>
       </c>
       <c r="AG111" s="13">
-        <v>1604</v>
+        <v>823</v>
       </c>
       <c r="AH111" s="13">
-        <v>1743</v>
+        <v>0</v>
       </c>
       <c r="AI111" s="13">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AJ111" s="13">
         <v>0</v>
@@ -15840,11 +15840,11 @@
       <c r="AQ111" s="13">
         <v>0</v>
       </c>
-      <c r="AR111" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS111" s="13">
-        <v>0</v>
+      <c r="AR111" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS111" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT111" s="13" t="s">
         <v>58</v>
@@ -15874,7 +15874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>63</v>
       </c>
@@ -15999,11 +15999,11 @@
       <c r="AQ112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR112" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS112" s="11" t="s">
-        <v>58</v>
+      <c r="AR112" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="11">
+        <v>0</v>
       </c>
       <c r="AT112" s="11">
         <v>0</v>
@@ -16015,25 +16015,25 @@
         <v>0</v>
       </c>
       <c r="AW112" s="11">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="AX112" s="11">
-        <v>0</v>
+        <v>8659</v>
       </c>
       <c r="AY112" s="11">
-        <v>1224</v>
+        <v>14774</v>
       </c>
       <c r="AZ112" s="11">
-        <v>8659</v>
+        <v>27678</v>
       </c>
       <c r="BA112" s="11">
-        <v>14774</v>
+        <v>28605</v>
       </c>
       <c r="BB112" s="11">
-        <v>27678</v>
+        <v>32059</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>78</v>
       </c>
@@ -16095,41 +16095,41 @@
       <c r="V113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W113" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X113" s="13" t="s">
-        <v>58</v>
+      <c r="W113" s="13">
+        <v>192</v>
+      </c>
+      <c r="X113" s="13">
+        <v>0</v>
       </c>
       <c r="Y113" s="13">
-        <v>192</v>
+        <v>1696</v>
       </c>
       <c r="Z113" s="13">
-        <v>0</v>
+        <v>6149</v>
       </c>
       <c r="AA113" s="13">
-        <v>1696</v>
+        <v>483</v>
       </c>
       <c r="AB113" s="13">
-        <v>6149</v>
+        <v>0</v>
       </c>
       <c r="AC113" s="13">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="AD113" s="13">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AE113" s="13">
-        <v>64</v>
+        <v>3078</v>
       </c>
       <c r="AF113" s="13">
-        <v>405</v>
+        <v>57</v>
       </c>
       <c r="AG113" s="13">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="AH113" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AI113" s="13">
         <v>0</v>
@@ -16158,11 +16158,11 @@
       <c r="AQ113" s="13">
         <v>0</v>
       </c>
-      <c r="AR113" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS113" s="13">
-        <v>0</v>
+      <c r="AR113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS113" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT113" s="13" t="s">
         <v>58</v>
@@ -16192,7 +16192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>69</v>
       </c>
@@ -16257,17 +16257,17 @@
       <c r="W114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="11">
-        <v>0</v>
+      <c r="X114" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA114" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB114" s="11" t="s">
         <v>58</v>
@@ -16351,7 +16351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>72</v>
       </c>
@@ -16419,14 +16419,14 @@
       <c r="X115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y115" s="13" t="s">
-        <v>58</v>
+      <c r="Y115" s="13">
+        <v>6</v>
       </c>
       <c r="Z115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA115" s="13">
-        <v>6</v>
+      <c r="AA115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB115" s="13" t="s">
         <v>58</v>
@@ -16510,7 +16510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>79</v>
       </c>
@@ -16572,17 +16572,17 @@
       <c r="V116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W116" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X116" s="11" t="s">
-        <v>58</v>
+      <c r="W116" s="11">
+        <v>14835</v>
+      </c>
+      <c r="X116" s="11">
+        <v>4062</v>
       </c>
       <c r="Y116" s="11">
-        <v>14835</v>
+        <v>0</v>
       </c>
       <c r="Z116" s="11">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="AA116" s="11">
         <v>0</v>
@@ -16597,16 +16597,16 @@
         <v>0</v>
       </c>
       <c r="AE116" s="11">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="AF116" s="11">
-        <v>0</v>
+        <v>8718</v>
       </c>
       <c r="AG116" s="11">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="AH116" s="11">
-        <v>8718</v>
+        <v>0</v>
       </c>
       <c r="AI116" s="11">
         <v>0</v>
@@ -16635,11 +16635,11 @@
       <c r="AQ116" s="11">
         <v>0</v>
       </c>
-      <c r="AR116" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS116" s="11">
-        <v>0</v>
+      <c r="AR116" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT116" s="11" t="s">
         <v>58</v>
@@ -16669,7 +16669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>80</v>
       </c>
@@ -16731,44 +16731,44 @@
       <c r="V117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X117" s="13" t="s">
-        <v>58</v>
+      <c r="W117" s="13">
+        <v>0</v>
+      </c>
+      <c r="X117" s="13">
+        <v>82264</v>
       </c>
       <c r="Y117" s="13">
         <v>0</v>
       </c>
       <c r="Z117" s="13">
-        <v>82264</v>
+        <v>0</v>
       </c>
       <c r="AA117" s="13">
         <v>0</v>
       </c>
       <c r="AB117" s="13">
-        <v>0</v>
+        <v>273836</v>
       </c>
       <c r="AC117" s="13">
         <v>0</v>
       </c>
       <c r="AD117" s="13">
-        <v>273836</v>
+        <v>0</v>
       </c>
       <c r="AE117" s="13">
         <v>0</v>
       </c>
-      <c r="AF117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI117" s="13" t="s">
-        <v>58</v>
+      <c r="AF117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH117" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="13">
+        <v>0</v>
       </c>
       <c r="AJ117" s="13">
         <v>0</v>
@@ -16794,11 +16794,11 @@
       <c r="AQ117" s="13">
         <v>0</v>
       </c>
-      <c r="AR117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS117" s="13">
-        <v>0</v>
+      <c r="AR117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS117" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT117" s="13" t="s">
         <v>58</v>
@@ -16828,7 +16828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>81</v>
       </c>
@@ -16896,11 +16896,11 @@
       <c r="X118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>58</v>
+      <c r="Y118" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="11">
+        <v>0</v>
       </c>
       <c r="AA118" s="11">
         <v>0</v>
@@ -16917,11 +16917,11 @@
       <c r="AE118" s="11">
         <v>0</v>
       </c>
-      <c r="AF118" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG118" s="11">
-        <v>0</v>
+      <c r="AF118" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG118" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH118" s="11" t="s">
         <v>58</v>
@@ -16987,7 +16987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>82</v>
       </c>
@@ -17112,11 +17112,11 @@
       <c r="AQ119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS119" s="13" t="s">
-        <v>58</v>
+      <c r="AR119" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS119" s="13">
+        <v>0</v>
       </c>
       <c r="AT119" s="13">
         <v>0</v>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
         <v>91</v>
       </c>
@@ -17207,43 +17207,43 @@
         <v>0</v>
       </c>
       <c r="W120" s="17">
-        <v>0</v>
+        <v>23791</v>
       </c>
       <c r="X120" s="17">
-        <v>0</v>
+        <v>99776</v>
       </c>
       <c r="Y120" s="17">
-        <v>23791</v>
+        <v>10657</v>
       </c>
       <c r="Z120" s="17">
-        <v>99776</v>
+        <v>24977</v>
       </c>
       <c r="AA120" s="17">
-        <v>10657</v>
+        <v>4550</v>
       </c>
       <c r="AB120" s="17">
-        <v>24977</v>
+        <v>274297</v>
       </c>
       <c r="AC120" s="17">
-        <v>4550</v>
+        <v>763</v>
       </c>
       <c r="AD120" s="17">
-        <v>274297</v>
+        <v>3926</v>
       </c>
       <c r="AE120" s="17">
-        <v>763</v>
+        <v>5857</v>
       </c>
       <c r="AF120" s="17">
-        <v>3926</v>
+        <v>10518</v>
       </c>
       <c r="AG120" s="17">
-        <v>5857</v>
+        <v>823</v>
       </c>
       <c r="AH120" s="17">
-        <v>10518</v>
+        <v>0</v>
       </c>
       <c r="AI120" s="17">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AJ120" s="17">
         <v>0</v>
@@ -17285,25 +17285,25 @@
         <v>0</v>
       </c>
       <c r="AW120" s="17">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="AX120" s="17">
-        <v>0</v>
+        <v>8659</v>
       </c>
       <c r="AY120" s="17">
-        <v>1224</v>
+        <v>14774</v>
       </c>
       <c r="AZ120" s="17">
-        <v>8659</v>
+        <v>27678</v>
       </c>
       <c r="BA120" s="17">
-        <v>14774</v>
+        <v>28605</v>
       </c>
       <c r="BB120" s="17">
-        <v>27678</v>
+        <v>32059</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="18" t="s">
         <v>98</v>
       </c>
@@ -17360,7 +17360,7 @@
       <c r="BA121" s="19"/>
       <c r="BB121" s="19"/>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="16" t="s">
         <v>85</v>
       </c>
@@ -17422,11 +17422,11 @@
       <c r="V122" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W122" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X122" s="17" t="s">
-        <v>58</v>
+      <c r="W122" s="17">
+        <v>0</v>
+      </c>
+      <c r="X122" s="17">
+        <v>0</v>
       </c>
       <c r="Y122" s="17">
         <v>0</v>
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="18" t="s">
         <v>99</v>
       </c>
@@ -17576,7 +17576,7 @@
       <c r="BA123" s="19"/>
       <c r="BB123" s="19"/>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
         <v>93</v>
       </c>
@@ -17638,11 +17638,11 @@
       <c r="V124" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W124" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X124" s="17" t="s">
-        <v>58</v>
+      <c r="W124" s="17">
+        <v>0</v>
+      </c>
+      <c r="X124" s="17">
+        <v>0</v>
       </c>
       <c r="Y124" s="17">
         <v>0</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
         <v>100</v>
       </c>
@@ -17792,7 +17792,7 @@
       <c r="BA125" s="9"/>
       <c r="BB125" s="9"/>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>101</v>
       </c>
@@ -17854,11 +17854,11 @@
       <c r="V126" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W126" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X126" s="11" t="s">
-        <v>58</v>
+      <c r="W126" s="11">
+        <v>0</v>
+      </c>
+      <c r="X126" s="11">
+        <v>0</v>
       </c>
       <c r="Y126" s="11">
         <v>0</v>
@@ -17951,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
         <v>86</v>
       </c>
@@ -18012,103 +18012,103 @@
         <v>0</v>
       </c>
       <c r="W127" s="15">
-        <v>0</v>
+        <v>230349</v>
       </c>
       <c r="X127" s="15">
-        <v>0</v>
+        <v>289935</v>
       </c>
       <c r="Y127" s="15">
-        <v>230349</v>
+        <v>202430</v>
       </c>
       <c r="Z127" s="15">
-        <v>289935</v>
+        <v>194517</v>
       </c>
       <c r="AA127" s="15">
-        <v>202430</v>
+        <v>214256</v>
       </c>
       <c r="AB127" s="15">
-        <v>194517</v>
+        <v>531621</v>
       </c>
       <c r="AC127" s="15">
-        <v>214256</v>
+        <v>207355</v>
       </c>
       <c r="AD127" s="15">
-        <v>531621</v>
+        <v>218587</v>
       </c>
       <c r="AE127" s="15">
-        <v>207355</v>
+        <v>234044</v>
       </c>
       <c r="AF127" s="15">
-        <v>218587</v>
+        <v>176551</v>
       </c>
       <c r="AG127" s="15">
-        <v>234044</v>
+        <v>305723</v>
       </c>
       <c r="AH127" s="15">
-        <v>176551</v>
+        <v>301237</v>
       </c>
       <c r="AI127" s="15">
-        <v>305723</v>
+        <v>238340</v>
       </c>
       <c r="AJ127" s="15">
-        <v>301237</v>
+        <v>176835</v>
       </c>
       <c r="AK127" s="15">
-        <v>238340</v>
+        <v>458798</v>
       </c>
       <c r="AL127" s="15">
-        <v>176835</v>
+        <v>362149</v>
       </c>
       <c r="AM127" s="15">
-        <v>458798</v>
+        <v>357722</v>
       </c>
       <c r="AN127" s="15">
-        <v>362149</v>
+        <v>375985</v>
       </c>
       <c r="AO127" s="15">
-        <v>357722</v>
+        <v>352792</v>
       </c>
       <c r="AP127" s="15">
-        <v>375985</v>
+        <v>435323</v>
       </c>
       <c r="AQ127" s="15">
-        <v>352792</v>
+        <v>565148</v>
       </c>
       <c r="AR127" s="15">
-        <v>435323</v>
+        <v>316427</v>
       </c>
       <c r="AS127" s="15">
-        <v>565148</v>
+        <v>355575</v>
       </c>
       <c r="AT127" s="15">
-        <v>316427</v>
+        <v>448032</v>
       </c>
       <c r="AU127" s="15">
-        <v>355575</v>
+        <v>359572</v>
       </c>
       <c r="AV127" s="15">
-        <v>448032</v>
+        <v>414314</v>
       </c>
       <c r="AW127" s="15">
-        <v>359572</v>
+        <v>512676</v>
       </c>
       <c r="AX127" s="15">
-        <v>414314</v>
+        <v>517788</v>
       </c>
       <c r="AY127" s="15">
-        <v>512676</v>
+        <v>548969</v>
       </c>
       <c r="AZ127" s="15">
-        <v>517788</v>
+        <v>619546</v>
       </c>
       <c r="BA127" s="15">
-        <v>548969</v>
+        <v>560874</v>
       </c>
       <c r="BB127" s="15">
-        <v>619546</v>
+        <v>596624</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -18163,7 +18163,7 @@
       <c r="BA128" s="1"/>
       <c r="BB128" s="1"/>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -18218,7 +18218,7 @@
       <c r="BA129" s="1"/>
       <c r="BB129" s="1"/>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -18273,7 +18273,7 @@
       <c r="BA130" s="1"/>
       <c r="BB130" s="1"/>
     </row>
-    <row r="131" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
         <v>102</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -18485,7 +18485,7 @@
       <c r="BA132" s="1"/>
       <c r="BB132" s="1"/>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>103</v>
       </c>
@@ -18542,7 +18542,7 @@
       <c r="BA133" s="9"/>
       <c r="BB133" s="9"/>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>56</v>
       </c>
@@ -18604,75 +18604,75 @@
       <c r="V134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W134" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X134" s="11" t="s">
-        <v>58</v>
+      <c r="W134" s="11">
+        <v>2265779</v>
+      </c>
+      <c r="X134" s="11">
+        <v>2545076</v>
       </c>
       <c r="Y134" s="11">
-        <v>2265779</v>
+        <v>2695130</v>
       </c>
       <c r="Z134" s="11">
-        <v>2545076</v>
+        <v>2739172</v>
       </c>
       <c r="AA134" s="11">
-        <v>2695130</v>
+        <v>2945105</v>
       </c>
       <c r="AB134" s="11">
-        <v>2739172</v>
+        <v>3030201</v>
       </c>
       <c r="AC134" s="11">
-        <v>2945105</v>
+        <v>3052750</v>
       </c>
       <c r="AD134" s="11">
-        <v>3030201</v>
+        <v>3079543</v>
       </c>
       <c r="AE134" s="11">
-        <v>3052750</v>
+        <v>3088269</v>
       </c>
       <c r="AF134" s="11">
-        <v>3079543</v>
+        <v>3362429</v>
       </c>
       <c r="AG134" s="11">
-        <v>3088269</v>
+        <v>4261400</v>
       </c>
       <c r="AH134" s="11">
-        <v>3362429</v>
+        <v>4638041</v>
       </c>
       <c r="AI134" s="11">
-        <v>4261400</v>
+        <v>5059564</v>
       </c>
       <c r="AJ134" s="11">
-        <v>4638041</v>
+        <v>6076841</v>
       </c>
       <c r="AK134" s="11">
-        <v>5059564</v>
+        <v>7156382</v>
       </c>
       <c r="AL134" s="11">
-        <v>6076841</v>
+        <v>5509325</v>
       </c>
       <c r="AM134" s="11">
-        <v>7156382</v>
+        <v>6146906</v>
       </c>
       <c r="AN134" s="11">
-        <v>5509325</v>
+        <v>5946686</v>
       </c>
       <c r="AO134" s="11">
-        <v>6146906</v>
+        <v>5820461</v>
       </c>
       <c r="AP134" s="11">
-        <v>5946686</v>
+        <v>6086454</v>
       </c>
       <c r="AQ134" s="11">
-        <v>5820461</v>
-      </c>
-      <c r="AR134" s="11">
-        <v>6086454</v>
-      </c>
-      <c r="AS134" s="11">
         <v>6862831</v>
       </c>
+      <c r="AR134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS134" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT134" s="11" t="s">
         <v>58</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
         <v>59</v>
       </c>
@@ -18826,41 +18826,41 @@
       <c r="AQ135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR135" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS135" s="13" t="s">
-        <v>58</v>
+      <c r="AR135" s="13">
+        <v>5759868</v>
+      </c>
+      <c r="AS135" s="13">
+        <v>5305819</v>
       </c>
       <c r="AT135" s="13">
-        <v>5759868</v>
+        <v>6222852</v>
       </c>
       <c r="AU135" s="13">
-        <v>5305819</v>
+        <v>7896893</v>
       </c>
       <c r="AV135" s="13">
-        <v>6222852</v>
+        <v>9288755</v>
       </c>
       <c r="AW135" s="13">
-        <v>7896893</v>
+        <v>8576836</v>
       </c>
       <c r="AX135" s="13">
-        <v>9288755</v>
+        <v>7439523</v>
       </c>
       <c r="AY135" s="13">
-        <v>8576836</v>
+        <v>7098324</v>
       </c>
       <c r="AZ135" s="13">
-        <v>7439523</v>
+        <v>7515643</v>
       </c>
       <c r="BA135" s="13">
-        <v>7098324</v>
+        <v>7135201</v>
       </c>
       <c r="BB135" s="13">
-        <v>7515643</v>
+        <v>8114819</v>
       </c>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
         <v>60</v>
       </c>
@@ -18922,75 +18922,75 @@
       <c r="V136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W136" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X136" s="11" t="s">
-        <v>58</v>
+      <c r="W136" s="11">
+        <v>1829883</v>
+      </c>
+      <c r="X136" s="11">
+        <v>2140572</v>
       </c>
       <c r="Y136" s="11">
-        <v>1829883</v>
+        <v>2148866</v>
       </c>
       <c r="Z136" s="11">
-        <v>2140572</v>
+        <v>2171330</v>
       </c>
       <c r="AA136" s="11">
-        <v>2148866</v>
+        <v>2171941</v>
       </c>
       <c r="AB136" s="11">
-        <v>2171330</v>
+        <v>2174225</v>
       </c>
       <c r="AC136" s="11">
-        <v>2171941</v>
+        <v>2173739</v>
       </c>
       <c r="AD136" s="11">
-        <v>2174225</v>
+        <v>2177625</v>
       </c>
       <c r="AE136" s="11">
-        <v>2173739</v>
+        <v>2189465</v>
       </c>
       <c r="AF136" s="11">
-        <v>2177625</v>
+        <v>2430918</v>
       </c>
       <c r="AG136" s="11">
-        <v>2189465</v>
+        <v>3073927</v>
       </c>
       <c r="AH136" s="11">
-        <v>2430918</v>
+        <v>3169969</v>
       </c>
       <c r="AI136" s="11">
-        <v>3073927</v>
+        <v>3598371</v>
       </c>
       <c r="AJ136" s="11">
-        <v>3169969</v>
+        <v>4281260</v>
       </c>
       <c r="AK136" s="11">
-        <v>3598371</v>
+        <v>6253342</v>
       </c>
       <c r="AL136" s="11">
-        <v>4281260</v>
+        <v>4267120</v>
       </c>
       <c r="AM136" s="11">
-        <v>6253342</v>
+        <v>4605594</v>
       </c>
       <c r="AN136" s="11">
-        <v>4267120</v>
+        <v>6005885</v>
       </c>
       <c r="AO136" s="11">
-        <v>4605594</v>
+        <v>5555735</v>
       </c>
       <c r="AP136" s="11">
-        <v>6005885</v>
+        <v>5928055</v>
       </c>
       <c r="AQ136" s="11">
-        <v>5555735</v>
-      </c>
-      <c r="AR136" s="11">
-        <v>5928055</v>
-      </c>
-      <c r="AS136" s="11">
         <v>6581007</v>
       </c>
+      <c r="AR136" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS136" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT136" s="11" t="s">
         <v>58</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>61</v>
       </c>
@@ -19144,41 +19144,41 @@
       <c r="AQ137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR137" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS137" s="13" t="s">
-        <v>58</v>
+      <c r="AR137" s="13">
+        <v>6590549</v>
+      </c>
+      <c r="AS137" s="13">
+        <v>6410867</v>
       </c>
       <c r="AT137" s="13">
-        <v>6590549</v>
+        <v>7092698</v>
       </c>
       <c r="AU137" s="13">
-        <v>6410867</v>
+        <v>7616583</v>
       </c>
       <c r="AV137" s="13">
-        <v>7092698</v>
+        <v>7193005</v>
       </c>
       <c r="AW137" s="13">
-        <v>7616583</v>
+        <v>6824233</v>
       </c>
       <c r="AX137" s="13">
-        <v>7193005</v>
+        <v>6808601</v>
       </c>
       <c r="AY137" s="13">
-        <v>6824233</v>
+        <v>6724574</v>
       </c>
       <c r="AZ137" s="13">
-        <v>6808601</v>
+        <v>6762999</v>
       </c>
       <c r="BA137" s="13">
-        <v>6724574</v>
+        <v>6671844</v>
       </c>
       <c r="BB137" s="13">
-        <v>6762999</v>
+        <v>6876294</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
         <v>62</v>
       </c>
@@ -19303,41 +19303,41 @@
       <c r="AQ138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR138" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS138" s="11" t="s">
-        <v>58</v>
+      <c r="AR138" s="11">
+        <v>5801068</v>
+      </c>
+      <c r="AS138" s="11">
+        <v>5644338</v>
       </c>
       <c r="AT138" s="11">
-        <v>5801068</v>
+        <v>6329617</v>
       </c>
       <c r="AU138" s="11">
-        <v>5644338</v>
+        <v>6995026</v>
       </c>
       <c r="AV138" s="11">
-        <v>6329617</v>
+        <v>6914522</v>
       </c>
       <c r="AW138" s="11">
-        <v>6995026</v>
+        <v>5930072</v>
       </c>
       <c r="AX138" s="11">
-        <v>6914522</v>
+        <v>5722627</v>
       </c>
       <c r="AY138" s="11">
-        <v>5930072</v>
+        <v>5442673</v>
       </c>
       <c r="AZ138" s="11">
-        <v>5722627</v>
+        <v>5365999</v>
       </c>
       <c r="BA138" s="11">
-        <v>5442673</v>
+        <v>5324941</v>
       </c>
       <c r="BB138" s="11">
-        <v>5365999</v>
+        <v>5230625</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>63</v>
       </c>
@@ -19462,41 +19462,41 @@
       <c r="AQ139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR139" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS139" s="13" t="s">
-        <v>58</v>
+      <c r="AR139" s="13">
+        <v>6340538</v>
+      </c>
+      <c r="AS139" s="13">
+        <v>6266989</v>
       </c>
       <c r="AT139" s="13">
-        <v>6340538</v>
+        <v>7589687</v>
       </c>
       <c r="AU139" s="13">
-        <v>6266989</v>
+        <v>8016150</v>
       </c>
       <c r="AV139" s="13">
-        <v>7589687</v>
+        <v>7715057</v>
       </c>
       <c r="AW139" s="13">
-        <v>8016150</v>
+        <v>7437857</v>
       </c>
       <c r="AX139" s="13">
-        <v>7715057</v>
+        <v>7465624</v>
       </c>
       <c r="AY139" s="13">
-        <v>7437857</v>
+        <v>7407961</v>
       </c>
       <c r="AZ139" s="13">
-        <v>7465624</v>
+        <v>7198263</v>
       </c>
       <c r="BA139" s="13">
-        <v>7407961</v>
+        <v>7256643</v>
       </c>
       <c r="BB139" s="13">
-        <v>7198263</v>
+        <v>7557270</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>64</v>
       </c>
@@ -19624,38 +19624,38 @@
       <c r="AR140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU140" s="11">
+      <c r="AS140" s="11">
         <v>3900000</v>
       </c>
-      <c r="AV140" s="11">
+      <c r="AT140" s="11">
         <v>3888889</v>
       </c>
-      <c r="AW140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY140" s="11">
+      <c r="AU140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW140" s="11">
         <v>3914894</v>
       </c>
+      <c r="AX140" s="11">
+        <v>3875000</v>
+      </c>
+      <c r="AY140" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ140" s="11">
-        <v>3875000</v>
-      </c>
-      <c r="BA140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB140" s="11">
         <v>3916667</v>
       </c>
+      <c r="BA140" s="11">
+        <v>3800000</v>
+      </c>
+      <c r="BB140" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
         <v>65</v>
       </c>
@@ -19717,75 +19717,75 @@
       <c r="V141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W141" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X141" s="13" t="s">
-        <v>58</v>
+      <c r="W141" s="13">
+        <v>1097561</v>
+      </c>
+      <c r="X141" s="13">
+        <v>1100671</v>
       </c>
       <c r="Y141" s="13">
-        <v>1097561</v>
+        <v>1138211</v>
       </c>
       <c r="Z141" s="13">
-        <v>1100671</v>
+        <v>1144279</v>
       </c>
       <c r="AA141" s="13">
-        <v>1138211</v>
+        <v>1150000</v>
       </c>
       <c r="AB141" s="13">
-        <v>1144279</v>
+        <v>1243902</v>
       </c>
       <c r="AC141" s="13">
-        <v>1150000</v>
+        <v>1234694</v>
       </c>
       <c r="AD141" s="13">
-        <v>1243902</v>
-      </c>
-      <c r="AE141" s="13">
-        <v>1234694</v>
+        <v>1259259</v>
+      </c>
+      <c r="AE141" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF141" s="13">
-        <v>1259259</v>
-      </c>
-      <c r="AG141" s="13" t="s">
-        <v>58</v>
+        <v>1115385</v>
+      </c>
+      <c r="AG141" s="13">
+        <v>1115385</v>
       </c>
       <c r="AH141" s="13">
-        <v>1115385</v>
-      </c>
-      <c r="AI141" s="13">
-        <v>1115385</v>
+        <v>1422680</v>
+      </c>
+      <c r="AI141" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ141" s="13">
-        <v>1422680</v>
+        <v>1769231</v>
       </c>
       <c r="AK141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL141" s="13">
-        <v>1769231</v>
+      <c r="AL141" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN141" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO141" s="13" t="s">
-        <v>58</v>
+      <c r="AN141" s="13">
+        <v>3916667</v>
+      </c>
+      <c r="AO141" s="13">
+        <v>3898990</v>
       </c>
       <c r="AP141" s="13">
-        <v>3916667</v>
+        <v>3857143</v>
       </c>
       <c r="AQ141" s="13">
-        <v>3898990</v>
-      </c>
-      <c r="AR141" s="13">
-        <v>3857143</v>
-      </c>
-      <c r="AS141" s="13">
         <v>3733333</v>
       </c>
+      <c r="AR141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS141" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT141" s="13" t="s">
         <v>58</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>67</v>
       </c>
@@ -19876,75 +19876,75 @@
       <c r="V142" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X142" s="11" t="s">
-        <v>58</v>
+      <c r="W142" s="11">
+        <v>1870741</v>
+      </c>
+      <c r="X142" s="11">
+        <v>2123448</v>
       </c>
       <c r="Y142" s="11">
-        <v>1870741</v>
+        <v>2169449</v>
       </c>
       <c r="Z142" s="11">
-        <v>2123448</v>
+        <v>2169839</v>
       </c>
       <c r="AA142" s="11">
-        <v>2169449</v>
+        <v>2169974</v>
       </c>
       <c r="AB142" s="11">
-        <v>2169839</v>
+        <v>2170370</v>
       </c>
       <c r="AC142" s="11">
-        <v>2169974</v>
+        <v>2173390</v>
       </c>
       <c r="AD142" s="11">
-        <v>2170370</v>
+        <v>2172297</v>
       </c>
       <c r="AE142" s="11">
-        <v>2173390</v>
+        <v>2205948</v>
       </c>
       <c r="AF142" s="11">
-        <v>2172297</v>
+        <v>2326146</v>
       </c>
       <c r="AG142" s="11">
-        <v>2205948</v>
+        <v>3062173</v>
       </c>
       <c r="AH142" s="11">
-        <v>2326146</v>
+        <v>3131321</v>
       </c>
       <c r="AI142" s="11">
-        <v>3062173</v>
+        <v>3759898</v>
       </c>
       <c r="AJ142" s="11">
-        <v>3131321</v>
+        <v>3890150</v>
       </c>
       <c r="AK142" s="11">
-        <v>3759898</v>
+        <v>5047431</v>
       </c>
       <c r="AL142" s="11">
-        <v>3890150</v>
+        <v>3752793</v>
       </c>
       <c r="AM142" s="11">
-        <v>5047431</v>
+        <v>3671795</v>
       </c>
       <c r="AN142" s="11">
-        <v>3752793</v>
+        <v>4725543</v>
       </c>
       <c r="AO142" s="11">
-        <v>3671795</v>
+        <v>4087678</v>
       </c>
       <c r="AP142" s="11">
-        <v>4725543</v>
+        <v>4723576</v>
       </c>
       <c r="AQ142" s="11">
-        <v>4087678</v>
-      </c>
-      <c r="AR142" s="11">
-        <v>4723576</v>
-      </c>
-      <c r="AS142" s="11">
         <v>5965132</v>
       </c>
+      <c r="AR142" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS142" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT142" s="11" t="s">
         <v>58</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
         <v>68</v>
       </c>
@@ -20035,75 +20035,75 @@
       <c r="V143" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X143" s="13" t="s">
-        <v>58</v>
+      <c r="W143" s="13">
+        <v>2141443</v>
+      </c>
+      <c r="X143" s="13">
+        <v>2483704</v>
       </c>
       <c r="Y143" s="13">
-        <v>2141443</v>
+        <v>2660830</v>
       </c>
       <c r="Z143" s="13">
-        <v>2483704</v>
+        <v>2708188</v>
       </c>
       <c r="AA143" s="13">
-        <v>2660830</v>
+        <v>2935080</v>
       </c>
       <c r="AB143" s="13">
-        <v>2708188</v>
+        <v>3011124</v>
       </c>
       <c r="AC143" s="13">
-        <v>2935080</v>
+        <v>3021183</v>
       </c>
       <c r="AD143" s="13">
-        <v>3011124</v>
+        <v>3047521</v>
       </c>
       <c r="AE143" s="13">
-        <v>3021183</v>
+        <v>3085538</v>
       </c>
       <c r="AF143" s="13">
-        <v>3047521</v>
+        <v>3226196</v>
       </c>
       <c r="AG143" s="13">
-        <v>3085538</v>
+        <v>4254768</v>
       </c>
       <c r="AH143" s="13">
-        <v>3226196</v>
+        <v>4501905</v>
       </c>
       <c r="AI143" s="13">
-        <v>4254768</v>
+        <v>5244459</v>
       </c>
       <c r="AJ143" s="13">
-        <v>4501905</v>
+        <v>5892204</v>
       </c>
       <c r="AK143" s="13">
-        <v>5244459</v>
+        <v>8678271</v>
       </c>
       <c r="AL143" s="13">
-        <v>5892204</v>
+        <v>5756584</v>
       </c>
       <c r="AM143" s="13">
-        <v>8678271</v>
+        <v>5637856</v>
       </c>
       <c r="AN143" s="13">
-        <v>5756584</v>
+        <v>5642860</v>
       </c>
       <c r="AO143" s="13">
-        <v>5637856</v>
+        <v>5329025</v>
       </c>
       <c r="AP143" s="13">
-        <v>5642860</v>
+        <v>5778622</v>
       </c>
       <c r="AQ143" s="13">
-        <v>5329025</v>
-      </c>
-      <c r="AR143" s="13">
-        <v>5778622</v>
-      </c>
-      <c r="AS143" s="13">
         <v>6620497</v>
       </c>
+      <c r="AR143" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS143" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT143" s="13" t="s">
         <v>58</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>69</v>
       </c>
@@ -20206,18 +20206,18 @@
       <c r="Z144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC144" s="11">
+      <c r="AA144" s="11">
         <v>10900000</v>
       </c>
-      <c r="AD144" s="11">
+      <c r="AB144" s="11">
         <v>10739130</v>
       </c>
+      <c r="AC144" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD144" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE144" s="11" t="s">
         <v>58</v>
       </c>
@@ -20233,57 +20233,57 @@
       <c r="AI144" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK144" s="11" t="s">
-        <v>58</v>
+      <c r="AJ144" s="11">
+        <v>15693878</v>
+      </c>
+      <c r="AK144" s="11">
+        <v>15377358</v>
       </c>
       <c r="AL144" s="11">
-        <v>15693878</v>
+        <v>15520000</v>
       </c>
       <c r="AM144" s="11">
-        <v>15377358</v>
+        <v>15630435</v>
       </c>
       <c r="AN144" s="11">
-        <v>15520000</v>
+        <v>15300000</v>
       </c>
       <c r="AO144" s="11">
-        <v>15630435</v>
+        <v>18400000</v>
       </c>
       <c r="AP144" s="11">
-        <v>15300000</v>
-      </c>
-      <c r="AQ144" s="11">
-        <v>18400000</v>
-      </c>
-      <c r="AR144" s="11">
         <v>18791667</v>
       </c>
-      <c r="AS144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT144" s="11" t="s">
-        <v>58</v>
+      <c r="AQ144" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR144" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS144" s="11">
+        <v>22241935</v>
+      </c>
+      <c r="AT144" s="11">
+        <v>21936170</v>
       </c>
       <c r="AU144" s="11">
-        <v>22241935</v>
-      </c>
-      <c r="AV144" s="11">
-        <v>21936170</v>
+        <v>21884615</v>
+      </c>
+      <c r="AV144" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW144" s="11">
-        <v>21884615</v>
-      </c>
-      <c r="AX144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY144" s="11">
         <v>45000000</v>
       </c>
-      <c r="AZ144" s="11">
+      <c r="AX144" s="11">
         <v>44930556</v>
       </c>
+      <c r="AY144" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ144" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA144" s="11" t="s">
         <v>58</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B145" s="12" t="s">
         <v>71</v>
       </c>
@@ -20353,14 +20353,14 @@
       <c r="V145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W145" s="13" t="s">
-        <v>58</v>
+      <c r="W145" s="13">
+        <v>9600000</v>
       </c>
       <c r="X145" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y145" s="13">
-        <v>9600000</v>
+      <c r="Y145" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Z145" s="13" t="s">
         <v>58</v>
@@ -20450,7 +20450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>72</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
         <v>105</v>
       </c>
@@ -20666,7 +20666,7 @@
       <c r="BA147" s="9"/>
       <c r="BB147" s="9"/>
     </row>
-    <row r="148" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
         <v>77</v>
       </c>
@@ -20728,45 +20728,45 @@
       <c r="V148" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W148" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X148" s="11" t="s">
-        <v>58</v>
+      <c r="W148" s="11">
+        <v>2251220</v>
+      </c>
+      <c r="X148" s="11">
+        <v>2335881</v>
       </c>
       <c r="Y148" s="11">
-        <v>2251220</v>
+        <v>2587402</v>
       </c>
       <c r="Z148" s="11">
-        <v>2335881</v>
+        <v>4144398</v>
       </c>
       <c r="AA148" s="11">
-        <v>2587402</v>
+        <v>3797386</v>
       </c>
       <c r="AB148" s="11">
-        <v>4144398</v>
+        <v>3873950</v>
       </c>
       <c r="AC148" s="11">
-        <v>3797386</v>
+        <v>3251163</v>
       </c>
       <c r="AD148" s="11">
-        <v>3873950</v>
+        <v>3596527</v>
       </c>
       <c r="AE148" s="11">
-        <v>3251163</v>
+        <v>3260163</v>
       </c>
       <c r="AF148" s="11">
-        <v>3596527</v>
+        <v>3830769</v>
       </c>
       <c r="AG148" s="11">
-        <v>3260163</v>
-      </c>
-      <c r="AH148" s="11">
-        <v>3830769</v>
-      </c>
-      <c r="AI148" s="11">
         <v>4054187</v>
       </c>
+      <c r="AH148" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI148" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ148" s="11" t="s">
         <v>58</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B149" s="12" t="s">
         <v>63</v>
       </c>
@@ -20965,26 +20965,26 @@
       <c r="AV149" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW149" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX149" s="13" t="s">
-        <v>58</v>
+      <c r="AW149" s="13">
+        <v>12363636</v>
+      </c>
+      <c r="AX149" s="13">
+        <v>11304178</v>
       </c>
       <c r="AY149" s="13">
-        <v>12363636</v>
+        <v>12394295</v>
       </c>
       <c r="AZ149" s="13">
-        <v>11304178</v>
+        <v>12867503</v>
       </c>
       <c r="BA149" s="13">
-        <v>12394295</v>
+        <v>13693155</v>
       </c>
       <c r="BB149" s="13">
-        <v>12867503</v>
+        <v>13812581</v>
       </c>
     </row>
-    <row r="150" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
         <v>78</v>
       </c>
@@ -21046,42 +21046,42 @@
       <c r="V150" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W150" s="11" t="s">
-        <v>58</v>
+      <c r="W150" s="11">
+        <v>2493506</v>
       </c>
       <c r="X150" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y150" s="11">
-        <v>2493506</v>
-      </c>
-      <c r="Z150" s="11" t="s">
-        <v>58</v>
+        <v>2924138</v>
+      </c>
+      <c r="Z150" s="11">
+        <v>3598011</v>
       </c>
       <c r="AA150" s="11">
-        <v>2924138</v>
-      </c>
-      <c r="AB150" s="11">
-        <v>3598011</v>
+        <v>2502591</v>
+      </c>
+      <c r="AB150" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC150" s="11">
-        <v>2502591</v>
-      </c>
-      <c r="AD150" s="11" t="s">
-        <v>58</v>
+        <v>2461538</v>
+      </c>
+      <c r="AD150" s="11">
+        <v>2500000</v>
       </c>
       <c r="AE150" s="11">
-        <v>2461538</v>
+        <v>2500406</v>
       </c>
       <c r="AF150" s="11">
-        <v>2500000</v>
-      </c>
-      <c r="AG150" s="11">
-        <v>2500406</v>
-      </c>
-      <c r="AH150" s="11">
         <v>2590909</v>
       </c>
+      <c r="AG150" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH150" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI150" s="11" t="s">
         <v>58</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
         <v>72</v>
       </c>
@@ -21211,14 +21211,14 @@
       <c r="X151" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y151" s="13" t="s">
-        <v>58</v>
+      <c r="Y151" s="13">
+        <v>2000000</v>
       </c>
       <c r="Z151" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA151" s="13">
-        <v>2000000</v>
+      <c r="AA151" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB151" s="13" t="s">
         <v>58</v>
@@ -21302,7 +21302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
         <v>79</v>
       </c>
@@ -21364,18 +21364,18 @@
       <c r="V152" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W152" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X152" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y152" s="11">
+      <c r="W152" s="11">
         <v>1649800</v>
       </c>
-      <c r="Z152" s="11">
+      <c r="X152" s="11">
         <v>1650549</v>
       </c>
+      <c r="Y152" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z152" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA152" s="11" t="s">
         <v>58</v>
       </c>
@@ -21388,18 +21388,18 @@
       <c r="AD152" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE152" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF152" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG152" s="11">
+      <c r="AE152" s="11">
         <v>5000000</v>
       </c>
-      <c r="AH152" s="11">
+      <c r="AF152" s="11">
         <v>4998853</v>
       </c>
+      <c r="AG152" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH152" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI152" s="11" t="s">
         <v>58</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B153" s="12" t="s">
         <v>80</v>
       </c>
@@ -21526,26 +21526,26 @@
       <c r="W153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X153" s="13" t="s">
-        <v>58</v>
+      <c r="X153" s="13">
+        <v>1902058</v>
       </c>
       <c r="Y153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z153" s="13">
-        <v>1902058</v>
+      <c r="Z153" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB153" s="13" t="s">
-        <v>58</v>
+      <c r="AB153" s="13">
+        <v>5122164</v>
       </c>
       <c r="AC153" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD153" s="13">
-        <v>5122164</v>
+      <c r="AD153" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE153" s="13" t="s">
         <v>58</v>

--- a/database/industries/siman/sekhash/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4342" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="106">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -62,46 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">مقدار تولید</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1397/11</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2064,6 +2024,46 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1402/01</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">مقدار تولید داخلی</t>
   </si>
   <si>
@@ -3539,71 +3539,71 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>19535</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>19535</v>
+        <v>18979</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>18979</v>
+        <v>17145</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>17145</v>
+        <v>13691</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>13691</v>
+        <v>16231</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>16231</v>
+        <v>24105</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>24105</v>
+        <v>26218</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>26218</v>
+        <v>11478</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>11478</v>
+        <v>9140</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>9140</v>
+        <v>9039</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>9039</v>
+        <v>23707</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>23707</v>
+        <v>24395</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>24395</v>
+        <v>15816</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>15816</v>
+        <v>12129</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>12129</v>
+        <v>38521</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>38521</v>
+        <v>38498</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>38498</v>
+        <v>15806</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>15806</v>
+        <v>14499</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>14499</v>
+        <v>16353</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>16353</v>
+        <v>24464</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>24464</v>
-      </c>
-      <c r="AP11" s="13" t="n">
         <v>28957</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>58</v>
@@ -3761,44 +3761,44 @@
       <c r="AO12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP12" s="16" t="s">
-        <v>58</v>
+      <c r="AP12" s="16" t="n">
+        <v>11847</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>11847</v>
+        <v>20700</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>20700</v>
+        <v>6451</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>6451</v>
+        <v>31884</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>31884</v>
+        <v>16923</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>16923</v>
+        <v>20611</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>20611</v>
+        <v>24488</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>24488</v>
+        <v>26781</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>26781</v>
+        <v>22282</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>22282</v>
+        <v>18966</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>18966</v>
+        <v>28279</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>28279</v>
+        <v>28462</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>28462</v>
+        <v>23992</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,71 +3857,71 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>17923</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>17923</v>
+        <v>17539</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>17539</v>
+        <v>28386</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>28386</v>
+        <v>1399</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>1399</v>
+        <v>24737</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>24737</v>
+        <v>27378</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>27378</v>
+        <v>16964</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>16964</v>
+        <v>19955</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>19955</v>
+        <v>12037</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>12037</v>
+        <v>8313</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>8313</v>
+        <v>27188</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>27188</v>
+        <v>29023</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>29023</v>
+        <v>10458</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>10458</v>
+        <v>10772</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>10772</v>
+        <v>24955</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>24955</v>
+        <v>21194</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>21194</v>
+        <v>19465</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>19465</v>
+        <v>17088</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>17088</v>
+        <v>17407</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>17407</v>
+        <v>25648</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>25648</v>
-      </c>
-      <c r="AP13" s="13" t="n">
         <v>30631</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ13" s="13" t="s">
         <v>58</v>
@@ -4079,44 +4079,44 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>9332</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>9332</v>
+        <v>9497</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>9497</v>
+        <v>18598</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>18598</v>
+        <v>10396</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>10396</v>
+        <v>12694</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>12694</v>
+        <v>19651</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>19651</v>
+        <v>21578</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>21578</v>
+        <v>23382</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>23382</v>
+        <v>23945</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>23945</v>
+        <v>19573</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>19573</v>
+        <v>20484</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>20484</v>
+        <v>24327</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>24327</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4238,44 +4238,44 @@
       <c r="AO15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>58</v>
+      <c r="AP15" s="13" t="n">
+        <v>1498</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>1498</v>
+        <v>3329</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>3329</v>
+        <v>3319</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>3319</v>
+        <v>4222</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>4222</v>
+        <v>5323</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>5323</v>
+        <v>6950</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>6950</v>
+        <v>6183</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>6183</v>
+        <v>6838</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>6838</v>
+        <v>8041</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>8041</v>
+        <v>6752</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>6752</v>
+        <v>10658</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>10658</v>
+        <v>9264</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>9264</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,44 +4397,44 @@
       <c r="AO16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>58</v>
+      <c r="AP16" s="16" t="n">
+        <v>24520</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>24520</v>
+        <v>24162</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>24162</v>
+        <v>18481</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>18481</v>
+        <v>14799</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>14799</v>
+        <v>16849</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>16849</v>
+        <v>22215</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>22215</v>
+        <v>21730</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>21730</v>
+        <v>23740</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>23740</v>
+        <v>28089</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>28089</v>
+        <v>25288</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>25288</v>
+        <v>23075</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>23075</v>
+        <v>24214</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>24214</v>
+        <v>17765</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,44 +4556,44 @@
       <c r="AO17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP17" s="13" t="s">
-        <v>58</v>
+      <c r="AP17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY17" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB17" s="13" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ17" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="13" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,71 +4652,71 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>123</v>
       </c>
       <c r="V18" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="W18" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="W18" s="16" t="n">
-        <v>149</v>
-      </c>
       <c r="X18" s="16" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y18" s="16" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="Y18" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z18" s="16" t="n">
-        <v>72</v>
-      </c>
       <c r="AA18" s="16" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE18" s="16" t="n">
         <v>26</v>
       </c>
       <c r="AF18" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AG18" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AH18" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="AI18" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ18" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL18" s="16" t="s">
-        <v>58</v>
+      <c r="AL18" s="16" t="n">
+        <v>24</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AP18" s="16" t="n">
         <v>15</v>
+      </c>
+      <c r="AP18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="16" t="s">
         <v>58</v>
@@ -4811,8 +4811,8 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4838,8 +4838,8 @@
       <c r="AC19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="13" t="n">
-        <v>0</v>
+      <c r="AD19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>58</v>
@@ -4970,71 +4970,71 @@
       <c r="T20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>58</v>
+      <c r="U20" s="16" t="n">
+        <v>7543</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>7543</v>
+        <v>4269</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>4269</v>
+        <v>5990</v>
       </c>
       <c r="X20" s="16" t="n">
-        <v>5990</v>
+        <v>6724</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>6724</v>
+        <v>8213</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>8213</v>
+        <v>8370</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>8370</v>
+        <v>6817</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>6817</v>
+        <v>8584</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>8584</v>
+        <v>9415</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>9415</v>
+        <v>6261</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>6261</v>
+        <v>7077</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>7077</v>
+        <v>8483</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>8483</v>
+        <v>5481</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>5481</v>
+        <v>3523</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>3523</v>
+        <v>1518</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>1518</v>
+        <v>3580</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>3580</v>
+        <v>9750</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>9750</v>
+        <v>7779</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>7779</v>
+        <v>7653</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>7653</v>
+        <v>6443</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>6443</v>
-      </c>
-      <c r="AP20" s="16" t="n">
         <v>8403</v>
+      </c>
+      <c r="AP20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>58</v>
@@ -5129,71 +5129,71 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13" t="n">
+        <v>53753</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>53753</v>
+        <v>37771</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>37771</v>
+        <v>35177</v>
       </c>
       <c r="X21" s="13" t="n">
-        <v>35177</v>
+        <v>28467</v>
       </c>
       <c r="Y21" s="13" t="n">
-        <v>28467</v>
+        <v>34535</v>
       </c>
       <c r="Z21" s="13" t="n">
-        <v>34535</v>
+        <v>39016</v>
       </c>
       <c r="AA21" s="13" t="n">
-        <v>39016</v>
+        <v>21668</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>21668</v>
+        <v>37310</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>37310</v>
+        <v>44600</v>
       </c>
       <c r="AD21" s="13" t="n">
-        <v>44600</v>
+        <v>29585</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>29585</v>
+        <v>26848</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>26848</v>
+        <v>21528</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>21528</v>
+        <v>14890</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>14890</v>
+        <v>7978</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>7978</v>
+        <v>2499</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>2499</v>
+        <v>7025</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>7025</v>
+        <v>23996</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>23996</v>
+        <v>25875</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>25875</v>
+        <v>21044</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>21044</v>
+        <v>19207</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>19207</v>
-      </c>
-      <c r="AP21" s="13" t="n">
         <v>22237</v>
+      </c>
+      <c r="AP21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ21" s="13" t="s">
         <v>58</v>
@@ -5297,17 +5297,17 @@
       <c r="W22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X22" s="16" t="s">
-        <v>58</v>
+      <c r="X22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y22" s="16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z22" s="16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA22" s="16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="16" t="n">
         <v>0</v>
@@ -5315,8 +5315,8 @@
       <c r="AC22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" s="16" t="n">
-        <v>0</v>
+      <c r="AD22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE22" s="16" t="s">
         <v>58</v>
@@ -5327,53 +5327,53 @@
       <c r="AG22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="16" t="s">
-        <v>58</v>
+      <c r="AH22" s="16" t="n">
+        <v>49</v>
       </c>
       <c r="AI22" s="16" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AJ22" s="16" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AK22" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL22" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="AL22" s="16" t="n">
-        <v>46</v>
-      </c>
       <c r="AM22" s="16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AN22" s="16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ22" s="16" t="n">
+        <v>62</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="16" t="n">
         <v>0</v>
@@ -5387,8 +5387,8 @@
       <c r="BA22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB22" s="16" t="n">
-        <v>0</v>
+      <c r="BB22" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,8 +5459,8 @@
       <c r="X23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>58</v>
+      <c r="Y23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z23" s="13" t="n">
         <v>0</v>
@@ -5474,8 +5474,8 @@
       <c r="AC23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="13" t="n">
-        <v>0</v>
+      <c r="AD23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE23" s="13" t="s">
         <v>58</v>
@@ -5606,11 +5606,11 @@
       <c r="T24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>58</v>
+      <c r="U24" s="16" t="n">
+        <v>15</v>
       </c>
       <c r="V24" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W24" s="16" t="n">
         <v>0</v>
@@ -5618,8 +5618,8 @@
       <c r="X24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y24" s="16" t="n">
-        <v>0</v>
+      <c r="Y24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z24" s="16" t="s">
         <v>58</v>
@@ -5774,8 +5774,8 @@
       <c r="W25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X25" s="13" t="s">
-        <v>58</v>
+      <c r="X25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y25" s="13" t="n">
         <v>0</v>
@@ -5792,8 +5792,8 @@
       <c r="AC25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD25" s="13" t="n">
-        <v>0</v>
+      <c r="AD25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE25" s="13" t="s">
         <v>58</v>
@@ -5819,8 +5819,8 @@
       <c r="AL25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM25" s="13" t="s">
-        <v>58</v>
+      <c r="AM25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN25" s="13" t="n">
         <v>0</v>
@@ -5828,8 +5828,8 @@
       <c r="AO25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" s="13" t="n">
-        <v>0</v>
+      <c r="AP25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ25" s="13" t="s">
         <v>58</v>
@@ -5923,106 +5923,106 @@
         <v>0</v>
       </c>
       <c r="U26" s="18" t="n">
-        <v>0</v>
+        <v>98892</v>
       </c>
       <c r="V26" s="18" t="n">
-        <v>98892</v>
+        <v>78707</v>
       </c>
       <c r="W26" s="18" t="n">
-        <v>78707</v>
+        <v>86821</v>
       </c>
       <c r="X26" s="18" t="n">
-        <v>86821</v>
+        <v>50482</v>
       </c>
       <c r="Y26" s="18" t="n">
-        <v>50482</v>
+        <v>83808</v>
       </c>
       <c r="Z26" s="18" t="n">
-        <v>83808</v>
+        <v>99015</v>
       </c>
       <c r="AA26" s="18" t="n">
-        <v>99015</v>
+        <v>71765</v>
       </c>
       <c r="AB26" s="18" t="n">
-        <v>71765</v>
+        <v>77354</v>
       </c>
       <c r="AC26" s="18" t="n">
-        <v>77354</v>
+        <v>75192</v>
       </c>
       <c r="AD26" s="18" t="n">
-        <v>75192</v>
+        <v>53224</v>
       </c>
       <c r="AE26" s="18" t="n">
-        <v>53224</v>
+        <v>84846</v>
       </c>
       <c r="AF26" s="18" t="n">
-        <v>84846</v>
+        <v>83526</v>
       </c>
       <c r="AG26" s="18" t="n">
-        <v>83526</v>
+        <v>46645</v>
       </c>
       <c r="AH26" s="18" t="n">
-        <v>46645</v>
+        <v>34477</v>
       </c>
       <c r="AI26" s="18" t="n">
-        <v>34477</v>
+        <v>67546</v>
       </c>
       <c r="AJ26" s="18" t="n">
-        <v>67546</v>
+        <v>70347</v>
       </c>
       <c r="AK26" s="18" t="n">
-        <v>70347</v>
+        <v>69063</v>
       </c>
       <c r="AL26" s="18" t="n">
-        <v>69063</v>
+        <v>65315</v>
       </c>
       <c r="AM26" s="18" t="n">
-        <v>65315</v>
+        <v>62581</v>
       </c>
       <c r="AN26" s="18" t="n">
-        <v>62581</v>
+        <v>75835</v>
       </c>
       <c r="AO26" s="18" t="n">
-        <v>75835</v>
+        <v>90243</v>
       </c>
       <c r="AP26" s="18" t="n">
-        <v>90243</v>
+        <v>47197</v>
       </c>
       <c r="AQ26" s="18" t="n">
-        <v>47197</v>
+        <v>57800</v>
       </c>
       <c r="AR26" s="18" t="n">
-        <v>57800</v>
+        <v>46914</v>
       </c>
       <c r="AS26" s="18" t="n">
-        <v>46914</v>
+        <v>61327</v>
       </c>
       <c r="AT26" s="18" t="n">
-        <v>61327</v>
+        <v>51789</v>
       </c>
       <c r="AU26" s="18" t="n">
-        <v>51789</v>
+        <v>69501</v>
       </c>
       <c r="AV26" s="18" t="n">
-        <v>69501</v>
+        <v>74123</v>
       </c>
       <c r="AW26" s="18" t="n">
-        <v>74123</v>
+        <v>80741</v>
       </c>
       <c r="AX26" s="18" t="n">
-        <v>80741</v>
+        <v>82381</v>
       </c>
       <c r="AY26" s="18" t="n">
-        <v>82381</v>
+        <v>70604</v>
       </c>
       <c r="AZ26" s="18" t="n">
-        <v>70604</v>
+        <v>82496</v>
       </c>
       <c r="BA26" s="18" t="n">
-        <v>82496</v>
+        <v>86293</v>
       </c>
       <c r="BB26" s="18" t="n">
-        <v>86293</v>
+        <v>64920</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,8 +6138,8 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V28" s="13" t="n">
         <v>0</v>
@@ -6165,8 +6165,8 @@
       <c r="AC28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" s="13" t="n">
-        <v>0</v>
+      <c r="AD28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE28" s="13" t="s">
         <v>58</v>
@@ -6360,8 +6360,8 @@
       <c r="AO29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP29" s="16" t="s">
-        <v>58</v>
+      <c r="AP29" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ29" s="16" t="n">
         <v>0</v>
@@ -6396,8 +6396,8 @@
       <c r="BA29" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB29" s="16" t="n">
-        <v>0</v>
+      <c r="BB29" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6456,8 +6456,8 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V30" s="13" t="n">
         <v>0</v>
@@ -6468,8 +6468,8 @@
       <c r="X30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y30" s="13" t="n">
-        <v>0</v>
+      <c r="Y30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Z30" s="13" t="s">
         <v>58</v>
@@ -6615,53 +6615,53 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>3893</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>3893</v>
+        <v>5758</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>5758</v>
+        <v>3461</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>3461</v>
+        <v>4543</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>4543</v>
+        <v>1071</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>1071</v>
+        <v>119</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>215</v>
+        <v>979</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>979</v>
+        <v>492</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>455</v>
-      </c>
-      <c r="AF31" s="16" t="n">
         <v>203</v>
       </c>
+      <c r="AF31" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG31" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AH31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ31" s="16" t="n">
-        <v>0</v>
+      <c r="AI31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK31" s="16" t="s">
         <v>58</v>
@@ -6837,8 +6837,8 @@
       <c r="AO32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
+      <c r="AP32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ32" s="13" t="n">
         <v>0</v>
@@ -6853,28 +6853,28 @@
         <v>0</v>
       </c>
       <c r="AU32" s="13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV32" s="13" t="n">
-        <v>99</v>
+        <v>766</v>
       </c>
       <c r="AW32" s="13" t="n">
-        <v>766</v>
+        <v>1192</v>
       </c>
       <c r="AX32" s="13" t="n">
-        <v>1192</v>
+        <v>2151</v>
       </c>
       <c r="AY32" s="13" t="n">
-        <v>2151</v>
+        <v>2089</v>
       </c>
       <c r="AZ32" s="13" t="n">
-        <v>2089</v>
+        <v>2321</v>
       </c>
       <c r="BA32" s="13" t="n">
-        <v>2321</v>
+        <v>1405</v>
       </c>
       <c r="BB32" s="13" t="n">
-        <v>1405</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,39 +6933,39 @@
       <c r="T33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>58</v>
+      <c r="U33" s="16" t="n">
+        <v>77</v>
       </c>
       <c r="V33" s="16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>580</v>
+        <v>1709</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>1709</v>
+        <v>193</v>
       </c>
       <c r="Z33" s="16" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>162</v>
+        <v>1231</v>
       </c>
       <c r="AD33" s="16" t="n">
-        <v>1231</v>
-      </c>
-      <c r="AE33" s="16" t="n">
         <v>22</v>
       </c>
+      <c r="AE33" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF33" s="16" t="s">
         <v>58</v>
       </c>
@@ -6975,11 +6975,11 @@
       <c r="AH33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="16" t="n">
-        <v>0</v>
+      <c r="AI33" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK33" s="16" t="s">
         <v>58</v>
@@ -7095,14 +7095,14 @@
       <c r="U34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V34" s="13" t="s">
-        <v>58</v>
+      <c r="V34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="X34" s="13" t="n">
-        <v>0</v>
+      <c r="X34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y34" s="13" t="s">
         <v>58</v>
@@ -7257,11 +7257,11 @@
       <c r="V35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="16" t="n">
+      <c r="W35" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Y35" s="16" t="s">
         <v>58</v>
@@ -7410,14 +7410,14 @@
       <c r="T36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>58</v>
+      <c r="U36" s="13" t="n">
+        <v>8991</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>8991</v>
+        <v>2461</v>
       </c>
       <c r="W36" s="13" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="X36" s="13" t="n">
         <v>0</v>
@@ -7435,14 +7435,14 @@
         <v>0</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AE36" s="13" t="n">
         <v>1744</v>
       </c>
+      <c r="AE36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF36" s="13" t="s">
         <v>58</v>
       </c>
@@ -7452,11 +7452,11 @@
       <c r="AH36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ36" s="13" t="n">
-        <v>0</v>
+      <c r="AI36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK36" s="13" t="s">
         <v>58</v>
@@ -7569,14 +7569,14 @@
       <c r="T37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>58</v>
+      <c r="U37" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="X37" s="16" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>0</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="16" t="n">
         <v>0</v>
@@ -7596,8 +7596,8 @@
       <c r="AC37" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="16" t="n">
-        <v>0</v>
+      <c r="AD37" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE37" s="16" t="s">
         <v>58</v>
@@ -7611,11 +7611,11 @@
       <c r="AH37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ37" s="16" t="n">
-        <v>0</v>
+      <c r="AI37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="16" t="s">
         <v>58</v>
@@ -7734,8 +7734,8 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X38" s="13" t="n">
         <v>0</v>
@@ -7755,8 +7755,8 @@
       <c r="AC38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="13" t="n">
-        <v>0</v>
+      <c r="AD38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE38" s="13" t="s">
         <v>58</v>
@@ -7950,8 +7950,8 @@
       <c r="AO39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP39" s="16" t="s">
-        <v>58</v>
+      <c r="AP39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ39" s="16" t="n">
         <v>0</v>
@@ -7986,8 +7986,8 @@
       <c r="BA39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB39" s="16" t="n">
-        <v>0</v>
+      <c r="BB39" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,40 +8045,40 @@
         <v>0</v>
       </c>
       <c r="U40" s="20" t="n">
-        <v>0</v>
+        <v>12961</v>
       </c>
       <c r="V40" s="20" t="n">
-        <v>12961</v>
+        <v>51469</v>
       </c>
       <c r="W40" s="20" t="n">
-        <v>51469</v>
+        <v>4044</v>
       </c>
       <c r="X40" s="20" t="n">
-        <v>4044</v>
+        <v>6252</v>
       </c>
       <c r="Y40" s="20" t="n">
-        <v>6252</v>
+        <v>1264</v>
       </c>
       <c r="Z40" s="20" t="n">
-        <v>1264</v>
+        <v>53580</v>
       </c>
       <c r="AA40" s="20" t="n">
-        <v>53580</v>
+        <v>241</v>
       </c>
       <c r="AB40" s="20" t="n">
-        <v>241</v>
+        <v>1141</v>
       </c>
       <c r="AC40" s="20" t="n">
-        <v>1141</v>
+        <v>1958</v>
       </c>
       <c r="AD40" s="20" t="n">
-        <v>1958</v>
+        <v>2221</v>
       </c>
       <c r="AE40" s="20" t="n">
-        <v>2221</v>
+        <v>203</v>
       </c>
       <c r="AF40" s="20" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="20" t="n">
         <v>0</v>
@@ -8123,28 +8123,28 @@
         <v>0</v>
       </c>
       <c r="AU40" s="20" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV40" s="20" t="n">
-        <v>99</v>
+        <v>766</v>
       </c>
       <c r="AW40" s="20" t="n">
-        <v>766</v>
+        <v>1192</v>
       </c>
       <c r="AX40" s="20" t="n">
-        <v>1192</v>
+        <v>2151</v>
       </c>
       <c r="AY40" s="20" t="n">
-        <v>2151</v>
+        <v>2089</v>
       </c>
       <c r="AZ40" s="20" t="n">
-        <v>2089</v>
+        <v>2321</v>
       </c>
       <c r="BA40" s="20" t="n">
-        <v>2321</v>
+        <v>1405</v>
       </c>
       <c r="BB40" s="20" t="n">
-        <v>1405</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,8 +8258,8 @@
       <c r="T42" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="20" t="s">
-        <v>58</v>
+      <c r="U42" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="20" t="n">
         <v>0</v>
@@ -8416,106 +8416,106 @@
         <v>0</v>
       </c>
       <c r="U43" s="18" t="n">
-        <v>0</v>
+        <v>111853</v>
       </c>
       <c r="V43" s="18" t="n">
-        <v>111853</v>
+        <v>130176</v>
       </c>
       <c r="W43" s="18" t="n">
-        <v>130176</v>
+        <v>90865</v>
       </c>
       <c r="X43" s="18" t="n">
-        <v>90865</v>
+        <v>56734</v>
       </c>
       <c r="Y43" s="18" t="n">
-        <v>56734</v>
+        <v>85072</v>
       </c>
       <c r="Z43" s="18" t="n">
-        <v>85072</v>
+        <v>152595</v>
       </c>
       <c r="AA43" s="18" t="n">
-        <v>152595</v>
+        <v>72006</v>
       </c>
       <c r="AB43" s="18" t="n">
-        <v>72006</v>
+        <v>78495</v>
       </c>
       <c r="AC43" s="18" t="n">
-        <v>78495</v>
+        <v>77150</v>
       </c>
       <c r="AD43" s="18" t="n">
-        <v>77150</v>
+        <v>55445</v>
       </c>
       <c r="AE43" s="18" t="n">
-        <v>55445</v>
+        <v>85049</v>
       </c>
       <c r="AF43" s="18" t="n">
-        <v>85049</v>
+        <v>83526</v>
       </c>
       <c r="AG43" s="18" t="n">
-        <v>83526</v>
+        <v>46645</v>
       </c>
       <c r="AH43" s="18" t="n">
-        <v>46645</v>
+        <v>34477</v>
       </c>
       <c r="AI43" s="18" t="n">
-        <v>34477</v>
+        <v>67546</v>
       </c>
       <c r="AJ43" s="18" t="n">
-        <v>67546</v>
+        <v>70347</v>
       </c>
       <c r="AK43" s="18" t="n">
-        <v>70347</v>
+        <v>69063</v>
       </c>
       <c r="AL43" s="18" t="n">
-        <v>69063</v>
+        <v>65315</v>
       </c>
       <c r="AM43" s="18" t="n">
-        <v>65315</v>
+        <v>62581</v>
       </c>
       <c r="AN43" s="18" t="n">
-        <v>62581</v>
+        <v>75835</v>
       </c>
       <c r="AO43" s="18" t="n">
-        <v>75835</v>
+        <v>90243</v>
       </c>
       <c r="AP43" s="18" t="n">
-        <v>90243</v>
+        <v>47197</v>
       </c>
       <c r="AQ43" s="18" t="n">
-        <v>47197</v>
+        <v>57800</v>
       </c>
       <c r="AR43" s="18" t="n">
-        <v>57800</v>
+        <v>46914</v>
       </c>
       <c r="AS43" s="18" t="n">
-        <v>46914</v>
+        <v>61327</v>
       </c>
       <c r="AT43" s="18" t="n">
-        <v>61327</v>
+        <v>51789</v>
       </c>
       <c r="AU43" s="18" t="n">
-        <v>51789</v>
+        <v>69600</v>
       </c>
       <c r="AV43" s="18" t="n">
-        <v>69600</v>
+        <v>74889</v>
       </c>
       <c r="AW43" s="18" t="n">
-        <v>74889</v>
+        <v>81933</v>
       </c>
       <c r="AX43" s="18" t="n">
-        <v>81933</v>
+        <v>84532</v>
       </c>
       <c r="AY43" s="18" t="n">
-        <v>84532</v>
+        <v>72693</v>
       </c>
       <c r="AZ43" s="18" t="n">
-        <v>72693</v>
+        <v>84817</v>
       </c>
       <c r="BA43" s="18" t="n">
-        <v>84817</v>
+        <v>87698</v>
       </c>
       <c r="BB43" s="18" t="n">
-        <v>87698</v>
+        <v>67559</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,71 +9008,71 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>19535</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>19535</v>
+        <v>18979</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>18979</v>
+        <v>17145</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>17145</v>
+        <v>13691</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>13691</v>
+        <v>16231</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>16231</v>
+        <v>24105</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>24105</v>
+        <v>26218</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>26218</v>
+        <v>11478</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>11478</v>
+        <v>8780</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>8780</v>
+        <v>9039</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>9039</v>
+        <v>23707</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>23707</v>
+        <v>24395</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>24395</v>
+        <v>15815</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>15815</v>
+        <v>12129</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>12129</v>
+        <v>38521</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>38521</v>
+        <v>38498</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>38498</v>
+        <v>15806</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>15806</v>
+        <v>14499</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>14499</v>
+        <v>16353</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>16353</v>
+        <v>24464</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>24464</v>
-      </c>
-      <c r="AP50" s="13" t="n">
         <v>28957</v>
+      </c>
+      <c r="AP50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ50" s="13" t="s">
         <v>58</v>
@@ -9230,44 +9230,44 @@
       <c r="AO51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="16" t="s">
-        <v>58</v>
+      <c r="AP51" s="16" t="n">
+        <v>15758</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>15758</v>
+        <v>23164</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>23164</v>
+        <v>24707</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>24707</v>
+        <v>16672</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>16672</v>
+        <v>16817</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>16817</v>
+        <v>19763</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>19763</v>
+        <v>21653</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>21653</v>
+        <v>23087</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>23087</v>
+        <v>24548</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>24548</v>
+        <v>25525</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>25525</v>
+        <v>23855</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>23855</v>
+        <v>22544</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>22544</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9326,71 +9326,71 @@
       <c r="T52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="13" t="s">
-        <v>58</v>
+      <c r="U52" s="13" t="n">
+        <v>17923</v>
       </c>
       <c r="V52" s="13" t="n">
-        <v>17923</v>
+        <v>18133</v>
       </c>
       <c r="W52" s="13" t="n">
-        <v>18133</v>
+        <v>18070</v>
       </c>
       <c r="X52" s="13" t="n">
-        <v>18070</v>
+        <v>18479</v>
       </c>
       <c r="Y52" s="13" t="n">
-        <v>18479</v>
+        <v>19530</v>
       </c>
       <c r="Z52" s="13" t="n">
-        <v>19530</v>
+        <v>22184</v>
       </c>
       <c r="AA52" s="13" t="n">
-        <v>22184</v>
+        <v>21233</v>
       </c>
       <c r="AB52" s="13" t="n">
-        <v>21233</v>
+        <v>21551</v>
       </c>
       <c r="AC52" s="13" t="n">
-        <v>21551</v>
+        <v>19497</v>
       </c>
       <c r="AD52" s="13" t="n">
-        <v>19497</v>
+        <v>10531</v>
       </c>
       <c r="AE52" s="13" t="n">
-        <v>10531</v>
+        <v>22103</v>
       </c>
       <c r="AF52" s="13" t="n">
-        <v>22103</v>
+        <v>20339</v>
       </c>
       <c r="AG52" s="13" t="n">
-        <v>20339</v>
+        <v>16570</v>
       </c>
       <c r="AH52" s="13" t="n">
-        <v>16570</v>
+        <v>9717</v>
       </c>
       <c r="AI52" s="13" t="n">
-        <v>9717</v>
+        <v>24461</v>
       </c>
       <c r="AJ52" s="13" t="n">
-        <v>24461</v>
+        <v>22357</v>
       </c>
       <c r="AK52" s="13" t="n">
-        <v>22357</v>
+        <v>19272</v>
       </c>
       <c r="AL52" s="13" t="n">
-        <v>19272</v>
+        <v>17672</v>
       </c>
       <c r="AM52" s="13" t="n">
-        <v>17672</v>
+        <v>20400</v>
       </c>
       <c r="AN52" s="13" t="n">
-        <v>20400</v>
+        <v>24352</v>
       </c>
       <c r="AO52" s="13" t="n">
-        <v>24352</v>
-      </c>
-      <c r="AP52" s="13" t="n">
         <v>25683</v>
+      </c>
+      <c r="AP52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ52" s="13" t="s">
         <v>58</v>
@@ -9548,44 +9548,44 @@
       <c r="AO53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="16" t="s">
-        <v>58</v>
+      <c r="AP53" s="16" t="n">
+        <v>9332</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>9332</v>
+        <v>9497</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>9497</v>
+        <v>18598</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>18598</v>
+        <v>10396</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>10396</v>
+        <v>12694</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>12694</v>
+        <v>19651</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>19651</v>
+        <v>21578</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>21578</v>
+        <v>23382</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>23382</v>
+        <v>23945</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>23945</v>
+        <v>19573</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>19573</v>
+        <v>20484</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>20484</v>
+        <v>24327</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>24327</v>
+        <v>18062</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,44 +9707,44 @@
       <c r="AO54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
+      <c r="AP54" s="13" t="n">
+        <v>1498</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>1498</v>
+        <v>3329</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>3329</v>
+        <v>3319</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>3319</v>
+        <v>4222</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>4222</v>
+        <v>5323</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>5323</v>
+        <v>6950</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>6950</v>
+        <v>6183</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>6183</v>
+        <v>6838</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>6838</v>
+        <v>8041</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>8041</v>
+        <v>6752</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>6752</v>
+        <v>10658</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>10658</v>
+        <v>9264</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>9264</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9866,44 +9866,44 @@
       <c r="AO55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="16" t="s">
-        <v>58</v>
+      <c r="AP55" s="16" t="n">
+        <v>24520</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>24520</v>
+        <v>24162</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>24162</v>
+        <v>18481</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>18481</v>
+        <v>14799</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>14799</v>
+        <v>16849</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>16849</v>
+        <v>22215</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>22215</v>
+        <v>21730</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>21730</v>
+        <v>23740</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>23740</v>
+        <v>28089</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>28089</v>
+        <v>25288</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>25288</v>
+        <v>23075</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>23075</v>
+        <v>24214</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>24214</v>
+        <v>17765</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10025,44 +10025,44 @@
       <c r="AO56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP56" s="13" t="s">
-        <v>58</v>
+      <c r="AP56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AY56" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB56" s="13" t="n">
         <v>24</v>
-      </c>
-      <c r="AZ56" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" s="13" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10121,71 +10121,71 @@
       <c r="T57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>58</v>
+      <c r="U57" s="16" t="n">
+        <v>123</v>
       </c>
       <c r="V57" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="W57" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="W57" s="16" t="n">
-        <v>149</v>
-      </c>
       <c r="X57" s="16" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y57" s="16" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z57" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="Y57" s="16" t="n">
-        <v>201</v>
-      </c>
-      <c r="Z57" s="16" t="n">
-        <v>72</v>
-      </c>
       <c r="AA57" s="16" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AB57" s="16" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="AC57" s="16" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE57" s="16" t="n">
         <v>26</v>
       </c>
       <c r="AF57" s="16" t="n">
+        <v>97</v>
+      </c>
+      <c r="AG57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH57" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AG57" s="16" t="n">
-        <v>97</v>
-      </c>
-      <c r="AH57" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="AI57" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ57" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL57" s="16" t="s">
-        <v>58</v>
+      <c r="AL57" s="16" t="n">
+        <v>24</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>49</v>
-      </c>
-      <c r="AP57" s="16" t="n">
         <v>15</v>
+      </c>
+      <c r="AP57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ57" s="16" t="s">
         <v>58</v>
@@ -10280,8 +10280,8 @@
       <c r="T58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="13" t="s">
-        <v>58</v>
+      <c r="U58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V58" s="13" t="n">
         <v>0</v>
@@ -10307,8 +10307,8 @@
       <c r="AC58" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD58" s="13" t="n">
-        <v>0</v>
+      <c r="AD58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE58" s="13" t="s">
         <v>58</v>
@@ -10439,71 +10439,71 @@
       <c r="T59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="16" t="s">
-        <v>58</v>
+      <c r="U59" s="16" t="n">
+        <v>7543</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>7543</v>
+        <v>4269</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>4269</v>
+        <v>5990</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>5990</v>
+        <v>6724</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>6724</v>
+        <v>8213</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>8213</v>
+        <v>8370</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>8370</v>
+        <v>6817</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>6817</v>
+        <v>8584</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>8584</v>
+        <v>9415</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>9415</v>
+        <v>6261</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>6261</v>
+        <v>7077</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>7077</v>
+        <v>8483</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>8483</v>
+        <v>5481</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>5481</v>
+        <v>3523</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>3523</v>
+        <v>1518</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>1518</v>
+        <v>3580</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>3580</v>
+        <v>9750</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>9750</v>
+        <v>7779</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>7779</v>
+        <v>7653</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>7653</v>
+        <v>6443</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>6443</v>
-      </c>
-      <c r="AP59" s="16" t="n">
         <v>8403</v>
+      </c>
+      <c r="AP59" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ59" s="16" t="s">
         <v>58</v>
@@ -10598,71 +10598,71 @@
       <c r="T60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>58</v>
+      <c r="U60" s="13" t="n">
+        <v>53753</v>
       </c>
       <c r="V60" s="13" t="n">
-        <v>53753</v>
+        <v>37771</v>
       </c>
       <c r="W60" s="13" t="n">
-        <v>37771</v>
+        <v>35177</v>
       </c>
       <c r="X60" s="13" t="n">
-        <v>35177</v>
+        <v>28467</v>
       </c>
       <c r="Y60" s="13" t="n">
-        <v>28467</v>
+        <v>34535</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>34535</v>
+        <v>39016</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>39016</v>
+        <v>21668</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>21668</v>
+        <v>37310</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>37310</v>
+        <v>44600</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>44600</v>
+        <v>29585</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>29585</v>
+        <v>26848</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>26848</v>
+        <v>21528</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>21528</v>
+        <v>14890</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>14890</v>
+        <v>7978</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>7978</v>
+        <v>2499</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>2499</v>
+        <v>7025</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>7025</v>
+        <v>23996</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>23996</v>
+        <v>25875</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>25875</v>
+        <v>21044</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>21044</v>
+        <v>19207</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>19207</v>
-      </c>
-      <c r="AP60" s="13" t="n">
         <v>22237</v>
+      </c>
+      <c r="AP60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ60" s="13" t="s">
         <v>58</v>
@@ -10766,17 +10766,17 @@
       <c r="W61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X61" s="16" t="s">
-        <v>58</v>
+      <c r="X61" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA61" s="16" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="16" t="n">
         <v>0</v>
@@ -10784,8 +10784,8 @@
       <c r="AC61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" s="16" t="n">
-        <v>0</v>
+      <c r="AD61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE61" s="16" t="s">
         <v>58</v>
@@ -10796,53 +10796,53 @@
       <c r="AG61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="16" t="s">
-        <v>58</v>
+      <c r="AH61" s="16" t="n">
+        <v>49</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AK61" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL61" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="AL61" s="16" t="n">
-        <v>46</v>
-      </c>
       <c r="AM61" s="16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP61" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AP61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ61" s="16" t="n">
+        <v>62</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="16" t="n">
         <v>0</v>
@@ -10856,8 +10856,8 @@
       <c r="BA61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB61" s="16" t="n">
-        <v>0</v>
+      <c r="BB61" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10928,8 +10928,8 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z62" s="13" t="n">
         <v>0</v>
@@ -10943,8 +10943,8 @@
       <c r="AC62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD62" s="13" t="n">
-        <v>0</v>
+      <c r="AD62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE62" s="13" t="s">
         <v>58</v>
@@ -11075,11 +11075,11 @@
       <c r="T63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>58</v>
+      <c r="U63" s="16" t="n">
+        <v>15</v>
       </c>
       <c r="V63" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W63" s="16" t="n">
         <v>0</v>
@@ -11087,8 +11087,8 @@
       <c r="X63" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y63" s="16" t="n">
-        <v>0</v>
+      <c r="Y63" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z63" s="16" t="s">
         <v>58</v>
@@ -11243,8 +11243,8 @@
       <c r="W64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="X64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y64" s="13" t="n">
         <v>0</v>
@@ -11261,8 +11261,8 @@
       <c r="AC64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD64" s="13" t="n">
-        <v>0</v>
+      <c r="AD64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE64" s="13" t="s">
         <v>58</v>
@@ -11288,8 +11288,8 @@
       <c r="AL64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM64" s="13" t="s">
-        <v>58</v>
+      <c r="AM64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN64" s="13" t="n">
         <v>0</v>
@@ -11297,8 +11297,8 @@
       <c r="AO64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP64" s="13" t="n">
-        <v>0</v>
+      <c r="AP64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ64" s="13" t="s">
         <v>58</v>
@@ -11392,106 +11392,106 @@
         <v>0</v>
       </c>
       <c r="U65" s="18" t="n">
-        <v>0</v>
+        <v>98892</v>
       </c>
       <c r="V65" s="18" t="n">
-        <v>98892</v>
+        <v>79301</v>
       </c>
       <c r="W65" s="18" t="n">
-        <v>79301</v>
+        <v>76505</v>
       </c>
       <c r="X65" s="18" t="n">
-        <v>76505</v>
+        <v>67562</v>
       </c>
       <c r="Y65" s="18" t="n">
-        <v>67562</v>
+        <v>78601</v>
       </c>
       <c r="Z65" s="18" t="n">
-        <v>78601</v>
+        <v>93821</v>
       </c>
       <c r="AA65" s="18" t="n">
-        <v>93821</v>
+        <v>76034</v>
       </c>
       <c r="AB65" s="18" t="n">
-        <v>76034</v>
+        <v>78950</v>
       </c>
       <c r="AC65" s="18" t="n">
-        <v>78950</v>
+        <v>82292</v>
       </c>
       <c r="AD65" s="18" t="n">
-        <v>82292</v>
+        <v>55442</v>
       </c>
       <c r="AE65" s="18" t="n">
-        <v>55442</v>
+        <v>79761</v>
       </c>
       <c r="AF65" s="18" t="n">
-        <v>79761</v>
+        <v>74842</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>74842</v>
+        <v>52756</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>52756</v>
+        <v>33422</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>33422</v>
+        <v>67052</v>
       </c>
       <c r="AJ65" s="18" t="n">
-        <v>67052</v>
+        <v>71510</v>
       </c>
       <c r="AK65" s="18" t="n">
-        <v>71510</v>
+        <v>68870</v>
       </c>
       <c r="AL65" s="18" t="n">
-        <v>68870</v>
+        <v>65899</v>
       </c>
       <c r="AM65" s="18" t="n">
-        <v>65899</v>
+        <v>65574</v>
       </c>
       <c r="AN65" s="18" t="n">
-        <v>65574</v>
+        <v>74539</v>
       </c>
       <c r="AO65" s="18" t="n">
-        <v>74539</v>
+        <v>85295</v>
       </c>
       <c r="AP65" s="18" t="n">
-        <v>85295</v>
+        <v>51108</v>
       </c>
       <c r="AQ65" s="18" t="n">
-        <v>51108</v>
+        <v>60264</v>
       </c>
       <c r="AR65" s="18" t="n">
-        <v>60264</v>
+        <v>65170</v>
       </c>
       <c r="AS65" s="18" t="n">
-        <v>65170</v>
+        <v>46115</v>
       </c>
       <c r="AT65" s="18" t="n">
-        <v>46115</v>
+        <v>51683</v>
       </c>
       <c r="AU65" s="18" t="n">
-        <v>51683</v>
+        <v>68653</v>
       </c>
       <c r="AV65" s="18" t="n">
-        <v>68653</v>
+        <v>71288</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>71288</v>
+        <v>77047</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>77047</v>
+        <v>84647</v>
       </c>
       <c r="AY65" s="18" t="n">
-        <v>84647</v>
+        <v>77163</v>
       </c>
       <c r="AZ65" s="18" t="n">
-        <v>77163</v>
+        <v>78072</v>
       </c>
       <c r="BA65" s="18" t="n">
-        <v>78072</v>
+        <v>80375</v>
       </c>
       <c r="BB65" s="18" t="n">
-        <v>80375</v>
+        <v>50114</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11607,8 +11607,8 @@
       <c r="T67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="13" t="s">
-        <v>58</v>
+      <c r="U67" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="13" t="n">
         <v>0</v>
@@ -11634,8 +11634,8 @@
       <c r="AC67" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD67" s="13" t="n">
-        <v>0</v>
+      <c r="AD67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE67" s="13" t="s">
         <v>58</v>
@@ -11829,8 +11829,8 @@
       <c r="AO68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP68" s="16" t="s">
-        <v>58</v>
+      <c r="AP68" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ68" s="16" t="n">
         <v>0</v>
@@ -11865,8 +11865,8 @@
       <c r="BA68" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB68" s="16" t="n">
-        <v>0</v>
+      <c r="BB68" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11925,8 +11925,8 @@
       <c r="T69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>58</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -11937,8 +11937,8 @@
       <c r="X69" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y69" s="13" t="n">
-        <v>0</v>
+      <c r="Y69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Z69" s="13" t="s">
         <v>58</v>
@@ -12084,53 +12084,53 @@
       <c r="T70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U70" s="16" t="s">
-        <v>58</v>
+      <c r="U70" s="16" t="n">
+        <v>3893</v>
       </c>
       <c r="V70" s="16" t="n">
-        <v>3893</v>
+        <v>5758</v>
       </c>
       <c r="W70" s="16" t="n">
-        <v>5758</v>
+        <v>3461</v>
       </c>
       <c r="X70" s="16" t="n">
-        <v>3461</v>
+        <v>4543</v>
       </c>
       <c r="Y70" s="16" t="n">
-        <v>4543</v>
+        <v>1071</v>
       </c>
       <c r="Z70" s="16" t="n">
-        <v>1071</v>
+        <v>119</v>
       </c>
       <c r="AA70" s="16" t="n">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="AB70" s="16" t="n">
-        <v>215</v>
+        <v>979</v>
       </c>
       <c r="AC70" s="16" t="n">
-        <v>979</v>
+        <v>492</v>
       </c>
       <c r="AD70" s="16" t="n">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="AE70" s="16" t="n">
-        <v>455</v>
-      </c>
-      <c r="AF70" s="16" t="n">
         <v>203</v>
       </c>
+      <c r="AF70" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG70" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AH70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI70" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ70" s="16" t="n">
-        <v>0</v>
+      <c r="AI70" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK70" s="16" t="s">
         <v>58</v>
@@ -12306,8 +12306,8 @@
       <c r="AO71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="13" t="s">
-        <v>58</v>
+      <c r="AP71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ71" s="13" t="n">
         <v>0</v>
@@ -12322,28 +12322,28 @@
         <v>0</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>99</v>
+        <v>766</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>766</v>
+        <v>1192</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>1192</v>
+        <v>2151</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>2151</v>
+        <v>2089</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>2089</v>
+        <v>2321</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>2321</v>
+        <v>1405</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>1405</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12402,39 +12402,39 @@
       <c r="T72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>58</v>
+      <c r="U72" s="16" t="n">
+        <v>77</v>
       </c>
       <c r="V72" s="16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="W72" s="16" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="X72" s="16" t="n">
-        <v>580</v>
+        <v>1709</v>
       </c>
       <c r="Y72" s="16" t="n">
-        <v>1709</v>
+        <v>193</v>
       </c>
       <c r="Z72" s="16" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB72" s="16" t="n">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="AC72" s="16" t="n">
-        <v>162</v>
+        <v>1231</v>
       </c>
       <c r="AD72" s="16" t="n">
-        <v>1231</v>
-      </c>
-      <c r="AE72" s="16" t="n">
         <v>22</v>
       </c>
+      <c r="AE72" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF72" s="16" t="s">
         <v>58</v>
       </c>
@@ -12444,11 +12444,11 @@
       <c r="AH72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ72" s="16" t="n">
-        <v>0</v>
+      <c r="AI72" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK72" s="16" t="s">
         <v>58</v>
@@ -12564,14 +12564,14 @@
       <c r="U73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V73" s="13" t="s">
-        <v>58</v>
+      <c r="V73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="X73" s="13" t="n">
-        <v>0</v>
+      <c r="X73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y73" s="13" t="s">
         <v>58</v>
@@ -12726,11 +12726,11 @@
       <c r="V74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="16" t="n">
+      <c r="W74" s="16" t="n">
         <v>3</v>
+      </c>
+      <c r="X74" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Y74" s="16" t="s">
         <v>58</v>
@@ -12879,14 +12879,14 @@
       <c r="T75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
+      <c r="U75" s="13" t="n">
+        <v>8992</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>8992</v>
+        <v>2461</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>2461</v>
+        <v>0</v>
       </c>
       <c r="X75" s="13" t="n">
         <v>0</v>
@@ -12904,14 +12904,14 @@
         <v>0</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>235</v>
-      </c>
-      <c r="AE75" s="13" t="n">
         <v>1744</v>
       </c>
+      <c r="AE75" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF75" s="13" t="s">
         <v>58</v>
       </c>
@@ -12921,11 +12921,11 @@
       <c r="AH75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ75" s="13" t="n">
-        <v>0</v>
+      <c r="AI75" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK75" s="13" t="s">
         <v>58</v>
@@ -13038,14 +13038,14 @@
       <c r="T76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U76" s="16" t="s">
-        <v>58</v>
+      <c r="U76" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V76" s="16" t="n">
-        <v>0</v>
+        <v>43250</v>
       </c>
       <c r="W76" s="16" t="n">
-        <v>43250</v>
+        <v>0</v>
       </c>
       <c r="X76" s="16" t="n">
         <v>0</v>
@@ -13054,10 +13054,10 @@
         <v>0</v>
       </c>
       <c r="Z76" s="16" t="n">
-        <v>0</v>
+        <v>53461</v>
       </c>
       <c r="AA76" s="16" t="n">
-        <v>53461</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="16" t="n">
         <v>0</v>
@@ -13065,8 +13065,8 @@
       <c r="AC76" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD76" s="16" t="n">
-        <v>0</v>
+      <c r="AD76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE76" s="16" t="s">
         <v>58</v>
@@ -13080,11 +13080,11 @@
       <c r="AH76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ76" s="16" t="n">
-        <v>0</v>
+      <c r="AI76" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK76" s="16" t="s">
         <v>58</v>
@@ -13203,8 +13203,8 @@
       <c r="V77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="13" t="s">
-        <v>58</v>
+      <c r="W77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X77" s="13" t="n">
         <v>0</v>
@@ -13224,8 +13224,8 @@
       <c r="AC77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD77" s="13" t="n">
-        <v>0</v>
+      <c r="AD77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE77" s="13" t="s">
         <v>58</v>
@@ -13419,8 +13419,8 @@
       <c r="AO78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP78" s="16" t="s">
-        <v>58</v>
+      <c r="AP78" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ78" s="16" t="n">
         <v>0</v>
@@ -13455,8 +13455,8 @@
       <c r="BA78" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB78" s="16" t="n">
-        <v>0</v>
+      <c r="BB78" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13514,40 +13514,40 @@
         <v>0</v>
       </c>
       <c r="U79" s="20" t="n">
-        <v>0</v>
+        <v>12962</v>
       </c>
       <c r="V79" s="20" t="n">
-        <v>12962</v>
+        <v>51469</v>
       </c>
       <c r="W79" s="20" t="n">
-        <v>51469</v>
+        <v>4044</v>
       </c>
       <c r="X79" s="20" t="n">
-        <v>4044</v>
+        <v>6252</v>
       </c>
       <c r="Y79" s="20" t="n">
-        <v>6252</v>
+        <v>1264</v>
       </c>
       <c r="Z79" s="20" t="n">
-        <v>1264</v>
+        <v>53580</v>
       </c>
       <c r="AA79" s="20" t="n">
-        <v>53580</v>
+        <v>241</v>
       </c>
       <c r="AB79" s="20" t="n">
-        <v>241</v>
+        <v>1141</v>
       </c>
       <c r="AC79" s="20" t="n">
-        <v>1141</v>
+        <v>1958</v>
       </c>
       <c r="AD79" s="20" t="n">
-        <v>1958</v>
+        <v>2221</v>
       </c>
       <c r="AE79" s="20" t="n">
-        <v>2221</v>
+        <v>203</v>
       </c>
       <c r="AF79" s="20" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="20" t="n">
         <v>0</v>
@@ -13592,28 +13592,28 @@
         <v>0</v>
       </c>
       <c r="AU79" s="20" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV79" s="20" t="n">
-        <v>99</v>
+        <v>766</v>
       </c>
       <c r="AW79" s="20" t="n">
-        <v>766</v>
+        <v>1192</v>
       </c>
       <c r="AX79" s="20" t="n">
-        <v>1192</v>
+        <v>2151</v>
       </c>
       <c r="AY79" s="20" t="n">
-        <v>2151</v>
+        <v>2089</v>
       </c>
       <c r="AZ79" s="20" t="n">
-        <v>2089</v>
+        <v>2321</v>
       </c>
       <c r="BA79" s="20" t="n">
-        <v>2321</v>
+        <v>1405</v>
       </c>
       <c r="BB79" s="20" t="n">
-        <v>1405</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13727,8 +13727,8 @@
       <c r="T81" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="20" t="s">
-        <v>58</v>
+      <c r="U81" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V81" s="20" t="n">
         <v>0</v>
@@ -13941,8 +13941,8 @@
       <c r="T83" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="20" t="s">
-        <v>58</v>
+      <c r="U83" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V83" s="20" t="n">
         <v>0</v>
@@ -14099,106 +14099,106 @@
         <v>0</v>
       </c>
       <c r="U84" s="18" t="n">
-        <v>0</v>
+        <v>111854</v>
       </c>
       <c r="V84" s="18" t="n">
-        <v>111854</v>
+        <v>130770</v>
       </c>
       <c r="W84" s="18" t="n">
-        <v>130770</v>
+        <v>80549</v>
       </c>
       <c r="X84" s="18" t="n">
-        <v>80549</v>
+        <v>73814</v>
       </c>
       <c r="Y84" s="18" t="n">
-        <v>73814</v>
+        <v>79865</v>
       </c>
       <c r="Z84" s="18" t="n">
-        <v>79865</v>
+        <v>147401</v>
       </c>
       <c r="AA84" s="18" t="n">
-        <v>147401</v>
+        <v>76275</v>
       </c>
       <c r="AB84" s="18" t="n">
-        <v>76275</v>
+        <v>80091</v>
       </c>
       <c r="AC84" s="18" t="n">
-        <v>80091</v>
+        <v>84250</v>
       </c>
       <c r="AD84" s="18" t="n">
-        <v>84250</v>
+        <v>57663</v>
       </c>
       <c r="AE84" s="18" t="n">
-        <v>57663</v>
+        <v>79964</v>
       </c>
       <c r="AF84" s="18" t="n">
-        <v>79964</v>
+        <v>74842</v>
       </c>
       <c r="AG84" s="18" t="n">
-        <v>74842</v>
+        <v>52756</v>
       </c>
       <c r="AH84" s="18" t="n">
-        <v>52756</v>
+        <v>33422</v>
       </c>
       <c r="AI84" s="18" t="n">
-        <v>33422</v>
+        <v>67052</v>
       </c>
       <c r="AJ84" s="18" t="n">
-        <v>67052</v>
+        <v>71510</v>
       </c>
       <c r="AK84" s="18" t="n">
-        <v>71510</v>
+        <v>68870</v>
       </c>
       <c r="AL84" s="18" t="n">
-        <v>68870</v>
+        <v>65899</v>
       </c>
       <c r="AM84" s="18" t="n">
-        <v>65899</v>
+        <v>65574</v>
       </c>
       <c r="AN84" s="18" t="n">
-        <v>65574</v>
+        <v>74539</v>
       </c>
       <c r="AO84" s="18" t="n">
-        <v>74539</v>
+        <v>85295</v>
       </c>
       <c r="AP84" s="18" t="n">
-        <v>85295</v>
+        <v>51108</v>
       </c>
       <c r="AQ84" s="18" t="n">
-        <v>51108</v>
+        <v>60264</v>
       </c>
       <c r="AR84" s="18" t="n">
-        <v>60264</v>
+        <v>65170</v>
       </c>
       <c r="AS84" s="18" t="n">
-        <v>65170</v>
+        <v>46115</v>
       </c>
       <c r="AT84" s="18" t="n">
-        <v>46115</v>
+        <v>51683</v>
       </c>
       <c r="AU84" s="18" t="n">
-        <v>51683</v>
+        <v>68752</v>
       </c>
       <c r="AV84" s="18" t="n">
-        <v>68752</v>
+        <v>72054</v>
       </c>
       <c r="AW84" s="18" t="n">
-        <v>72054</v>
+        <v>78239</v>
       </c>
       <c r="AX84" s="18" t="n">
-        <v>78239</v>
+        <v>86798</v>
       </c>
       <c r="AY84" s="18" t="n">
-        <v>86798</v>
+        <v>79252</v>
       </c>
       <c r="AZ84" s="18" t="n">
-        <v>79252</v>
+        <v>80393</v>
       </c>
       <c r="BA84" s="18" t="n">
-        <v>80393</v>
+        <v>81780</v>
       </c>
       <c r="BB84" s="18" t="n">
-        <v>81780</v>
+        <v>52753</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14691,71 +14691,71 @@
       <c r="T91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="13" t="s">
-        <v>58</v>
+      <c r="U91" s="13" t="n">
+        <v>44262</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>44262</v>
+        <v>48303</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>48303</v>
+        <v>46208</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>46208</v>
+        <v>37502</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>37502</v>
+        <v>47802</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>47802</v>
+        <v>73043</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>73043</v>
+        <v>80037</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>80037</v>
+        <v>35347</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>35347</v>
+        <v>27115</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>27115</v>
+        <v>30393</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>30393</v>
+        <v>101025</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>101025</v>
+        <v>113145</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>113145</v>
+        <v>80017</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>80017</v>
+        <v>73706</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>73706</v>
+        <v>275671</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>275671</v>
+        <v>212098</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>212098</v>
+        <v>97158</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>97158</v>
+        <v>86221</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>86221</v>
+        <v>95182</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>95182</v>
+        <v>148899</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>148899</v>
-      </c>
-      <c r="AP91" s="13" t="n">
         <v>198727</v>
+      </c>
+      <c r="AP91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ91" s="13" t="s">
         <v>58</v>
@@ -14913,44 +14913,44 @@
       <c r="AO92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP92" s="16" t="s">
-        <v>58</v>
+      <c r="AP92" s="16" t="n">
+        <v>90764</v>
       </c>
       <c r="AQ92" s="16" t="n">
-        <v>90764</v>
+        <v>122904</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>122904</v>
+        <v>153748</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>153748</v>
+        <v>131657</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>131657</v>
+        <v>156209</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>156209</v>
+        <v>169504</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>169504</v>
+        <v>161088</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>161088</v>
+        <v>163879</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>163879</v>
+        <v>184494</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>184494</v>
+        <v>182126</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>182126</v>
+        <v>193579</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>193579</v>
+        <v>236127</v>
       </c>
       <c r="BB92" s="16" t="n">
-        <v>236127</v>
+        <v>71996</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15009,71 +15009,71 @@
       <c r="T93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U93" s="13" t="s">
-        <v>58</v>
+      <c r="U93" s="13" t="n">
+        <v>32797</v>
       </c>
       <c r="V93" s="13" t="n">
-        <v>32797</v>
+        <v>38815</v>
       </c>
       <c r="W93" s="13" t="n">
-        <v>38815</v>
+        <v>38830</v>
       </c>
       <c r="X93" s="13" t="n">
-        <v>38830</v>
+        <v>40124</v>
       </c>
       <c r="Y93" s="13" t="n">
-        <v>40124</v>
+        <v>42418</v>
       </c>
       <c r="Z93" s="13" t="n">
-        <v>42418</v>
+        <v>48233</v>
       </c>
       <c r="AA93" s="13" t="n">
-        <v>48233</v>
+        <v>46155</v>
       </c>
       <c r="AB93" s="13" t="n">
-        <v>46155</v>
+        <v>46930</v>
       </c>
       <c r="AC93" s="13" t="n">
-        <v>46930</v>
+        <v>42688</v>
       </c>
       <c r="AD93" s="13" t="n">
-        <v>42688</v>
+        <v>25600</v>
       </c>
       <c r="AE93" s="13" t="n">
-        <v>25600</v>
+        <v>67943</v>
       </c>
       <c r="AF93" s="13" t="n">
-        <v>67943</v>
+        <v>64474</v>
       </c>
       <c r="AG93" s="13" t="n">
-        <v>64474</v>
+        <v>59625</v>
       </c>
       <c r="AH93" s="13" t="n">
-        <v>59625</v>
+        <v>41601</v>
       </c>
       <c r="AI93" s="13" t="n">
-        <v>41601</v>
+        <v>152963</v>
       </c>
       <c r="AJ93" s="13" t="n">
-        <v>152963</v>
+        <v>95400</v>
       </c>
       <c r="AK93" s="13" t="n">
-        <v>95400</v>
+        <v>88759</v>
       </c>
       <c r="AL93" s="13" t="n">
-        <v>88759</v>
+        <v>106136</v>
       </c>
       <c r="AM93" s="13" t="n">
-        <v>106136</v>
+        <v>113337</v>
       </c>
       <c r="AN93" s="13" t="n">
-        <v>113337</v>
+        <v>144360</v>
       </c>
       <c r="AO93" s="13" t="n">
-        <v>144360</v>
-      </c>
-      <c r="AP93" s="13" t="n">
         <v>169020</v>
+      </c>
+      <c r="AP93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ93" s="13" t="s">
         <v>58</v>
@@ -15231,44 +15231,44 @@
       <c r="AO94" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP94" s="16" t="s">
-        <v>58</v>
+      <c r="AP94" s="16" t="n">
+        <v>61503</v>
       </c>
       <c r="AQ94" s="16" t="n">
-        <v>61503</v>
+        <v>60884</v>
       </c>
       <c r="AR94" s="16" t="n">
-        <v>60884</v>
+        <v>131910</v>
       </c>
       <c r="AS94" s="16" t="n">
-        <v>131910</v>
+        <v>79182</v>
       </c>
       <c r="AT94" s="16" t="n">
-        <v>79182</v>
+        <v>91308</v>
       </c>
       <c r="AU94" s="16" t="n">
-        <v>91308</v>
+        <v>134103</v>
       </c>
       <c r="AV94" s="16" t="n">
-        <v>134103</v>
+        <v>146916</v>
       </c>
       <c r="AW94" s="16" t="n">
-        <v>146916</v>
+        <v>157234</v>
       </c>
       <c r="AX94" s="16" t="n">
-        <v>157234</v>
+        <v>161940</v>
       </c>
       <c r="AY94" s="16" t="n">
-        <v>161940</v>
+        <v>130588</v>
       </c>
       <c r="AZ94" s="16" t="n">
-        <v>130588</v>
+        <v>140854</v>
       </c>
       <c r="BA94" s="16" t="n">
-        <v>140854</v>
+        <v>195795</v>
       </c>
       <c r="BB94" s="16" t="n">
-        <v>195795</v>
+        <v>137259</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15390,44 +15390,44 @@
       <c r="AO95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP95" s="13" t="s">
-        <v>58</v>
+      <c r="AP95" s="13" t="n">
+        <v>8690</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>8690</v>
+        <v>18790</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>18790</v>
+        <v>21008</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>21008</v>
+        <v>29533</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>29533</v>
+        <v>36806</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>36806</v>
+        <v>41214</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>41214</v>
+        <v>35383</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>35383</v>
+        <v>37217</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>37217</v>
+        <v>43148</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>43148</v>
+        <v>35954</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>35954</v>
+        <v>55748</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>55748</v>
+        <v>53862</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>53862</v>
+        <v>32587</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15549,44 +15549,44 @@
       <c r="AO96" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP96" s="16" t="s">
-        <v>58</v>
+      <c r="AP96" s="16" t="n">
+        <v>155470</v>
       </c>
       <c r="AQ96" s="16" t="n">
-        <v>155470</v>
+        <v>151423</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>151423</v>
+        <v>140265</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>140265</v>
+        <v>118631</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>118631</v>
+        <v>129991</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>129991</v>
+        <v>165232</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>165232</v>
+        <v>162228</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>162228</v>
+        <v>175865</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>175865</v>
+        <v>202192</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>202192</v>
+        <v>183506</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>183506</v>
+        <v>174384</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>174384</v>
+        <v>212044</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>212044</v>
+        <v>155878</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15708,44 +15708,44 @@
       <c r="AO97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP97" s="13" t="s">
-        <v>58</v>
+      <c r="AP97" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ97" s="13" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AR97" s="13" t="n">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="AS97" s="13" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU97" s="13" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AV97" s="13" t="n">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="AW97" s="13" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AX97" s="13" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AY97" s="13" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AZ97" s="13" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="13" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BB97" s="13" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15804,50 +15804,50 @@
       <c r="T98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U98" s="16" t="s">
-        <v>58</v>
+      <c r="U98" s="16" t="n">
+        <v>135</v>
       </c>
       <c r="V98" s="16" t="n">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="W98" s="16" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="X98" s="16" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="Y98" s="16" t="n">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="Z98" s="16" t="n">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="AA98" s="16" t="n">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="AB98" s="16" t="n">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="AC98" s="16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AD98" s="16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE98" s="16" t="n">
         <v>29</v>
       </c>
       <c r="AF98" s="16" t="n">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="AG98" s="16" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AH98" s="16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI98" s="16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AJ98" s="16" t="n">
         <v>0</v>
@@ -15856,19 +15856,19 @@
         <v>0</v>
       </c>
       <c r="AL98" s="16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="AN98" s="16" t="n">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="AO98" s="16" t="n">
-        <v>189</v>
-      </c>
-      <c r="AP98" s="16" t="n">
         <v>56</v>
+      </c>
+      <c r="AP98" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ98" s="16" t="s">
         <v>58</v>
@@ -15963,8 +15963,8 @@
       <c r="T99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U99" s="13" t="s">
-        <v>58</v>
+      <c r="U99" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V99" s="13" t="n">
         <v>0</v>
@@ -15990,8 +15990,8 @@
       <c r="AC99" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD99" s="13" t="n">
-        <v>0</v>
+      <c r="AD99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE99" s="13" t="s">
         <v>58</v>
@@ -16122,71 +16122,71 @@
       <c r="T100" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U100" s="16" t="s">
-        <v>58</v>
+      <c r="U100" s="16" t="n">
+        <v>14111</v>
       </c>
       <c r="V100" s="16" t="n">
-        <v>14111</v>
+        <v>9065</v>
       </c>
       <c r="W100" s="16" t="n">
-        <v>9065</v>
+        <v>12995</v>
       </c>
       <c r="X100" s="16" t="n">
-        <v>12995</v>
+        <v>14590</v>
       </c>
       <c r="Y100" s="16" t="n">
-        <v>14590</v>
+        <v>17822</v>
       </c>
       <c r="Z100" s="16" t="n">
-        <v>17822</v>
+        <v>18166</v>
       </c>
       <c r="AA100" s="16" t="n">
-        <v>18166</v>
+        <v>14816</v>
       </c>
       <c r="AB100" s="16" t="n">
-        <v>14816</v>
+        <v>18647</v>
       </c>
       <c r="AC100" s="16" t="n">
-        <v>18647</v>
+        <v>20769</v>
       </c>
       <c r="AD100" s="16" t="n">
-        <v>20769</v>
+        <v>14564</v>
       </c>
       <c r="AE100" s="16" t="n">
-        <v>14564</v>
+        <v>21671</v>
       </c>
       <c r="AF100" s="16" t="n">
-        <v>21671</v>
+        <v>26563</v>
       </c>
       <c r="AG100" s="16" t="n">
-        <v>26563</v>
+        <v>20608</v>
       </c>
       <c r="AH100" s="16" t="n">
-        <v>20608</v>
+        <v>13705</v>
       </c>
       <c r="AI100" s="16" t="n">
-        <v>13705</v>
+        <v>7662</v>
       </c>
       <c r="AJ100" s="16" t="n">
-        <v>7662</v>
+        <v>13435</v>
       </c>
       <c r="AK100" s="16" t="n">
-        <v>13435</v>
+        <v>35800</v>
       </c>
       <c r="AL100" s="16" t="n">
-        <v>35800</v>
+        <v>36760</v>
       </c>
       <c r="AM100" s="16" t="n">
-        <v>36760</v>
+        <v>31283</v>
       </c>
       <c r="AN100" s="16" t="n">
-        <v>31283</v>
+        <v>30434</v>
       </c>
       <c r="AO100" s="16" t="n">
-        <v>30434</v>
-      </c>
-      <c r="AP100" s="16" t="n">
         <v>50125</v>
+      </c>
+      <c r="AP100" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ100" s="16" t="s">
         <v>58</v>
@@ -16281,71 +16281,71 @@
       <c r="T101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="13" t="s">
-        <v>58</v>
+      <c r="U101" s="13" t="n">
+        <v>115109</v>
       </c>
       <c r="V101" s="13" t="n">
-        <v>115109</v>
+        <v>93812</v>
       </c>
       <c r="W101" s="13" t="n">
-        <v>93812</v>
+        <v>93600</v>
       </c>
       <c r="X101" s="13" t="n">
-        <v>93600</v>
+        <v>77094</v>
       </c>
       <c r="Y101" s="13" t="n">
-        <v>77094</v>
+        <v>101363</v>
       </c>
       <c r="Z101" s="13" t="n">
-        <v>101363</v>
+        <v>117482</v>
       </c>
       <c r="AA101" s="13" t="n">
-        <v>117482</v>
+        <v>65463</v>
       </c>
       <c r="AB101" s="13" t="n">
-        <v>65463</v>
+        <v>113703</v>
       </c>
       <c r="AC101" s="13" t="n">
-        <v>113703</v>
+        <v>137615</v>
       </c>
       <c r="AD101" s="13" t="n">
-        <v>137615</v>
+        <v>95447</v>
       </c>
       <c r="AE101" s="13" t="n">
-        <v>95447</v>
+        <v>114232</v>
       </c>
       <c r="AF101" s="13" t="n">
-        <v>114232</v>
+        <v>96917</v>
       </c>
       <c r="AG101" s="13" t="n">
-        <v>96917</v>
+        <v>78090</v>
       </c>
       <c r="AH101" s="13" t="n">
-        <v>78090</v>
+        <v>47008</v>
       </c>
       <c r="AI101" s="13" t="n">
-        <v>47008</v>
+        <v>21687</v>
       </c>
       <c r="AJ101" s="13" t="n">
-        <v>21687</v>
+        <v>40440</v>
       </c>
       <c r="AK101" s="13" t="n">
-        <v>40440</v>
+        <v>135286</v>
       </c>
       <c r="AL101" s="13" t="n">
-        <v>135286</v>
+        <v>146009</v>
       </c>
       <c r="AM101" s="13" t="n">
-        <v>146009</v>
+        <v>112144</v>
       </c>
       <c r="AN101" s="13" t="n">
-        <v>112144</v>
+        <v>110990</v>
       </c>
       <c r="AO101" s="13" t="n">
-        <v>110990</v>
-      </c>
-      <c r="AP101" s="13" t="n">
         <v>147220</v>
+      </c>
+      <c r="AP101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ101" s="13" t="s">
         <v>58</v>
@@ -16449,17 +16449,17 @@
       <c r="W102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X102" s="16" t="s">
-        <v>58</v>
+      <c r="X102" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y102" s="16" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="Z102" s="16" t="n">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AA102" s="16" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="16" t="n">
         <v>0</v>
@@ -16467,65 +16467,65 @@
       <c r="AC102" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD102" s="16" t="n">
-        <v>0</v>
+      <c r="AD102" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF102" s="16" t="s">
-        <v>58</v>
+      <c r="AF102" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG102" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH102" s="16" t="n">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="AI102" s="16" t="n">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="AJ102" s="16" t="n">
-        <v>815</v>
+        <v>776</v>
       </c>
       <c r="AK102" s="16" t="n">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="AL102" s="16" t="n">
-        <v>719</v>
+        <v>765</v>
       </c>
       <c r="AM102" s="16" t="n">
-        <v>765</v>
+        <v>460</v>
       </c>
       <c r="AN102" s="16" t="n">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AO102" s="16" t="n">
-        <v>451</v>
-      </c>
-      <c r="AP102" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ102" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AP102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="16" t="n">
+        <v>1379</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>1379</v>
+        <v>1031</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>1031</v>
+        <v>569</v>
       </c>
       <c r="AT102" s="16" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="AV102" s="16" t="n">
-        <v>1215</v>
+        <v>3235</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>3235</v>
+        <v>0</v>
       </c>
       <c r="AX102" s="16" t="n">
         <v>0</v>
@@ -16539,8 +16539,8 @@
       <c r="BA102" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB102" s="16" t="n">
-        <v>0</v>
+      <c r="BB102" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16611,8 +16611,8 @@
       <c r="X103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="13" t="s">
-        <v>58</v>
+      <c r="Y103" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z103" s="13" t="n">
         <v>0</v>
@@ -16626,8 +16626,8 @@
       <c r="AC103" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD103" s="13" t="n">
-        <v>0</v>
+      <c r="AD103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE103" s="13" t="s">
         <v>58</v>
@@ -16758,11 +16758,11 @@
       <c r="T104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U104" s="16" t="s">
-        <v>58</v>
+      <c r="U104" s="16" t="n">
+        <v>144</v>
       </c>
       <c r="V104" s="16" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="W104" s="16" t="n">
         <v>0</v>
@@ -16770,8 +16770,8 @@
       <c r="X104" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Y104" s="16" t="n">
-        <v>0</v>
+      <c r="Y104" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z104" s="16" t="s">
         <v>58</v>
@@ -16926,8 +16926,8 @@
       <c r="W105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X105" s="13" t="s">
-        <v>58</v>
+      <c r="X105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Y105" s="13" t="n">
         <v>0</v>
@@ -16944,8 +16944,8 @@
       <c r="AC105" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD105" s="13" t="n">
-        <v>0</v>
+      <c r="AD105" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE105" s="13" t="s">
         <v>58</v>
@@ -16962,8 +16962,8 @@
       <c r="AI105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ105" s="13" t="s">
-        <v>58</v>
+      <c r="AJ105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AK105" s="13" t="n">
         <v>0</v>
@@ -16980,8 +16980,8 @@
       <c r="AO105" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP105" s="13" t="n">
-        <v>0</v>
+      <c r="AP105" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ105" s="13" t="s">
         <v>58</v>
@@ -17075,106 +17075,106 @@
         <v>0</v>
       </c>
       <c r="U106" s="18" t="n">
-        <v>0</v>
+        <v>206558</v>
       </c>
       <c r="V106" s="18" t="n">
-        <v>206558</v>
+        <v>190159</v>
       </c>
       <c r="W106" s="18" t="n">
-        <v>190159</v>
+        <v>191773</v>
       </c>
       <c r="X106" s="18" t="n">
-        <v>191773</v>
+        <v>169540</v>
       </c>
       <c r="Y106" s="18" t="n">
-        <v>169540</v>
+        <v>209706</v>
       </c>
       <c r="Z106" s="18" t="n">
-        <v>209706</v>
+        <v>257324</v>
       </c>
       <c r="AA106" s="18" t="n">
-        <v>257324</v>
+        <v>206592</v>
       </c>
       <c r="AB106" s="18" t="n">
-        <v>206592</v>
+        <v>214661</v>
       </c>
       <c r="AC106" s="18" t="n">
-        <v>214661</v>
+        <v>228187</v>
       </c>
       <c r="AD106" s="18" t="n">
-        <v>228187</v>
+        <v>166033</v>
       </c>
       <c r="AE106" s="18" t="n">
-        <v>166033</v>
+        <v>304900</v>
       </c>
       <c r="AF106" s="18" t="n">
-        <v>304900</v>
+        <v>301237</v>
       </c>
       <c r="AG106" s="18" t="n">
-        <v>301237</v>
+        <v>238340</v>
       </c>
       <c r="AH106" s="18" t="n">
-        <v>238340</v>
+        <v>176835</v>
       </c>
       <c r="AI106" s="18" t="n">
-        <v>176835</v>
+        <v>458798</v>
       </c>
       <c r="AJ106" s="18" t="n">
-        <v>458798</v>
+        <v>362149</v>
       </c>
       <c r="AK106" s="18" t="n">
-        <v>362149</v>
+        <v>357722</v>
       </c>
       <c r="AL106" s="18" t="n">
-        <v>357722</v>
+        <v>375985</v>
       </c>
       <c r="AM106" s="18" t="n">
-        <v>375985</v>
+        <v>352792</v>
       </c>
       <c r="AN106" s="18" t="n">
-        <v>352792</v>
+        <v>435323</v>
       </c>
       <c r="AO106" s="18" t="n">
-        <v>435323</v>
+        <v>565148</v>
       </c>
       <c r="AP106" s="18" t="n">
-        <v>565148</v>
+        <v>316427</v>
       </c>
       <c r="AQ106" s="18" t="n">
-        <v>316427</v>
+        <v>355575</v>
       </c>
       <c r="AR106" s="18" t="n">
-        <v>355575</v>
+        <v>448032</v>
       </c>
       <c r="AS106" s="18" t="n">
-        <v>448032</v>
+        <v>359572</v>
       </c>
       <c r="AT106" s="18" t="n">
-        <v>359572</v>
+        <v>414314</v>
       </c>
       <c r="AU106" s="18" t="n">
-        <v>414314</v>
+        <v>511452</v>
       </c>
       <c r="AV106" s="18" t="n">
-        <v>511452</v>
+        <v>509129</v>
       </c>
       <c r="AW106" s="18" t="n">
-        <v>509129</v>
+        <v>534195</v>
       </c>
       <c r="AX106" s="18" t="n">
-        <v>534195</v>
+        <v>591868</v>
       </c>
       <c r="AY106" s="18" t="n">
-        <v>591868</v>
+        <v>532269</v>
       </c>
       <c r="AZ106" s="18" t="n">
-        <v>532269</v>
+        <v>564565</v>
       </c>
       <c r="BA106" s="18" t="n">
-        <v>564565</v>
+        <v>697929</v>
       </c>
       <c r="BB106" s="18" t="n">
-        <v>697929</v>
+        <v>397847</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17290,8 +17290,8 @@
       <c r="T108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U108" s="13" t="s">
-        <v>58</v>
+      <c r="U108" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V108" s="13" t="n">
         <v>0</v>
@@ -17317,8 +17317,8 @@
       <c r="AC108" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD108" s="13" t="n">
-        <v>0</v>
+      <c r="AD108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE108" s="13" t="s">
         <v>58</v>
@@ -17512,8 +17512,8 @@
       <c r="AO109" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP109" s="16" t="s">
-        <v>58</v>
+      <c r="AP109" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ109" s="16" t="n">
         <v>0</v>
@@ -17548,8 +17548,8 @@
       <c r="BA109" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB109" s="16" t="n">
-        <v>0</v>
+      <c r="BB109" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17608,8 +17608,8 @@
       <c r="T110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U110" s="13" t="s">
-        <v>58</v>
+      <c r="U110" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V110" s="13" t="n">
         <v>0</v>
@@ -17620,8 +17620,8 @@
       <c r="X110" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y110" s="13" t="n">
-        <v>0</v>
+      <c r="Y110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Z110" s="13" t="s">
         <v>58</v>
@@ -17767,41 +17767,41 @@
       <c r="T111" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U111" s="16" t="s">
-        <v>58</v>
+      <c r="U111" s="16" t="n">
+        <v>8764</v>
       </c>
       <c r="V111" s="16" t="n">
-        <v>8764</v>
+        <v>13450</v>
       </c>
       <c r="W111" s="16" t="n">
-        <v>13450</v>
+        <v>8955</v>
       </c>
       <c r="X111" s="16" t="n">
-        <v>8955</v>
+        <v>18828</v>
       </c>
       <c r="Y111" s="16" t="n">
-        <v>18828</v>
+        <v>4067</v>
       </c>
       <c r="Z111" s="16" t="n">
-        <v>4067</v>
+        <v>461</v>
       </c>
       <c r="AA111" s="16" t="n">
-        <v>461</v>
+        <v>699</v>
       </c>
       <c r="AB111" s="16" t="n">
-        <v>699</v>
+        <v>3521</v>
       </c>
       <c r="AC111" s="16" t="n">
-        <v>3521</v>
+        <v>1604</v>
       </c>
       <c r="AD111" s="16" t="n">
-        <v>1604</v>
+        <v>1743</v>
       </c>
       <c r="AE111" s="16" t="n">
-        <v>1743</v>
+        <v>823</v>
       </c>
       <c r="AF111" s="16" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AG111" s="16" t="n">
         <v>0</v>
@@ -17830,8 +17830,8 @@
       <c r="AO111" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP111" s="16" t="n">
-        <v>0</v>
+      <c r="AP111" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ111" s="16" t="s">
         <v>58</v>
@@ -17989,8 +17989,8 @@
       <c r="AO112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP112" s="13" t="s">
-        <v>58</v>
+      <c r="AP112" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ112" s="13" t="n">
         <v>0</v>
@@ -18005,28 +18005,28 @@
         <v>0</v>
       </c>
       <c r="AU112" s="13" t="n">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="AV112" s="13" t="n">
-        <v>1224</v>
+        <v>8659</v>
       </c>
       <c r="AW112" s="13" t="n">
-        <v>8659</v>
+        <v>14774</v>
       </c>
       <c r="AX112" s="13" t="n">
-        <v>14774</v>
+        <v>27678</v>
       </c>
       <c r="AY112" s="13" t="n">
-        <v>27678</v>
+        <v>28605</v>
       </c>
       <c r="AZ112" s="13" t="n">
-        <v>28605</v>
+        <v>32059</v>
       </c>
       <c r="BA112" s="13" t="n">
-        <v>32059</v>
+        <v>19839</v>
       </c>
       <c r="BB112" s="13" t="n">
-        <v>19839</v>
+        <v>37455</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18085,38 +18085,38 @@
       <c r="T113" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U113" s="16" t="s">
-        <v>58</v>
+      <c r="U113" s="16" t="n">
+        <v>192</v>
       </c>
       <c r="V113" s="16" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="W113" s="16" t="n">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="X113" s="16" t="n">
-        <v>1696</v>
+        <v>6149</v>
       </c>
       <c r="Y113" s="16" t="n">
-        <v>6149</v>
+        <v>483</v>
       </c>
       <c r="Z113" s="16" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AA113" s="16" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB113" s="16" t="n">
-        <v>64</v>
+        <v>405</v>
       </c>
       <c r="AC113" s="16" t="n">
-        <v>405</v>
+        <v>3078</v>
       </c>
       <c r="AD113" s="16" t="n">
-        <v>3078</v>
+        <v>57</v>
       </c>
       <c r="AE113" s="16" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AF113" s="16" t="n">
         <v>0</v>
@@ -18148,8 +18148,8 @@
       <c r="AO113" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP113" s="16" t="n">
-        <v>0</v>
+      <c r="AP113" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ113" s="16" t="s">
         <v>58</v>
@@ -18247,14 +18247,14 @@
       <c r="U114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V114" s="13" t="s">
-        <v>58</v>
+      <c r="V114" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W114" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="X114" s="13" t="n">
-        <v>0</v>
+      <c r="X114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Y114" s="13" t="s">
         <v>58</v>
@@ -18409,11 +18409,11 @@
       <c r="V115" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W115" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X115" s="16" t="n">
+      <c r="W115" s="16" t="n">
         <v>6</v>
+      </c>
+      <c r="X115" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Y115" s="16" t="s">
         <v>58</v>
@@ -18562,14 +18562,14 @@
       <c r="T116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="13" t="s">
-        <v>58</v>
+      <c r="U116" s="13" t="n">
+        <v>14835</v>
       </c>
       <c r="V116" s="13" t="n">
-        <v>14835</v>
+        <v>4062</v>
       </c>
       <c r="W116" s="13" t="n">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="X116" s="13" t="n">
         <v>0</v>
@@ -18587,13 +18587,13 @@
         <v>0</v>
       </c>
       <c r="AC116" s="13" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="AD116" s="13" t="n">
-        <v>1175</v>
+        <v>8718</v>
       </c>
       <c r="AE116" s="13" t="n">
-        <v>8718</v>
+        <v>0</v>
       </c>
       <c r="AF116" s="13" t="n">
         <v>0</v>
@@ -18625,8 +18625,8 @@
       <c r="AO116" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP116" s="13" t="n">
-        <v>0</v>
+      <c r="AP116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ116" s="13" t="s">
         <v>58</v>
@@ -18721,14 +18721,14 @@
       <c r="T117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U117" s="16" t="s">
-        <v>58</v>
+      <c r="U117" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V117" s="16" t="n">
-        <v>0</v>
+        <v>82264</v>
       </c>
       <c r="W117" s="16" t="n">
-        <v>82264</v>
+        <v>0</v>
       </c>
       <c r="X117" s="16" t="n">
         <v>0</v>
@@ -18737,10 +18737,10 @@
         <v>0</v>
       </c>
       <c r="Z117" s="16" t="n">
-        <v>0</v>
+        <v>273836</v>
       </c>
       <c r="AA117" s="16" t="n">
-        <v>273836</v>
+        <v>0</v>
       </c>
       <c r="AB117" s="16" t="n">
         <v>0</v>
@@ -18748,14 +18748,14 @@
       <c r="AC117" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD117" s="16" t="n">
-        <v>0</v>
+      <c r="AD117" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE117" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF117" s="16" t="s">
-        <v>58</v>
+      <c r="AF117" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG117" s="16" t="n">
         <v>0</v>
@@ -18784,8 +18784,8 @@
       <c r="AO117" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP117" s="16" t="n">
-        <v>0</v>
+      <c r="AP117" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ117" s="16" t="s">
         <v>58</v>
@@ -18886,8 +18886,8 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X118" s="13" t="n">
         <v>0</v>
@@ -18907,8 +18907,8 @@
       <c r="AC118" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD118" s="13" t="n">
-        <v>0</v>
+      <c r="AD118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE118" s="13" t="s">
         <v>58</v>
@@ -19102,8 +19102,8 @@
       <c r="AO119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP119" s="16" t="s">
-        <v>58</v>
+      <c r="AP119" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ119" s="16" t="n">
         <v>0</v>
@@ -19138,8 +19138,8 @@
       <c r="BA119" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB119" s="16" t="n">
-        <v>0</v>
+      <c r="BB119" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19197,40 +19197,40 @@
         <v>0</v>
       </c>
       <c r="U120" s="20" t="n">
-        <v>0</v>
+        <v>23791</v>
       </c>
       <c r="V120" s="20" t="n">
-        <v>23791</v>
+        <v>99776</v>
       </c>
       <c r="W120" s="20" t="n">
-        <v>99776</v>
+        <v>10657</v>
       </c>
       <c r="X120" s="20" t="n">
-        <v>10657</v>
+        <v>24977</v>
       </c>
       <c r="Y120" s="20" t="n">
-        <v>24977</v>
+        <v>4550</v>
       </c>
       <c r="Z120" s="20" t="n">
-        <v>4550</v>
+        <v>274297</v>
       </c>
       <c r="AA120" s="20" t="n">
-        <v>274297</v>
+        <v>763</v>
       </c>
       <c r="AB120" s="20" t="n">
-        <v>763</v>
+        <v>3926</v>
       </c>
       <c r="AC120" s="20" t="n">
-        <v>3926</v>
+        <v>5857</v>
       </c>
       <c r="AD120" s="20" t="n">
-        <v>5857</v>
+        <v>10518</v>
       </c>
       <c r="AE120" s="20" t="n">
-        <v>10518</v>
+        <v>823</v>
       </c>
       <c r="AF120" s="20" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="AG120" s="20" t="n">
         <v>0</v>
@@ -19275,28 +19275,28 @@
         <v>0</v>
       </c>
       <c r="AU120" s="20" t="n">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="AV120" s="20" t="n">
-        <v>1224</v>
+        <v>8659</v>
       </c>
       <c r="AW120" s="20" t="n">
-        <v>8659</v>
+        <v>14774</v>
       </c>
       <c r="AX120" s="20" t="n">
-        <v>14774</v>
+        <v>27678</v>
       </c>
       <c r="AY120" s="20" t="n">
-        <v>27678</v>
+        <v>28605</v>
       </c>
       <c r="AZ120" s="20" t="n">
-        <v>28605</v>
+        <v>32059</v>
       </c>
       <c r="BA120" s="20" t="n">
-        <v>32059</v>
+        <v>19839</v>
       </c>
       <c r="BB120" s="20" t="n">
-        <v>19839</v>
+        <v>37455</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19412,8 +19412,8 @@
       <c r="T122" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U122" s="20" t="s">
-        <v>58</v>
+      <c r="U122" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V122" s="23" t="n">
         <v>0</v>
@@ -19628,8 +19628,8 @@
       <c r="T124" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U124" s="20" t="s">
-        <v>58</v>
+      <c r="U124" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V124" s="23" t="n">
         <v>0</v>
@@ -19844,8 +19844,8 @@
       <c r="T126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U126" s="13" t="s">
-        <v>58</v>
+      <c r="U126" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V126" s="13" t="n">
         <v>0</v>
@@ -20002,106 +20002,106 @@
         <v>0</v>
       </c>
       <c r="U127" s="18" t="n">
-        <v>0</v>
+        <v>230349</v>
       </c>
       <c r="V127" s="18" t="n">
-        <v>230349</v>
+        <v>289935</v>
       </c>
       <c r="W127" s="18" t="n">
-        <v>289935</v>
+        <v>202430</v>
       </c>
       <c r="X127" s="18" t="n">
-        <v>202430</v>
+        <v>194517</v>
       </c>
       <c r="Y127" s="18" t="n">
-        <v>194517</v>
+        <v>214256</v>
       </c>
       <c r="Z127" s="18" t="n">
-        <v>214256</v>
+        <v>531621</v>
       </c>
       <c r="AA127" s="18" t="n">
-        <v>531621</v>
+        <v>207355</v>
       </c>
       <c r="AB127" s="18" t="n">
-        <v>207355</v>
+        <v>218587</v>
       </c>
       <c r="AC127" s="18" t="n">
-        <v>218587</v>
+        <v>234044</v>
       </c>
       <c r="AD127" s="18" t="n">
-        <v>234044</v>
+        <v>176551</v>
       </c>
       <c r="AE127" s="18" t="n">
-        <v>176551</v>
+        <v>305723</v>
       </c>
       <c r="AF127" s="18" t="n">
-        <v>305723</v>
+        <v>301237</v>
       </c>
       <c r="AG127" s="18" t="n">
-        <v>301237</v>
+        <v>238340</v>
       </c>
       <c r="AH127" s="18" t="n">
-        <v>238340</v>
+        <v>176835</v>
       </c>
       <c r="AI127" s="18" t="n">
-        <v>176835</v>
+        <v>458798</v>
       </c>
       <c r="AJ127" s="18" t="n">
-        <v>458798</v>
+        <v>362149</v>
       </c>
       <c r="AK127" s="18" t="n">
-        <v>362149</v>
+        <v>357722</v>
       </c>
       <c r="AL127" s="18" t="n">
-        <v>357722</v>
+        <v>375985</v>
       </c>
       <c r="AM127" s="18" t="n">
-        <v>375985</v>
+        <v>352792</v>
       </c>
       <c r="AN127" s="18" t="n">
-        <v>352792</v>
+        <v>435323</v>
       </c>
       <c r="AO127" s="18" t="n">
-        <v>435323</v>
+        <v>565148</v>
       </c>
       <c r="AP127" s="18" t="n">
-        <v>565148</v>
+        <v>316427</v>
       </c>
       <c r="AQ127" s="18" t="n">
-        <v>316427</v>
+        <v>355575</v>
       </c>
       <c r="AR127" s="18" t="n">
-        <v>355575</v>
+        <v>448032</v>
       </c>
       <c r="AS127" s="18" t="n">
-        <v>448032</v>
+        <v>359572</v>
       </c>
       <c r="AT127" s="18" t="n">
-        <v>359572</v>
+        <v>414314</v>
       </c>
       <c r="AU127" s="18" t="n">
-        <v>414314</v>
+        <v>512676</v>
       </c>
       <c r="AV127" s="18" t="n">
-        <v>512676</v>
+        <v>517788</v>
       </c>
       <c r="AW127" s="18" t="n">
-        <v>517788</v>
+        <v>548969</v>
       </c>
       <c r="AX127" s="18" t="n">
-        <v>548969</v>
+        <v>619546</v>
       </c>
       <c r="AY127" s="18" t="n">
-        <v>619546</v>
+        <v>560874</v>
       </c>
       <c r="AZ127" s="18" t="n">
-        <v>560874</v>
+        <v>596624</v>
       </c>
       <c r="BA127" s="18" t="n">
-        <v>596624</v>
+        <v>717768</v>
       </c>
       <c r="BB127" s="18" t="n">
-        <v>717768</v>
+        <v>435302</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20594,71 +20594,71 @@
       <c r="T134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U134" s="13" t="s">
-        <v>58</v>
+      <c r="U134" s="13" t="n">
+        <v>2265779</v>
       </c>
       <c r="V134" s="13" t="n">
-        <v>2265779</v>
+        <v>2545076</v>
       </c>
       <c r="W134" s="13" t="n">
-        <v>2545076</v>
+        <v>2695130</v>
       </c>
       <c r="X134" s="13" t="n">
-        <v>2695130</v>
+        <v>2739172</v>
       </c>
       <c r="Y134" s="13" t="n">
-        <v>2739172</v>
+        <v>2945105</v>
       </c>
       <c r="Z134" s="13" t="n">
-        <v>2945105</v>
+        <v>3030201</v>
       </c>
       <c r="AA134" s="13" t="n">
-        <v>3030201</v>
+        <v>3052750</v>
       </c>
       <c r="AB134" s="13" t="n">
-        <v>3052750</v>
+        <v>3079543</v>
       </c>
       <c r="AC134" s="13" t="n">
-        <v>3079543</v>
+        <v>3088269</v>
       </c>
       <c r="AD134" s="13" t="n">
-        <v>3088269</v>
+        <v>3362429</v>
       </c>
       <c r="AE134" s="13" t="n">
-        <v>3362429</v>
+        <v>4261400</v>
       </c>
       <c r="AF134" s="13" t="n">
-        <v>4261400</v>
+        <v>4638041</v>
       </c>
       <c r="AG134" s="13" t="n">
-        <v>4638041</v>
+        <v>5059564</v>
       </c>
       <c r="AH134" s="13" t="n">
-        <v>5059564</v>
+        <v>6076841</v>
       </c>
       <c r="AI134" s="13" t="n">
-        <v>6076841</v>
+        <v>7156382</v>
       </c>
       <c r="AJ134" s="13" t="n">
-        <v>7156382</v>
+        <v>5509325</v>
       </c>
       <c r="AK134" s="13" t="n">
-        <v>5509325</v>
+        <v>6146906</v>
       </c>
       <c r="AL134" s="13" t="n">
-        <v>6146906</v>
+        <v>5946686</v>
       </c>
       <c r="AM134" s="13" t="n">
-        <v>5946686</v>
+        <v>5820461</v>
       </c>
       <c r="AN134" s="13" t="n">
-        <v>5820461</v>
+        <v>6086454</v>
       </c>
       <c r="AO134" s="13" t="n">
-        <v>6086454</v>
-      </c>
-      <c r="AP134" s="13" t="n">
         <v>6862831</v>
+      </c>
+      <c r="AP134" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ134" s="13" t="s">
         <v>58</v>
@@ -20816,44 +20816,44 @@
       <c r="AO135" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP135" s="16" t="s">
-        <v>58</v>
+      <c r="AP135" s="16" t="n">
+        <v>5759868</v>
       </c>
       <c r="AQ135" s="16" t="n">
-        <v>5759868</v>
+        <v>5305819</v>
       </c>
       <c r="AR135" s="16" t="n">
-        <v>5305819</v>
+        <v>6222852</v>
       </c>
       <c r="AS135" s="16" t="n">
-        <v>6222852</v>
+        <v>7896893</v>
       </c>
       <c r="AT135" s="16" t="n">
-        <v>7896893</v>
+        <v>9288755</v>
       </c>
       <c r="AU135" s="16" t="n">
-        <v>9288755</v>
+        <v>8576836</v>
       </c>
       <c r="AV135" s="16" t="n">
-        <v>8576836</v>
+        <v>7439523</v>
       </c>
       <c r="AW135" s="16" t="n">
-        <v>7439523</v>
+        <v>7098324</v>
       </c>
       <c r="AX135" s="16" t="n">
-        <v>7098324</v>
+        <v>7515643</v>
       </c>
       <c r="AY135" s="16" t="n">
-        <v>7515643</v>
+        <v>7135201</v>
       </c>
       <c r="AZ135" s="16" t="n">
-        <v>7135201</v>
+        <v>8114819</v>
       </c>
       <c r="BA135" s="16" t="n">
-        <v>8114819</v>
+        <v>10474051</v>
       </c>
       <c r="BB135" s="16" t="n">
-        <v>10474051</v>
+        <v>7837579</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20912,71 +20912,71 @@
       <c r="T136" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U136" s="13" t="s">
-        <v>58</v>
+      <c r="U136" s="13" t="n">
+        <v>1829883</v>
       </c>
       <c r="V136" s="13" t="n">
-        <v>1829883</v>
+        <v>2140572</v>
       </c>
       <c r="W136" s="13" t="n">
-        <v>2140572</v>
+        <v>2148866</v>
       </c>
       <c r="X136" s="13" t="n">
-        <v>2148866</v>
+        <v>2171330</v>
       </c>
       <c r="Y136" s="13" t="n">
-        <v>2171330</v>
+        <v>2171941</v>
       </c>
       <c r="Z136" s="13" t="n">
-        <v>2171941</v>
+        <v>2174225</v>
       </c>
       <c r="AA136" s="13" t="n">
-        <v>2174225</v>
+        <v>2173739</v>
       </c>
       <c r="AB136" s="13" t="n">
-        <v>2173739</v>
+        <v>2177625</v>
       </c>
       <c r="AC136" s="13" t="n">
-        <v>2177625</v>
+        <v>2189465</v>
       </c>
       <c r="AD136" s="13" t="n">
-        <v>2189465</v>
+        <v>2430918</v>
       </c>
       <c r="AE136" s="13" t="n">
-        <v>2430918</v>
+        <v>3073927</v>
       </c>
       <c r="AF136" s="13" t="n">
-        <v>3073927</v>
+        <v>3169969</v>
       </c>
       <c r="AG136" s="13" t="n">
-        <v>3169969</v>
+        <v>3598371</v>
       </c>
       <c r="AH136" s="13" t="n">
-        <v>3598371</v>
+        <v>4281260</v>
       </c>
       <c r="AI136" s="13" t="n">
-        <v>4281260</v>
+        <v>6253342</v>
       </c>
       <c r="AJ136" s="13" t="n">
-        <v>6253342</v>
+        <v>4267120</v>
       </c>
       <c r="AK136" s="13" t="n">
-        <v>4267120</v>
+        <v>4605594</v>
       </c>
       <c r="AL136" s="13" t="n">
-        <v>4605594</v>
+        <v>6005885</v>
       </c>
       <c r="AM136" s="13" t="n">
-        <v>6005885</v>
+        <v>5555735</v>
       </c>
       <c r="AN136" s="13" t="n">
-        <v>5555735</v>
+        <v>5928055</v>
       </c>
       <c r="AO136" s="13" t="n">
-        <v>5928055</v>
-      </c>
-      <c r="AP136" s="13" t="n">
         <v>6581007</v>
+      </c>
+      <c r="AP136" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ136" s="13" t="s">
         <v>58</v>
@@ -21134,44 +21134,44 @@
       <c r="AO137" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP137" s="16" t="s">
-        <v>58</v>
+      <c r="AP137" s="16" t="n">
+        <v>6590549</v>
       </c>
       <c r="AQ137" s="16" t="n">
-        <v>6590549</v>
+        <v>6410867</v>
       </c>
       <c r="AR137" s="16" t="n">
-        <v>6410867</v>
+        <v>7092698</v>
       </c>
       <c r="AS137" s="16" t="n">
-        <v>7092698</v>
+        <v>7616583</v>
       </c>
       <c r="AT137" s="16" t="n">
-        <v>7616583</v>
+        <v>7193005</v>
       </c>
       <c r="AU137" s="16" t="n">
-        <v>7193005</v>
+        <v>6824233</v>
       </c>
       <c r="AV137" s="16" t="n">
-        <v>6824233</v>
+        <v>6808601</v>
       </c>
       <c r="AW137" s="16" t="n">
-        <v>6808601</v>
+        <v>6724574</v>
       </c>
       <c r="AX137" s="16" t="n">
-        <v>6724574</v>
+        <v>6762999</v>
       </c>
       <c r="AY137" s="16" t="n">
-        <v>6762999</v>
+        <v>6671844</v>
       </c>
       <c r="AZ137" s="16" t="n">
-        <v>6671844</v>
+        <v>6876294</v>
       </c>
       <c r="BA137" s="16" t="n">
-        <v>6876294</v>
+        <v>8048465</v>
       </c>
       <c r="BB137" s="16" t="n">
-        <v>8048465</v>
+        <v>7599325</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21293,44 +21293,44 @@
       <c r="AO138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP138" s="13" t="s">
-        <v>58</v>
+      <c r="AP138" s="13" t="n">
+        <v>5801068</v>
       </c>
       <c r="AQ138" s="13" t="n">
-        <v>5801068</v>
+        <v>5644338</v>
       </c>
       <c r="AR138" s="13" t="n">
-        <v>5644338</v>
+        <v>6329617</v>
       </c>
       <c r="AS138" s="13" t="n">
-        <v>6329617</v>
+        <v>6995026</v>
       </c>
       <c r="AT138" s="13" t="n">
-        <v>6995026</v>
+        <v>6914522</v>
       </c>
       <c r="AU138" s="13" t="n">
-        <v>6914522</v>
+        <v>5930072</v>
       </c>
       <c r="AV138" s="13" t="n">
-        <v>5930072</v>
+        <v>5722627</v>
       </c>
       <c r="AW138" s="13" t="n">
-        <v>5722627</v>
+        <v>5442673</v>
       </c>
       <c r="AX138" s="13" t="n">
-        <v>5442673</v>
+        <v>5365999</v>
       </c>
       <c r="AY138" s="13" t="n">
-        <v>5365999</v>
+        <v>5324941</v>
       </c>
       <c r="AZ138" s="13" t="n">
-        <v>5324941</v>
+        <v>5230625</v>
       </c>
       <c r="BA138" s="13" t="n">
-        <v>5230625</v>
+        <v>5814119</v>
       </c>
       <c r="BB138" s="13" t="n">
-        <v>5814119</v>
+        <v>6418554</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21452,44 +21452,44 @@
       <c r="AO139" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP139" s="16" t="s">
-        <v>58</v>
+      <c r="AP139" s="16" t="n">
+        <v>6340538</v>
       </c>
       <c r="AQ139" s="16" t="n">
-        <v>6340538</v>
+        <v>6266989</v>
       </c>
       <c r="AR139" s="16" t="n">
-        <v>6266989</v>
+        <v>7589687</v>
       </c>
       <c r="AS139" s="16" t="n">
-        <v>7589687</v>
+        <v>8016150</v>
       </c>
       <c r="AT139" s="16" t="n">
-        <v>8016150</v>
+        <v>7715057</v>
       </c>
       <c r="AU139" s="16" t="n">
-        <v>7715057</v>
+        <v>7437857</v>
       </c>
       <c r="AV139" s="16" t="n">
-        <v>7437857</v>
+        <v>7465624</v>
       </c>
       <c r="AW139" s="16" t="n">
-        <v>7465624</v>
+        <v>7407961</v>
       </c>
       <c r="AX139" s="16" t="n">
-        <v>7407961</v>
+        <v>7198263</v>
       </c>
       <c r="AY139" s="16" t="n">
-        <v>7198263</v>
+        <v>7256643</v>
       </c>
       <c r="AZ139" s="16" t="n">
-        <v>7256643</v>
+        <v>7557270</v>
       </c>
       <c r="BA139" s="16" t="n">
-        <v>7557270</v>
+        <v>8757083</v>
       </c>
       <c r="BB139" s="16" t="n">
-        <v>8757083</v>
+        <v>8774444</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21614,41 +21614,41 @@
       <c r="AP140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ140" s="13" t="s">
-        <v>58</v>
+      <c r="AQ140" s="13" t="n">
+        <v>3900000</v>
       </c>
       <c r="AR140" s="13" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="AS140" s="13" t="n">
         <v>3888889</v>
       </c>
+      <c r="AS140" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU140" s="13" t="s">
-        <v>58</v>
+      <c r="AU140" s="13" t="n">
+        <v>3914894</v>
       </c>
       <c r="AV140" s="13" t="n">
-        <v>3914894</v>
-      </c>
-      <c r="AW140" s="13" t="n">
         <v>3875000</v>
       </c>
-      <c r="AX140" s="13" t="s">
-        <v>58</v>
+      <c r="AW140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX140" s="13" t="n">
+        <v>3916667</v>
       </c>
       <c r="AY140" s="13" t="n">
-        <v>3916667</v>
-      </c>
-      <c r="AZ140" s="13" t="n">
         <v>3800000</v>
       </c>
-      <c r="BA140" s="13" t="s">
-        <v>58</v>
+      <c r="AZ140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA140" s="13" t="n">
+        <v>3884615</v>
       </c>
       <c r="BB140" s="13" t="n">
-        <v>3884615</v>
+        <v>5291667</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21707,71 +21707,71 @@
       <c r="T141" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U141" s="16" t="s">
-        <v>58</v>
+      <c r="U141" s="16" t="n">
+        <v>1097561</v>
       </c>
       <c r="V141" s="16" t="n">
-        <v>1097561</v>
+        <v>1100671</v>
       </c>
       <c r="W141" s="16" t="n">
-        <v>1100671</v>
+        <v>1138211</v>
       </c>
       <c r="X141" s="16" t="n">
-        <v>1138211</v>
+        <v>1144279</v>
       </c>
       <c r="Y141" s="16" t="n">
-        <v>1144279</v>
+        <v>1150000</v>
       </c>
       <c r="Z141" s="16" t="n">
-        <v>1150000</v>
+        <v>1243902</v>
       </c>
       <c r="AA141" s="16" t="n">
-        <v>1243902</v>
+        <v>1234694</v>
       </c>
       <c r="AB141" s="16" t="n">
-        <v>1234694</v>
-      </c>
-      <c r="AC141" s="16" t="n">
         <v>1259259</v>
       </c>
-      <c r="AD141" s="16" t="s">
-        <v>58</v>
+      <c r="AC141" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD141" s="16" t="n">
+        <v>1115385</v>
       </c>
       <c r="AE141" s="16" t="n">
         <v>1115385</v>
       </c>
       <c r="AF141" s="16" t="n">
-        <v>1115385</v>
-      </c>
-      <c r="AG141" s="16" t="n">
         <v>1422680</v>
       </c>
-      <c r="AH141" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI141" s="16" t="n">
+      <c r="AG141" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH141" s="16" t="n">
         <v>1769231</v>
       </c>
+      <c r="AI141" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ141" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AK141" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL141" s="16" t="s">
-        <v>58</v>
+      <c r="AL141" s="16" t="n">
+        <v>3916667</v>
       </c>
       <c r="AM141" s="16" t="n">
-        <v>3916667</v>
+        <v>3898990</v>
       </c>
       <c r="AN141" s="16" t="n">
-        <v>3898990</v>
+        <v>3857143</v>
       </c>
       <c r="AO141" s="16" t="n">
-        <v>3857143</v>
-      </c>
-      <c r="AP141" s="16" t="n">
         <v>3733333</v>
+      </c>
+      <c r="AP141" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ141" s="16" t="s">
         <v>58</v>
@@ -21866,71 +21866,71 @@
       <c r="T142" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U142" s="13" t="s">
-        <v>58</v>
+      <c r="U142" s="13" t="n">
+        <v>1870741</v>
       </c>
       <c r="V142" s="13" t="n">
-        <v>1870741</v>
+        <v>2123448</v>
       </c>
       <c r="W142" s="13" t="n">
-        <v>2123448</v>
+        <v>2169449</v>
       </c>
       <c r="X142" s="13" t="n">
-        <v>2169449</v>
+        <v>2169839</v>
       </c>
       <c r="Y142" s="13" t="n">
-        <v>2169839</v>
+        <v>2169974</v>
       </c>
       <c r="Z142" s="13" t="n">
-        <v>2169974</v>
+        <v>2170370</v>
       </c>
       <c r="AA142" s="13" t="n">
-        <v>2170370</v>
+        <v>2173390</v>
       </c>
       <c r="AB142" s="13" t="n">
-        <v>2173390</v>
+        <v>2172297</v>
       </c>
       <c r="AC142" s="13" t="n">
-        <v>2172297</v>
+        <v>2205948</v>
       </c>
       <c r="AD142" s="13" t="n">
-        <v>2205948</v>
+        <v>2326146</v>
       </c>
       <c r="AE142" s="13" t="n">
-        <v>2326146</v>
+        <v>3062173</v>
       </c>
       <c r="AF142" s="13" t="n">
-        <v>3062173</v>
+        <v>3131321</v>
       </c>
       <c r="AG142" s="13" t="n">
-        <v>3131321</v>
+        <v>3759898</v>
       </c>
       <c r="AH142" s="13" t="n">
-        <v>3759898</v>
+        <v>3890150</v>
       </c>
       <c r="AI142" s="13" t="n">
-        <v>3890150</v>
+        <v>5047431</v>
       </c>
       <c r="AJ142" s="13" t="n">
-        <v>5047431</v>
+        <v>3752793</v>
       </c>
       <c r="AK142" s="13" t="n">
-        <v>3752793</v>
+        <v>3671795</v>
       </c>
       <c r="AL142" s="13" t="n">
-        <v>3671795</v>
+        <v>4725543</v>
       </c>
       <c r="AM142" s="13" t="n">
-        <v>4725543</v>
+        <v>4087678</v>
       </c>
       <c r="AN142" s="13" t="n">
-        <v>4087678</v>
+        <v>4723576</v>
       </c>
       <c r="AO142" s="13" t="n">
-        <v>4723576</v>
-      </c>
-      <c r="AP142" s="13" t="n">
         <v>5965132</v>
+      </c>
+      <c r="AP142" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ142" s="13" t="s">
         <v>58</v>
@@ -22025,71 +22025,71 @@
       <c r="T143" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U143" s="16" t="s">
-        <v>58</v>
+      <c r="U143" s="16" t="n">
+        <v>2141443</v>
       </c>
       <c r="V143" s="16" t="n">
-        <v>2141443</v>
+        <v>2483704</v>
       </c>
       <c r="W143" s="16" t="n">
-        <v>2483704</v>
+        <v>2660830</v>
       </c>
       <c r="X143" s="16" t="n">
-        <v>2660830</v>
+        <v>2708188</v>
       </c>
       <c r="Y143" s="16" t="n">
-        <v>2708188</v>
+        <v>2935080</v>
       </c>
       <c r="Z143" s="16" t="n">
-        <v>2935080</v>
+        <v>3011124</v>
       </c>
       <c r="AA143" s="16" t="n">
-        <v>3011124</v>
+        <v>3021183</v>
       </c>
       <c r="AB143" s="16" t="n">
-        <v>3021183</v>
+        <v>3047521</v>
       </c>
       <c r="AC143" s="16" t="n">
-        <v>3047521</v>
+        <v>3085538</v>
       </c>
       <c r="AD143" s="16" t="n">
-        <v>3085538</v>
+        <v>3226196</v>
       </c>
       <c r="AE143" s="16" t="n">
-        <v>3226196</v>
+        <v>4254768</v>
       </c>
       <c r="AF143" s="16" t="n">
-        <v>4254768</v>
+        <v>4501905</v>
       </c>
       <c r="AG143" s="16" t="n">
-        <v>4501905</v>
+        <v>5244459</v>
       </c>
       <c r="AH143" s="16" t="n">
-        <v>5244459</v>
+        <v>5892204</v>
       </c>
       <c r="AI143" s="16" t="n">
-        <v>5892204</v>
+        <v>8678271</v>
       </c>
       <c r="AJ143" s="16" t="n">
-        <v>8678271</v>
+        <v>5756584</v>
       </c>
       <c r="AK143" s="16" t="n">
-        <v>5756584</v>
+        <v>5637856</v>
       </c>
       <c r="AL143" s="16" t="n">
-        <v>5637856</v>
+        <v>5642860</v>
       </c>
       <c r="AM143" s="16" t="n">
-        <v>5642860</v>
+        <v>5329025</v>
       </c>
       <c r="AN143" s="16" t="n">
-        <v>5329025</v>
+        <v>5778622</v>
       </c>
       <c r="AO143" s="16" t="n">
-        <v>5778622</v>
-      </c>
-      <c r="AP143" s="16" t="n">
         <v>6620497</v>
+      </c>
+      <c r="AP143" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ143" s="16" t="s">
         <v>58</v>
@@ -22196,15 +22196,15 @@
       <c r="X144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y144" s="13" t="s">
-        <v>58</v>
+      <c r="Y144" s="13" t="n">
+        <v>10900000</v>
       </c>
       <c r="Z144" s="13" t="n">
-        <v>10900000</v>
-      </c>
-      <c r="AA144" s="13" t="n">
         <v>10739130</v>
       </c>
+      <c r="AA144" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB144" s="13" t="s">
         <v>58</v>
       </c>
@@ -22223,53 +22223,53 @@
       <c r="AG144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH144" s="13" t="s">
-        <v>58</v>
+      <c r="AH144" s="13" t="n">
+        <v>15693878</v>
       </c>
       <c r="AI144" s="13" t="n">
-        <v>15693878</v>
+        <v>15377358</v>
       </c>
       <c r="AJ144" s="13" t="n">
-        <v>15377358</v>
+        <v>15520000</v>
       </c>
       <c r="AK144" s="13" t="n">
-        <v>15520000</v>
+        <v>15630435</v>
       </c>
       <c r="AL144" s="13" t="n">
-        <v>15630435</v>
+        <v>15300000</v>
       </c>
       <c r="AM144" s="13" t="n">
-        <v>15300000</v>
+        <v>18400000</v>
       </c>
       <c r="AN144" s="13" t="n">
-        <v>18400000</v>
-      </c>
-      <c r="AO144" s="13" t="n">
         <v>18791667</v>
       </c>
+      <c r="AO144" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ144" s="13" t="s">
-        <v>58</v>
+      <c r="AQ144" s="13" t="n">
+        <v>22241935</v>
       </c>
       <c r="AR144" s="13" t="n">
-        <v>22241935</v>
+        <v>21936170</v>
       </c>
       <c r="AS144" s="13" t="n">
-        <v>21936170</v>
-      </c>
-      <c r="AT144" s="13" t="n">
         <v>21884615</v>
       </c>
-      <c r="AU144" s="13" t="s">
-        <v>58</v>
+      <c r="AT144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU144" s="13" t="n">
+        <v>45000000</v>
       </c>
       <c r="AV144" s="13" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="AW144" s="13" t="n">
         <v>44930556</v>
+      </c>
+      <c r="AW144" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX144" s="13" t="s">
         <v>58</v>
@@ -22343,11 +22343,11 @@
       <c r="T145" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U145" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="V145" s="16" t="n">
+      <c r="U145" s="16" t="n">
         <v>9600000</v>
+      </c>
+      <c r="V145" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="W145" s="16" t="s">
         <v>58</v>
@@ -22718,41 +22718,41 @@
       <c r="T148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U148" s="13" t="s">
-        <v>58</v>
+      <c r="U148" s="13" t="n">
+        <v>2251220</v>
       </c>
       <c r="V148" s="13" t="n">
-        <v>2251220</v>
+        <v>2335881</v>
       </c>
       <c r="W148" s="13" t="n">
-        <v>2335881</v>
+        <v>2587402</v>
       </c>
       <c r="X148" s="13" t="n">
-        <v>2587402</v>
+        <v>4144398</v>
       </c>
       <c r="Y148" s="13" t="n">
-        <v>4144398</v>
+        <v>3797386</v>
       </c>
       <c r="Z148" s="13" t="n">
-        <v>3797386</v>
+        <v>3873950</v>
       </c>
       <c r="AA148" s="13" t="n">
-        <v>3873950</v>
+        <v>3251163</v>
       </c>
       <c r="AB148" s="13" t="n">
-        <v>3251163</v>
+        <v>3596527</v>
       </c>
       <c r="AC148" s="13" t="n">
-        <v>3596527</v>
+        <v>3260163</v>
       </c>
       <c r="AD148" s="13" t="n">
-        <v>3260163</v>
+        <v>3830769</v>
       </c>
       <c r="AE148" s="13" t="n">
-        <v>3830769</v>
-      </c>
-      <c r="AF148" s="13" t="n">
         <v>4054187</v>
+      </c>
+      <c r="AF148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG148" s="13" t="s">
         <v>58</v>
@@ -22955,29 +22955,29 @@
       <c r="AT149" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU149" s="16" t="s">
-        <v>58</v>
+      <c r="AU149" s="16" t="n">
+        <v>12363636</v>
       </c>
       <c r="AV149" s="16" t="n">
-        <v>12363636</v>
+        <v>11304178</v>
       </c>
       <c r="AW149" s="16" t="n">
-        <v>11304178</v>
+        <v>12394295</v>
       </c>
       <c r="AX149" s="16" t="n">
-        <v>12394295</v>
+        <v>12867503</v>
       </c>
       <c r="AY149" s="16" t="n">
-        <v>12867503</v>
+        <v>13693155</v>
       </c>
       <c r="AZ149" s="16" t="n">
-        <v>13693155</v>
+        <v>13812581</v>
       </c>
       <c r="BA149" s="16" t="n">
-        <v>13812581</v>
+        <v>14120285</v>
       </c>
       <c r="BB149" s="16" t="n">
-        <v>14120285</v>
+        <v>14192876</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23036,38 +23036,38 @@
       <c r="T150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U150" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V150" s="13" t="n">
+      <c r="U150" s="13" t="n">
         <v>2493506</v>
       </c>
-      <c r="W150" s="13" t="s">
-        <v>58</v>
+      <c r="V150" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W150" s="13" t="n">
+        <v>2924138</v>
       </c>
       <c r="X150" s="13" t="n">
-        <v>2924138</v>
+        <v>3598011</v>
       </c>
       <c r="Y150" s="13" t="n">
-        <v>3598011</v>
-      </c>
-      <c r="Z150" s="13" t="n">
         <v>2502591</v>
       </c>
-      <c r="AA150" s="13" t="s">
-        <v>58</v>
+      <c r="Z150" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA150" s="13" t="n">
+        <v>2461538</v>
       </c>
       <c r="AB150" s="13" t="n">
-        <v>2461538</v>
+        <v>2500000</v>
       </c>
       <c r="AC150" s="13" t="n">
-        <v>2500000</v>
+        <v>2500406</v>
       </c>
       <c r="AD150" s="13" t="n">
-        <v>2500406</v>
-      </c>
-      <c r="AE150" s="13" t="n">
         <v>2590909</v>
+      </c>
+      <c r="AE150" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF150" s="13" t="s">
         <v>58</v>
@@ -23201,11 +23201,11 @@
       <c r="V151" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W151" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="X151" s="16" t="n">
+      <c r="W151" s="16" t="n">
         <v>2000000</v>
+      </c>
+      <c r="X151" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Y151" s="16" t="s">
         <v>58</v>
@@ -23354,15 +23354,15 @@
       <c r="T152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U152" s="13" t="s">
-        <v>58</v>
+      <c r="U152" s="13" t="n">
+        <v>1649800</v>
       </c>
       <c r="V152" s="13" t="n">
-        <v>1649800</v>
-      </c>
-      <c r="W152" s="13" t="n">
         <v>1650549</v>
       </c>
+      <c r="W152" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="X152" s="13" t="s">
         <v>58</v>
       </c>
@@ -23378,14 +23378,14 @@
       <c r="AB152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC152" s="13" t="s">
-        <v>58</v>
+      <c r="AC152" s="13" t="n">
+        <v>5000000</v>
       </c>
       <c r="AD152" s="13" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AE152" s="13" t="n">
         <v>4998853</v>
+      </c>
+      <c r="AE152" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF152" s="13" t="s">
         <v>58</v>
@@ -23516,23 +23516,23 @@
       <c r="U153" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V153" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W153" s="16" t="n">
+      <c r="V153" s="16" t="n">
         <v>1902058</v>
       </c>
+      <c r="W153" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="X153" s="16" t="s">
         <v>58</v>
       </c>
       <c r="Y153" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z153" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA153" s="16" t="n">
+      <c r="Z153" s="16" t="n">
         <v>5122164</v>
+      </c>
+      <c r="AA153" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AB153" s="16" t="s">
         <v>58</v>
